--- a/02_Registration/data.xlsx
+++ b/02_Registration/data.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
-  <workbookPr hidePivotFieldList="1"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jpngym.sharepoint.com/sites/TRA885/Shared Documents/03_全日本選手権/2023/02_Registration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="11_3355E4A77CC895B2DFF1734AFE7476BB746FC0DE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70CC956A-6D22-8B4F-8004-F4D9866AC4D7}"/>
+  <xr:revisionPtr revIDLastSave="245" documentId="11_3355E4A77CC895B2DFF1734AFE7476BB746FC0DE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C238D7F8-B894-6E48-9A36-6CD46F6531E8}"/>
   <bookViews>
-    <workbookView xWindow="34500" yWindow="620" windowWidth="34160" windowHeight="28040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="620" windowWidth="68520" windowHeight="28040" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MEN" sheetId="5" r:id="rId1"/>
@@ -18,11 +18,16 @@
     <sheet name="選手情報一覧" sheetId="2" r:id="rId3"/>
     <sheet name="所属団体情報一覧" sheetId="3" r:id="rId4"/>
     <sheet name="チーム情報一覧" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="23" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3068" uniqueCount="1147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3392" uniqueCount="1289">
   <si>
     <t>№</t>
   </si>
@@ -3485,6 +3490,602 @@
   </si>
   <si>
     <t>女子</t>
+  </si>
+  <si>
+    <t>女子　勝森天音／石井あみる</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジョシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男子　石川和/宮野隼人　金沢学院大学クラブ</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ダンシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男子　神山空駕/高木惇平　大泉スワロー体育クラブ</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ダンシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男子 片岡拓朗/伊藤佑真</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ダンシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性　鈴木蒼大/結城理輝</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>豊田　秀真</t>
+  </si>
+  <si>
+    <t>豊後輝道</t>
+  </si>
+  <si>
+    <t>山崎凌空</t>
+  </si>
+  <si>
+    <t>片岡雄貴</t>
+  </si>
+  <si>
+    <t>中井大翔</t>
+  </si>
+  <si>
+    <t>美田靖文</t>
+  </si>
+  <si>
+    <t>都竹奏翔</t>
+  </si>
+  <si>
+    <t>番所駿斗</t>
+  </si>
+  <si>
+    <t>松岡龍吾</t>
+  </si>
+  <si>
+    <t>藤田隆之介</t>
+  </si>
+  <si>
+    <t>田口楽</t>
+  </si>
+  <si>
+    <t>長谷川碧人</t>
+  </si>
+  <si>
+    <t>谷口遼平</t>
+  </si>
+  <si>
+    <t>石田孝</t>
+  </si>
+  <si>
+    <t>石原巧己</t>
+  </si>
+  <si>
+    <t>熊谷天慈</t>
+  </si>
+  <si>
+    <t>針生淳平</t>
+  </si>
+  <si>
+    <t>秦颯士</t>
+  </si>
+  <si>
+    <t>中山偉斗</t>
+  </si>
+  <si>
+    <t>上田乃維</t>
+  </si>
+  <si>
+    <t>松本悠生</t>
+  </si>
+  <si>
+    <t>市川萌瑠</t>
+  </si>
+  <si>
+    <t>宮野隼人</t>
+  </si>
+  <si>
+    <t>宮野冬馬</t>
+  </si>
+  <si>
+    <t>吉村匡貴</t>
+  </si>
+  <si>
+    <t>林竜雅</t>
+  </si>
+  <si>
+    <t>岸大貴</t>
+  </si>
+  <si>
+    <t>横石塁</t>
+  </si>
+  <si>
+    <t>奥山大雅</t>
+  </si>
+  <si>
+    <t>中田悠暉</t>
+  </si>
+  <si>
+    <t>井関駿太</t>
+  </si>
+  <si>
+    <t>伊藤佑真</t>
+  </si>
+  <si>
+    <t>神山空駕</t>
+  </si>
+  <si>
+    <t>澤田守杏</t>
+  </si>
+  <si>
+    <t>大藤彩</t>
+  </si>
+  <si>
+    <t>櫻井愛菜</t>
+  </si>
+  <si>
+    <t>田中希湖</t>
+  </si>
+  <si>
+    <t>林璃奈</t>
+  </si>
+  <si>
+    <t>大西楓</t>
+  </si>
+  <si>
+    <t>木村心春</t>
+  </si>
+  <si>
+    <t>伊吹千夢</t>
+  </si>
+  <si>
+    <t>播磨ここね</t>
+  </si>
+  <si>
+    <t>石田美咲希</t>
+  </si>
+  <si>
+    <t>南栞奈</t>
+  </si>
+  <si>
+    <t>都竹結花</t>
+  </si>
+  <si>
+    <t>横石優萌</t>
+  </si>
+  <si>
+    <t>塚本莉子</t>
+  </si>
+  <si>
+    <t>長澤萌栞</t>
+  </si>
+  <si>
+    <t>大木彩</t>
+  </si>
+  <si>
+    <t>千葉夢咲</t>
+  </si>
+  <si>
+    <t>山田愛芽</t>
+  </si>
+  <si>
+    <t>石坂漣</t>
+  </si>
+  <si>
+    <t>冨岡里帆</t>
+  </si>
+  <si>
+    <t>森はっぴ</t>
+  </si>
+  <si>
+    <t>松本陽葵</t>
+  </si>
+  <si>
+    <t>小林和</t>
+  </si>
+  <si>
+    <t>小石和奈</t>
+  </si>
+  <si>
+    <t>山﨑香凛</t>
+  </si>
+  <si>
+    <t>三澤優華</t>
+  </si>
+  <si>
+    <t>佐藤歩実</t>
+  </si>
+  <si>
+    <t>岡田楓佳</t>
+  </si>
+  <si>
+    <t>高木裕美</t>
+  </si>
+  <si>
+    <t>櫛引心温</t>
+  </si>
+  <si>
+    <t>吉村紅子</t>
+  </si>
+  <si>
+    <t>岸野こころ</t>
+  </si>
+  <si>
+    <t>野村菜津美</t>
+  </si>
+  <si>
+    <t>角力山美妃</t>
+  </si>
+  <si>
+    <t>羽手原桜</t>
+  </si>
+  <si>
+    <t>辻田花凜勝森天音</t>
+  </si>
+  <si>
+    <t>石井あみる</t>
+  </si>
+  <si>
+    <t>宮内　翼光</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鈴木 蒼大</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結城 理輝</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>堀江 兼世</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松本 航翔</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横澤晴稀</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>江尻愛翔</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>永田信弥</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大内颯</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中山心輝</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石井祐雅</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>村上遥音</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>笠原武晃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石川和</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海野大透</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中園貴登</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>崎浜寧王</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>堺亮介</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高木惇平</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>楽</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ラク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>和</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ワ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>林</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ハヤシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>塁</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ルイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>片岡拓朗</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田大翔</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隆之介</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">リュウノスケ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>渡部夏寿貴</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長谷川</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ハセガワ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田山 雄貴</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>孝</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">タカシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秦</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ハタ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>堺</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">サカイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>髙木</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">タカギ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夏寿貴</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>颯</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ハヤテ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岸</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">キシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雄貴</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ユウキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田山雄貴</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">タヤマ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ユウキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここね</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>美咲希</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ミサキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>髙橋明里</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>谷好真琴</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>竹嵜玲奈</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三澤優華</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>漣</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">レン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">モリ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はっぴ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>末冨 穂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS PGothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>⾹</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>江上 瑠奈</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>片岡美羽音</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>美羽音</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ミハネ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大木彩</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>彩</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アヤ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐藤優菜</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太村成見</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東彩乃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ヒガシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>光本知里</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>坪井侑奈</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こころ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>菜都美</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ナツミ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>角力山</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">スモウヤマ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>髙橋琳</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>琳</t>
+  </si>
+  <si>
+    <t>あみる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>羽手原</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ハデワラ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桜</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">サクラ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -3492,9 +4093,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3513,6 +4114,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS PGothic"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
@@ -3540,13 +4148,13 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="98">
+  <dxfs count="82">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3559,223 +4167,13 @@
     </dxf>
     <dxf>
       <font>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4630,6 +5028,7 @@
         <charset val="128"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     </dxf>
     <dxf>
       <font>
@@ -4756,6 +5155,36 @@
         <charset val="128"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="メイリオ"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="メイリオ"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -4785,6 +5214,76 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="メイリオ"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="メイリオ"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="メイリオ"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="メイリオ"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="メイリオ"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="メイリオ"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4796,6 +5295,549 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="使用しない Revise"/>
+      <sheetName val="IND MEN"/>
+      <sheetName val="IND WOMEN"/>
+      <sheetName val="SYN MEN"/>
+      <sheetName val="SYN WOME"/>
+      <sheetName val="TEAM MEN"/>
+      <sheetName val="TEAM WOMEN"/>
+      <sheetName val="作業用"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="5">
+          <cell r="D5" t="str">
+            <v>伊藤 佑真</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>日本体育大学トランポリンクラブ</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>井関 駿太</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>星稜クラブ</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>永田 信弥</v>
+          </cell>
+          <cell r="F7" t="str">
+            <v>極東油業株式会社/アベノジュニアトランポリンクラブ</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8" t="str">
+            <v>奥山 大雅</v>
+          </cell>
+          <cell r="F8" t="str">
+            <v>金沢学院大学クラブ</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9" t="str">
+            <v>横石 塁</v>
+          </cell>
+          <cell r="F9" t="str">
+            <v>アベノジュニアトランポリンクラブ</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10" t="str">
+            <v>横澤 晴稀</v>
+          </cell>
+          <cell r="F10" t="str">
+            <v>金沢学院大学クラブ</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="D11" t="str">
+            <v>海野 大透</v>
+          </cell>
+          <cell r="F11" t="str">
+            <v>静岡産業大学クラブ/株式会社サン</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="D12" t="str">
+            <v>笠原 武晃</v>
+          </cell>
+          <cell r="F12" t="str">
+            <v>レインボージムナスティックス大潟</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="D13" t="str">
+            <v>岸 大貴</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>株式会社ポピンズ</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="D14" t="str">
+            <v>吉村 匡貴</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>アベノジュニアトランポリンクラブ</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="D15" t="str">
+            <v>宮内 翼光</v>
+          </cell>
+          <cell r="F15" t="str">
+            <v>大泉スワロー体育クラブ</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="D16" t="str">
+            <v>宮野 冬馬</v>
+          </cell>
+          <cell r="F16" t="str">
+            <v>相好トランポリンクラブ</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="D17" t="str">
+            <v>宮野 隼人</v>
+          </cell>
+          <cell r="F17" t="str">
+            <v>金沢学院大学クラブ</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="D18" t="str">
+            <v>近藤 馨</v>
+          </cell>
+          <cell r="F18" t="str">
+            <v>MUSASHI TRAMPOLINE CLUB</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="D19" t="str">
+            <v>熊谷 天慈</v>
+          </cell>
+          <cell r="F19" t="str">
+            <v>金沢学院大学クラブ</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="D20" t="str">
+            <v>結城 理輝</v>
+          </cell>
+          <cell r="F20" t="str">
+            <v>日本体育大学トランポリンクラブ</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="D21" t="str">
+            <v>江尻 愛翔</v>
+          </cell>
+          <cell r="F21" t="str">
+            <v>フリーエアースポーツクラブ</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="D22" t="str">
+            <v>今本 修成</v>
+          </cell>
+          <cell r="F22" t="str">
+            <v>星稜クラブ</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="D23" t="str">
+            <v>堺 亮介</v>
+          </cell>
+          <cell r="F23" t="str">
+            <v>バンダイナムコアミューズメント</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="D24" t="str">
+            <v>崎浜 寧王</v>
+          </cell>
+          <cell r="F24" t="str">
+            <v>Atsugibonfire</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="D25" t="str">
+            <v>山崎 凌空</v>
+          </cell>
+          <cell r="F25" t="str">
+            <v>星稜クラブ</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="D26" t="str">
+            <v>山田 大翔</v>
+          </cell>
+          <cell r="F26" t="str">
+            <v>フリーエアースポーツクラブ/ダイドードリンコ株式会社</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="D27" t="str">
+            <v>市川 萌瑠</v>
+          </cell>
+          <cell r="F27" t="str">
+            <v>静岡産業大学クラブ</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="D28" t="str">
+            <v>松岡 龍吾</v>
+          </cell>
+          <cell r="F28" t="str">
+            <v>星稜クラブ</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="D29" t="str">
+            <v>松本 航翔</v>
+          </cell>
+          <cell r="F29" t="str">
+            <v>金沢学院大学クラブ</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="D30" t="str">
+            <v>松本 悠生</v>
+          </cell>
+          <cell r="F30" t="str">
+            <v>金沢学院大学クラブ</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="D31" t="str">
+            <v>上山 容弘</v>
+          </cell>
+          <cell r="F31" t="str">
+            <v>TOKYO SPORTS ACADEMY</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="D32" t="str">
+            <v>上田 乃維</v>
+          </cell>
+          <cell r="F32" t="str">
+            <v>慶應義塾大学</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="D33" t="str">
+            <v>神山 空駕</v>
+          </cell>
+          <cell r="F33" t="str">
+            <v>Ambitious</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="D34" t="str">
+            <v>秦 颯士</v>
+          </cell>
+          <cell r="F34" t="str">
+            <v>星稜クラブ</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="D35" t="str">
+            <v>針生 淳平</v>
+          </cell>
+          <cell r="F35" t="str">
+            <v>金沢学院大学クラブ</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="D36" t="str">
+            <v>西岡 隆成</v>
+          </cell>
+          <cell r="F36" t="str">
+            <v>近畿大学</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="D37" t="str">
+            <v>石井 祐雅</v>
+          </cell>
+          <cell r="F37" t="str">
+            <v>エアリアルドリームスポーツクラブ</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="D38" t="str">
+            <v>石原 巧己</v>
+          </cell>
+          <cell r="F38" t="str">
+            <v>金沢学院大学クラブ</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="D39" t="str">
+            <v>石川 和</v>
+          </cell>
+          <cell r="F39" t="str">
+            <v>ヒロセホールディングス株式会社</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="D40" t="str">
+            <v>石田 孝</v>
+          </cell>
+          <cell r="F40" t="str">
+            <v>金沢学院大学クラブ</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="D41" t="str">
+            <v>赤石 泰雅</v>
+          </cell>
+          <cell r="F41" t="str">
+            <v>星稜クラブ</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="D42" t="str">
+            <v>村上 遥音</v>
+          </cell>
+          <cell r="F42" t="str">
+            <v>アベノジュニアトランポリンクラブ</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="D43" t="str">
+            <v>村石 雄陽</v>
+          </cell>
+          <cell r="F43" t="str">
+            <v>大泉スワロー体育クラブ</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="D44" t="str">
+            <v>大内 颯</v>
+          </cell>
+          <cell r="F44" t="str">
+            <v>CRAZY-TRAMPOLINE</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="D45" t="str">
+            <v>谷口 遼平</v>
+          </cell>
+          <cell r="F45" t="str">
+            <v>たにぐちりょうへいトランポリンクラブ/第一商事株式会社</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="D46" t="str">
+            <v>中井 大翔</v>
+          </cell>
+          <cell r="F46" t="str">
+            <v>Phoenix Trampoline School</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="D47" t="str">
+            <v>中園 貴登</v>
+          </cell>
+          <cell r="F47" t="str">
+            <v>ユニフォームネクスト株式会社</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="D48" t="str">
+            <v>中山 偉斗</v>
+          </cell>
+          <cell r="F48" t="str">
+            <v>星稜クラブ</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="D49" t="str">
+            <v>中山 心輝</v>
+          </cell>
+          <cell r="F49" t="str">
+            <v>阪南大学クラブ</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="D50" t="str">
+            <v>中田 悠暉</v>
+          </cell>
+          <cell r="F50" t="str">
+            <v>金沢学院大学クラブ</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="D51" t="str">
+            <v>長谷川 碧人</v>
+          </cell>
+          <cell r="F51" t="str">
+            <v>星稜クラブ</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="D52" t="str">
+            <v>田口 楽</v>
+          </cell>
+          <cell r="F52" t="str">
+            <v>Gale</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="D53" t="str">
+            <v>田山 雄貴</v>
+          </cell>
+          <cell r="F53" t="str">
+            <v>星稜クラブ</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="D54" t="str">
+            <v>渡部 夏寿貴</v>
+          </cell>
+          <cell r="F54" t="str">
+            <v>静岡産業大学クラブ</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="D55" t="str">
+            <v>都竹 奏翔</v>
+          </cell>
+          <cell r="F55" t="str">
+            <v>星稜クラブ</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="D56" t="str">
+            <v>棟朝 銀河</v>
+          </cell>
+          <cell r="F56" t="str">
+            <v>セイコー</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="D57" t="str">
+            <v>藤田 隆之介</v>
+          </cell>
+          <cell r="F57" t="str">
+            <v>三木プーリ/フリーエアースポーツクラブ</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="D58" t="str">
+            <v>番所 駿斗</v>
+          </cell>
+          <cell r="F58" t="str">
+            <v>星稜クラブ</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="D59" t="str">
+            <v>美田 靖文</v>
+          </cell>
+          <cell r="F59" t="str">
+            <v>星稜クラブ</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="D60" t="str">
+            <v>片岡 拓朗</v>
+          </cell>
+          <cell r="F60" t="str">
+            <v>日本体育大学トランポリンクラブ</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="D61" t="str">
+            <v>片岡 雄貴</v>
+          </cell>
+          <cell r="F61" t="str">
+            <v>Phoenix Trampoline School/てんとう虫パーク</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="D62" t="str">
+            <v>豊後 輝道</v>
+          </cell>
+          <cell r="F62" t="str">
+            <v>星稜クラブ</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="D63" t="str">
+            <v>豊田 秀真</v>
+          </cell>
+          <cell r="F63" t="str">
+            <v>大泉スワロー体育クラブ</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="D64" t="str">
+            <v>堀江 兼世</v>
+          </cell>
+          <cell r="F64" t="str">
+            <v>金沢学院大学クラブ</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="D65" t="str">
+            <v>野村 綾之介</v>
+          </cell>
+          <cell r="F65" t="str">
+            <v>株式会社Prima</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="D66" t="str">
+            <v>林 竜雅</v>
+          </cell>
+          <cell r="F66" t="str">
+            <v>アベノジュニアトランポリンクラブ</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="D67" t="str">
+            <v>鈴木 蒼大</v>
+          </cell>
+          <cell r="F67" t="str">
+            <v>日本体育大学トランポリンクラブ</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="D68" t="str">
+            <v>髙木 惇平</v>
+          </cell>
+          <cell r="F68" t="str">
+            <v>大泉スワロー体育クラブ</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4876,7 +5918,7 @@
     <cacheField name="チーム名" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="個人ID" numFmtId="179">
+    <cacheField name="個人ID" numFmtId="176">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="810029827" maxValue="923818559"/>
     </cacheField>
     <cacheField name="氏名" numFmtId="0">
@@ -5178,9 +6220,12 @@
       </sharedItems>
     </cacheField>
     <cacheField name="団体メンバー (団体と入力。最低3名、最高4名。男女それぞれ1チーム)" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsBlank="1" count="2">
+        <m/>
+        <s v="団体"/>
+      </sharedItems>
     </cacheField>
-    <cacheField name="予選会通過順位" numFmtId="179">
+    <cacheField name="予選会通過順位" numFmtId="176">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="66" count="66">
         <n v="50"/>
         <n v="42"/>
@@ -5276,7 +6321,7 @@
     <n v="17"/>
     <s v="2023-03-31"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
@@ -5294,7 +6339,7 @@
     <n v="16"/>
     <s v="2023-03-31"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
@@ -5312,7 +6357,7 @@
     <n v="13"/>
     <s v="2023-03-17"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="2"/>
   </r>
   <r>
@@ -5330,7 +6375,7 @@
     <n v="24"/>
     <s v="2023-04-05"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="3"/>
   </r>
   <r>
@@ -5348,7 +6393,7 @@
     <n v="17"/>
     <s v="2023-03-21"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="4"/>
   </r>
   <r>
@@ -5366,7 +6411,7 @@
     <n v="27"/>
     <s v="2023-03-22"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="5"/>
   </r>
   <r>
@@ -5384,7 +6429,7 @@
     <n v="18"/>
     <s v="2023-04-08"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="6"/>
   </r>
   <r>
@@ -5402,7 +6447,7 @@
     <n v="19"/>
     <s v="2023-04-03"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="7"/>
   </r>
   <r>
@@ -5420,7 +6465,7 @@
     <n v="20"/>
     <s v="2023-04-03"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="8"/>
   </r>
   <r>
@@ -5438,7 +6483,7 @@
     <n v="19"/>
     <s v="2023-04-03"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="9"/>
   </r>
   <r>
@@ -5456,7 +6501,7 @@
     <n v="19"/>
     <s v="2023-04-03"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="10"/>
   </r>
   <r>
@@ -5474,7 +6519,7 @@
     <n v="18"/>
     <s v="2023-04-12"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="11"/>
   </r>
   <r>
@@ -5492,7 +6537,7 @@
     <n v="28"/>
     <s v="2023-04-08"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="12"/>
   </r>
   <r>
@@ -5510,7 +6555,7 @@
     <n v="16"/>
     <s v="2023-04-03"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
@@ -5528,7 +6573,7 @@
     <n v="19"/>
     <s v="2023-04-03"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="13"/>
   </r>
   <r>
@@ -5546,7 +6591,7 @@
     <n v="16"/>
     <s v="2023-04-03"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="14"/>
   </r>
   <r>
@@ -5564,7 +6609,7 @@
     <n v="13"/>
     <s v="2023-04-03"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="15"/>
   </r>
   <r>
@@ -5582,7 +6627,7 @@
     <n v="15"/>
     <s v="2023-04-03"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="16"/>
   </r>
   <r>
@@ -5600,7 +6645,7 @@
     <n v="12"/>
     <s v="2023-04-03"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="17"/>
   </r>
   <r>
@@ -5618,7 +6663,7 @@
     <n v="28"/>
     <s v="2023-04-11"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="18"/>
   </r>
   <r>
@@ -5636,7 +6681,7 @@
     <n v="38"/>
     <s v="2023-04-05"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="19"/>
   </r>
   <r>
@@ -5654,7 +6699,7 @@
     <n v="24"/>
     <s v="2023-03-14"/>
     <x v="1"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="20"/>
   </r>
   <r>
@@ -5672,7 +6717,7 @@
     <n v="13"/>
     <s v="2023-03-14"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="21"/>
   </r>
   <r>
@@ -5690,7 +6735,7 @@
     <n v="13"/>
     <s v="2023-03-14"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="22"/>
   </r>
   <r>
@@ -5708,7 +6753,7 @@
     <n v="16"/>
     <s v="2023-03-14"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="9"/>
   </r>
   <r>
@@ -5726,7 +6771,7 @@
     <n v="14"/>
     <s v="2023-03-14"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="23"/>
   </r>
   <r>
@@ -5744,7 +6789,7 @@
     <n v="16"/>
     <s v="2023-04-08"/>
     <x v="2"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="4"/>
   </r>
   <r>
@@ -5762,7 +6807,7 @@
     <n v="28"/>
     <s v="2023-04-05"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="24"/>
   </r>
   <r>
@@ -5780,7 +6825,7 @@
     <n v="27"/>
     <s v="2023-03-16"/>
     <x v="3"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="5"/>
   </r>
   <r>
@@ -5798,7 +6843,7 @@
     <n v="24"/>
     <s v="2023-03-25"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="25"/>
   </r>
   <r>
@@ -5816,7 +6861,7 @@
     <n v="20"/>
     <s v="2023-04-09"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="26"/>
   </r>
   <r>
@@ -5834,7 +6879,7 @@
     <n v="25"/>
     <s v="2023-04-07"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="26"/>
   </r>
   <r>
@@ -5852,7 +6897,7 @@
     <n v="25"/>
     <s v="2023-04-10"/>
     <x v="4"/>
-    <m/>
+    <x v="0"/>
     <x v="27"/>
   </r>
   <r>
@@ -5870,7 +6915,7 @@
     <n v="26"/>
     <s v="2023-03-17"/>
     <x v="5"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="28"/>
   </r>
   <r>
@@ -5888,7 +6933,7 @@
     <n v="23"/>
     <s v="2023-04-12"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="29"/>
   </r>
   <r>
@@ -5906,7 +6951,7 @@
     <n v="23"/>
     <s v="2023-09-08"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="30"/>
   </r>
   <r>
@@ -5924,7 +6969,7 @@
     <n v="28"/>
     <s v="2023-04-09"/>
     <x v="2"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="31"/>
   </r>
   <r>
@@ -5942,7 +6987,7 @@
     <n v="24"/>
     <s v="2023-03-15"/>
     <x v="6"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="32"/>
   </r>
   <r>
@@ -5960,7 +7005,7 @@
     <n v="14"/>
     <s v="2023-03-22"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="33"/>
   </r>
   <r>
@@ -5978,7 +7023,7 @@
     <n v="13"/>
     <s v="2023-04-04"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="11"/>
   </r>
   <r>
@@ -5996,7 +7041,7 @@
     <n v="25"/>
     <s v="2023-04-04"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="34"/>
   </r>
   <r>
@@ -6014,7 +7059,7 @@
     <n v="18"/>
     <s v="2023-04-04"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="35"/>
   </r>
   <r>
@@ -6032,7 +7077,7 @@
     <n v="13"/>
     <s v="2023-04-04"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="36"/>
   </r>
   <r>
@@ -6050,7 +7095,7 @@
     <n v="23"/>
     <s v="2023-04-09"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="12"/>
   </r>
   <r>
@@ -6068,7 +7113,7 @@
     <n v="26"/>
     <s v="2023-04-09"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="2"/>
   </r>
   <r>
@@ -6086,7 +7131,7 @@
     <n v="21"/>
     <s v="2023-03-20"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="37"/>
   </r>
   <r>
@@ -6104,7 +7149,7 @@
     <n v="26"/>
     <s v="2023-04-13"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="25"/>
   </r>
   <r>
@@ -6122,7 +7167,7 @@
     <n v="20"/>
     <s v="2023-03-30"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="38"/>
   </r>
   <r>
@@ -6140,7 +7185,7 @@
     <n v="17"/>
     <s v="2023-03-30"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="37"/>
   </r>
   <r>
@@ -6158,7 +7203,7 @@
     <n v="20"/>
     <s v="2023-03-30"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="16"/>
   </r>
   <r>
@@ -6176,7 +7221,7 @@
     <n v="16"/>
     <s v="2023-03-30"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="39"/>
   </r>
   <r>
@@ -6194,7 +7239,7 @@
     <n v="20"/>
     <s v="2023-03-30"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="40"/>
   </r>
   <r>
@@ -6212,7 +7257,7 @@
     <n v="17"/>
     <s v="2023-03-30"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="41"/>
   </r>
   <r>
@@ -6230,7 +7275,7 @@
     <n v="15"/>
     <s v="2023-03-30"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="42"/>
   </r>
   <r>
@@ -6248,7 +7293,7 @@
     <n v="18"/>
     <s v="2023-03-30"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="31"/>
   </r>
   <r>
@@ -6266,7 +7311,7 @@
     <n v="16"/>
     <s v="2023-03-30"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="43"/>
   </r>
   <r>
@@ -6284,7 +7329,7 @@
     <n v="16"/>
     <s v="2023-03-30"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="44"/>
   </r>
   <r>
@@ -6302,7 +7347,7 @@
     <n v="17"/>
     <s v="2023-03-30"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="6"/>
   </r>
   <r>
@@ -6320,7 +7365,7 @@
     <n v="15"/>
     <s v="2023-03-30"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="45"/>
   </r>
   <r>
@@ -6338,7 +7383,7 @@
     <n v="19"/>
     <s v="2023-03-30"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="32"/>
   </r>
   <r>
@@ -6356,7 +7401,7 @@
     <n v="18"/>
     <s v="2023-03-30"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="46"/>
   </r>
   <r>
@@ -6374,7 +7419,7 @@
     <n v="15"/>
     <s v="2023-03-30"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="47"/>
   </r>
   <r>
@@ -6392,7 +7437,7 @@
     <n v="16"/>
     <s v="2023-03-30"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="48"/>
   </r>
   <r>
@@ -6410,7 +7455,7 @@
     <n v="17"/>
     <s v="2023-03-30"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="41"/>
   </r>
   <r>
@@ -6428,7 +7473,7 @@
     <n v="17"/>
     <s v="2023-03-30"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="24"/>
   </r>
   <r>
@@ -6446,7 +7491,7 @@
     <n v="18"/>
     <s v="2023-03-30"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="38"/>
   </r>
   <r>
@@ -6464,7 +7509,7 @@
     <n v="19"/>
     <s v="2023-03-30"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="47"/>
   </r>
   <r>
@@ -6482,7 +7527,7 @@
     <n v="20"/>
     <s v="2023-03-30"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="49"/>
   </r>
   <r>
@@ -6500,7 +7545,7 @@
     <n v="19"/>
     <s v="2023-03-30"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="50"/>
   </r>
   <r>
@@ -6518,7 +7563,7 @@
     <n v="17"/>
     <s v="2023-03-30"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
@@ -6536,7 +7581,7 @@
     <n v="16"/>
     <s v="2023-03-30"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="51"/>
   </r>
   <r>
@@ -6554,7 +7599,7 @@
     <n v="18"/>
     <s v="2023-03-30"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="17"/>
   </r>
   <r>
@@ -6572,7 +7617,7 @@
     <n v="21"/>
     <s v="2023-03-30"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="52"/>
   </r>
   <r>
@@ -6590,7 +7635,7 @@
     <n v="21"/>
     <s v="2023-03-30"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="33"/>
   </r>
   <r>
@@ -6608,7 +7653,7 @@
     <n v="19"/>
     <s v="2023-03-30"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="53"/>
   </r>
   <r>
@@ -6626,7 +7671,7 @@
     <n v="19"/>
     <s v="2023-03-30"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="54"/>
   </r>
   <r>
@@ -6644,7 +7689,7 @@
     <n v="18"/>
     <s v="2023-04-06"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="55"/>
   </r>
   <r>
@@ -6662,7 +7707,7 @@
     <n v="23"/>
     <s v="2023-03-30"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="25"/>
   </r>
   <r>
@@ -6680,7 +7725,7 @@
     <n v="15"/>
     <s v="2023-03-30"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="14"/>
   </r>
   <r>
@@ -6698,7 +7743,7 @@
     <n v="16"/>
     <s v="2023-03-30"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="40"/>
   </r>
   <r>
@@ -6716,7 +7761,7 @@
     <n v="16"/>
     <s v="2023-03-30"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="19"/>
   </r>
   <r>
@@ -6734,7 +7779,7 @@
     <n v="19"/>
     <s v="2023-03-30"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="49"/>
   </r>
   <r>
@@ -6752,7 +7797,7 @@
     <n v="12"/>
     <s v="2023-03-30"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="54"/>
   </r>
   <r>
@@ -6770,7 +7815,7 @@
     <n v="19"/>
     <s v="2023-03-30"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="56"/>
   </r>
   <r>
@@ -6788,7 +7833,7 @@
     <n v="17"/>
     <s v="2023-03-30"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="57"/>
   </r>
   <r>
@@ -6806,7 +7851,7 @@
     <n v="21"/>
     <s v="2023-03-30"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="58"/>
   </r>
   <r>
@@ -6824,7 +7869,7 @@
     <n v="17"/>
     <s v="2023-03-30"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="44"/>
   </r>
   <r>
@@ -6842,7 +7887,7 @@
     <n v="18"/>
     <s v="2023-04-06"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="50"/>
   </r>
   <r>
@@ -6860,7 +7905,7 @@
     <n v="14"/>
     <s v="2023-04-07"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="59"/>
   </r>
   <r>
@@ -6878,7 +7923,7 @@
     <n v="23"/>
     <s v="2023-04-03"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="21"/>
   </r>
   <r>
@@ -6896,7 +7941,7 @@
     <n v="24"/>
     <s v="2023-04-07"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="56"/>
   </r>
   <r>
@@ -6914,7 +7959,7 @@
     <n v="18"/>
     <s v="2023-04-09"/>
     <x v="7"/>
-    <m/>
+    <x v="0"/>
     <x v="52"/>
   </r>
   <r>
@@ -6932,7 +7977,7 @@
     <n v="23"/>
     <s v="2023-09-15"/>
     <x v="8"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="12"/>
   </r>
   <r>
@@ -6950,7 +7995,7 @@
     <n v="20"/>
     <s v="2023-04-14"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="34"/>
   </r>
   <r>
@@ -6968,7 +8013,7 @@
     <n v="19"/>
     <s v="2023-04-14"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="60"/>
   </r>
   <r>
@@ -6986,7 +8031,7 @@
     <n v="22"/>
     <s v="2023-04-14"/>
     <x v="9"/>
-    <m/>
+    <x v="0"/>
     <x v="30"/>
   </r>
   <r>
@@ -7004,7 +8049,7 @@
     <n v="20"/>
     <s v="2023-04-14"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="43"/>
   </r>
   <r>
@@ -7022,7 +8067,7 @@
     <n v="15"/>
     <s v="2023-04-09"/>
     <x v="10"/>
-    <m/>
+    <x v="0"/>
     <x v="3"/>
   </r>
   <r>
@@ -7040,7 +8085,7 @@
     <n v="27"/>
     <s v="2023-03-20"/>
     <x v="11"/>
-    <m/>
+    <x v="0"/>
     <x v="46"/>
   </r>
   <r>
@@ -7058,7 +8103,7 @@
     <n v="24"/>
     <s v="2023-04-07"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="61"/>
   </r>
   <r>
@@ -7076,7 +8121,7 @@
     <n v="25"/>
     <s v="2023-04-07"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="20"/>
   </r>
   <r>
@@ -7094,7 +8139,7 @@
     <n v="15"/>
     <s v="2023-04-07"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="55"/>
   </r>
   <r>
@@ -7112,7 +8157,7 @@
     <n v="15"/>
     <s v="2023-03-29"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="37"/>
   </r>
   <r>
@@ -7130,7 +8175,7 @@
     <n v="14"/>
     <s v="2023-03-29"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="15"/>
   </r>
   <r>
@@ -7148,7 +8193,7 @@
     <n v="15"/>
     <s v="2023-03-29"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="61"/>
   </r>
   <r>
@@ -7166,7 +8211,7 @@
     <n v="19"/>
     <s v="2023-03-20"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="62"/>
   </r>
   <r>
@@ -7184,7 +8229,7 @@
     <n v="17"/>
     <s v="2023-03-20"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="36"/>
   </r>
   <r>
@@ -7202,7 +8247,7 @@
     <n v="15"/>
     <s v="2023-03-20"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="57"/>
   </r>
   <r>
@@ -7220,7 +8265,7 @@
     <n v="12"/>
     <s v="2023-03-20"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="27"/>
   </r>
   <r>
@@ -7238,7 +8283,7 @@
     <n v="21"/>
     <s v="2023-03-20"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="63"/>
   </r>
   <r>
@@ -7256,7 +8301,7 @@
     <n v="20"/>
     <s v="2023-03-20"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="42"/>
   </r>
   <r>
@@ -7274,7 +8319,7 @@
     <n v="15"/>
     <s v="2023-03-20"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="2"/>
   </r>
   <r>
@@ -7292,7 +8337,7 @@
     <n v="16"/>
     <s v="2023-03-20"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="62"/>
   </r>
   <r>
@@ -7310,7 +8355,7 @@
     <n v="16"/>
     <s v="2023-03-20"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="10"/>
   </r>
   <r>
@@ -7328,7 +8373,7 @@
     <n v="15"/>
     <s v="2023-03-20"/>
     <x v="0"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="51"/>
   </r>
   <r>
@@ -7346,7 +8391,7 @@
     <n v="23"/>
     <s v="2023-03-18"/>
     <x v="12"/>
-    <m/>
+    <x v="0"/>
     <x v="48"/>
   </r>
   <r>
@@ -7364,7 +8409,7 @@
     <n v="14"/>
     <s v="2023-03-18"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="64"/>
   </r>
   <r>
@@ -7382,7 +8427,7 @@
     <n v="15"/>
     <s v="2023-03-18"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="13"/>
   </r>
   <r>
@@ -7400,7 +8445,7 @@
     <n v="20"/>
     <s v="2023-04-03"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="32"/>
   </r>
   <r>
@@ -7418,7 +8463,7 @@
     <n v="17"/>
     <s v="2023-04-03"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="65"/>
   </r>
   <r>
@@ -7436,7 +8481,7 @@
     <n v="16"/>
     <s v="2023-04-03"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="53"/>
   </r>
   <r>
@@ -7454,7 +8499,7 @@
     <n v="14"/>
     <s v="2023-04-05"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="28"/>
   </r>
   <r>
@@ -7472,7 +8517,7 @@
     <n v="13"/>
     <s v="2023-03-16"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="7"/>
   </r>
   <r>
@@ -7490,7 +8535,7 @@
     <n v="12"/>
     <s v="2023-04-09"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="45"/>
   </r>
   <r>
@@ -7508,7 +8553,7 @@
     <n v="26"/>
     <s v="2023-03-27"/>
     <x v="13"/>
-    <s v="団体"/>
+    <x v="1"/>
     <x v="63"/>
   </r>
   <r>
@@ -7526,7 +8571,7 @@
     <n v="19"/>
     <s v="2023-04-16"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="29"/>
   </r>
   <r>
@@ -7544,7 +8589,7 @@
     <n v="22"/>
     <s v="2023-04-14"/>
     <x v="14"/>
-    <m/>
+    <x v="0"/>
     <x v="60"/>
   </r>
   <r>
@@ -7562,7 +8607,7 @@
     <n v="28"/>
     <s v="2023-04-14"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="64"/>
   </r>
   <r>
@@ -7580,15 +8625,15 @@
     <n v="22"/>
     <s v="2023-04-09"/>
     <x v="15"/>
-    <m/>
+    <x v="0"/>
     <x v="8"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{211EB1DF-0118-3847-8CBE-488E1535C49E}" name="ピボットテーブル1" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A3:K69" firstHeaderRow="2" firstDataRow="2" firstDataCol="5" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{211EB1DF-0118-3847-8CBE-488E1535C49E}" name="ピボットテーブル1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A3:L69" firstHeaderRow="2" firstDataRow="2" firstDataCol="6" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -7655,7 +8700,7 @@
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="179" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="176" outline="0" showAll="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="129">
         <item x="60"/>
@@ -7946,9 +8991,15 @@
         <item x="0"/>
       </items>
     </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="67">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="66">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -8015,16 +9066,16 @@
         <item x="63"/>
         <item x="64"/>
         <item x="65"/>
-        <item t="default"/>
       </items>
     </pivotField>
   </pivotFields>
-  <rowFields count="5">
+  <rowFields count="6">
     <field x="7"/>
     <field x="8"/>
     <field x="2"/>
     <field x="13"/>
     <field x="15"/>
+    <field x="14"/>
   </rowFields>
   <rowItems count="65">
     <i>
@@ -8033,6 +9084,7 @@
       <x v="48"/>
       <x v="15"/>
       <x v="7"/>
+      <x/>
     </i>
     <i>
       <x v="2"/>
@@ -8040,6 +9092,7 @@
       <x v="42"/>
       <x v="15"/>
       <x v="40"/>
+      <x/>
     </i>
     <i>
       <x v="5"/>
@@ -8047,6 +9100,7 @@
       <x v="31"/>
       <x v="4"/>
       <x v="63"/>
+      <x/>
     </i>
     <i>
       <x v="6"/>
@@ -8054,6 +9108,7 @@
       <x v="34"/>
       <x v="15"/>
       <x v="46"/>
+      <x/>
     </i>
     <i>
       <x v="8"/>
@@ -8061,6 +9116,7 @@
       <x v="12"/>
       <x v="15"/>
       <x v="27"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="9"/>
@@ -8068,6 +9124,7 @@
       <x v="34"/>
       <x v="15"/>
       <x v="54"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="11"/>
@@ -8075,6 +9132,7 @@
       <x v="44"/>
       <x v="9"/>
       <x v="12"/>
+      <x/>
     </i>
     <i>
       <x v="13"/>
@@ -8082,6 +9140,7 @@
       <x v="25"/>
       <x v="15"/>
       <x v="25"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="14"/>
@@ -8089,6 +9148,7 @@
       <x v="30"/>
       <x v="15"/>
       <x v="18"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="16"/>
@@ -8096,6 +9156,7 @@
       <x v="12"/>
       <x v="15"/>
       <x v="36"/>
+      <x/>
     </i>
     <i>
       <x v="18"/>
@@ -8103,6 +9164,7 @@
       <x v="46"/>
       <x v="15"/>
       <x v="14"/>
+      <x/>
     </i>
     <i>
       <x v="19"/>
@@ -8110,6 +9172,7 @@
       <x v="45"/>
       <x v="15"/>
       <x v="61"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="20"/>
@@ -8117,6 +9180,7 @@
       <x v="34"/>
       <x v="15"/>
       <x v="49"/>
+      <x/>
     </i>
     <i>
       <x v="21"/>
@@ -8124,6 +9188,7 @@
       <x v="7"/>
       <x v="15"/>
       <x v="4"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="23"/>
@@ -8131,6 +9196,7 @@
       <x v="34"/>
       <x v="15"/>
       <x v="17"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="24"/>
@@ -8138,6 +9204,7 @@
       <x v="48"/>
       <x v="15"/>
       <x v="9"/>
+      <x/>
     </i>
     <i>
       <x v="27"/>
@@ -8145,6 +9212,7 @@
       <x v="23"/>
       <x v="15"/>
       <x v="21"/>
+      <x/>
     </i>
     <i>
       <x v="29"/>
@@ -8152,6 +9220,7 @@
       <x v="42"/>
       <x v="15"/>
       <x v="6"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="33"/>
@@ -8159,6 +9228,7 @@
       <x v="21"/>
       <x v="15"/>
       <x v="26"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="34"/>
@@ -8166,6 +9236,7 @@
       <x v="1"/>
       <x v="15"/>
       <x v="11"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="36"/>
@@ -8173,6 +9244,7 @@
       <x v="42"/>
       <x v="15"/>
       <x v="32"/>
+      <x/>
     </i>
     <i>
       <x v="38"/>
@@ -8180,6 +9252,7 @@
       <x v="23"/>
       <x v="5"/>
       <x v="20"/>
+      <x/>
     </i>
     <i>
       <x v="41"/>
@@ -8187,6 +9260,7 @@
       <x v="44"/>
       <x v="15"/>
       <x v="34"/>
+      <x/>
     </i>
     <i>
       <x v="49"/>
@@ -8194,6 +9268,7 @@
       <x v="42"/>
       <x v="15"/>
       <x v="42"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="50"/>
@@ -8201,6 +9276,7 @@
       <x v="34"/>
       <x v="15"/>
       <x v="50"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="51"/>
@@ -8208,6 +9284,7 @@
       <x v="34"/>
       <x v="15"/>
       <x v="51"/>
+      <x/>
     </i>
     <i>
       <x v="53"/>
@@ -8215,6 +9292,7 @@
       <x v="10"/>
       <x v="15"/>
       <x v="19"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="54"/>
@@ -8222,6 +9300,7 @@
       <x v="36"/>
       <x v="15"/>
       <x v="37"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="57"/>
@@ -8229,6 +9308,7 @@
       <x/>
       <x v="15"/>
       <x v="28"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="58"/>
@@ -8236,6 +9316,7 @@
       <x v="42"/>
       <x v="15"/>
       <x v="16"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="59"/>
@@ -8243,6 +9324,7 @@
       <x v="34"/>
       <x v="15"/>
       <x v="53"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="60"/>
@@ -8250,6 +9332,7 @@
       <x v="32"/>
       <x v="15"/>
       <x v="29"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="62"/>
@@ -8257,6 +9340,7 @@
       <x v="14"/>
       <x v="15"/>
       <x v="12"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="63"/>
@@ -8264,6 +9348,7 @@
       <x v="34"/>
       <x v="15"/>
       <x v="55"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="65"/>
@@ -8271,6 +9356,7 @@
       <x v="22"/>
       <x v="15"/>
       <x v="25"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="66"/>
@@ -8278,6 +9364,7 @@
       <x v="34"/>
       <x v="15"/>
       <x v="52"/>
+      <x/>
     </i>
     <i>
       <x v="68"/>
@@ -8285,6 +9372,7 @@
       <x v="42"/>
       <x v="15"/>
       <x v="39"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="71"/>
@@ -8292,12 +9380,14 @@
       <x v="12"/>
       <x v="15"/>
       <x v="57"/>
+      <x/>
     </i>
     <i>
       <x v="72"/>
       <x v="113"/>
       <x v="46"/>
       <x v="15"/>
+      <x/>
       <x/>
     </i>
     <i>
@@ -8306,6 +9396,7 @@
       <x v="2"/>
       <x v="15"/>
       <x v="3"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="79"/>
@@ -8313,6 +9404,7 @@
       <x v="18"/>
       <x v="13"/>
       <x v="45"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="82"/>
@@ -8320,6 +9412,7 @@
       <x v="8"/>
       <x v="15"/>
       <x v="64"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="83"/>
@@ -8327,6 +9420,7 @@
       <x v="24"/>
       <x v="15"/>
       <x v="56"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="84"/>
@@ -8334,6 +9428,7 @@
       <x v="42"/>
       <x v="15"/>
       <x v="48"/>
+      <x/>
     </i>
     <i>
       <x v="85"/>
@@ -8341,12 +9436,14 @@
       <x v="38"/>
       <x v="15"/>
       <x v="32"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="87"/>
       <x v="80"/>
       <x v="34"/>
       <x v="15"/>
+      <x v="1"/>
       <x v="1"/>
     </i>
     <i>
@@ -8355,6 +9452,7 @@
       <x v="42"/>
       <x v="15"/>
       <x v="41"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="94"/>
@@ -8362,6 +9460,7 @@
       <x v="5"/>
       <x v="15"/>
       <x v="2"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="95"/>
@@ -8369,6 +9468,7 @@
       <x v="42"/>
       <x v="15"/>
       <x v="44"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="98"/>
@@ -8376,6 +9476,7 @@
       <x v="44"/>
       <x v="15"/>
       <x v="60"/>
+      <x/>
     </i>
     <i>
       <x v="100"/>
@@ -8383,6 +9484,7 @@
       <x v="42"/>
       <x v="15"/>
       <x v="37"/>
+      <x/>
     </i>
     <i>
       <x v="103"/>
@@ -8390,6 +9492,7 @@
       <x v="17"/>
       <x v="15"/>
       <x v="24"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="104"/>
@@ -8397,6 +9500,7 @@
       <x v="40"/>
       <x v="7"/>
       <x v="5"/>
+      <x/>
     </i>
     <i>
       <x v="107"/>
@@ -8404,6 +9508,7 @@
       <x v="42"/>
       <x v="15"/>
       <x v="43"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="108"/>
@@ -8411,6 +9516,7 @@
       <x v="42"/>
       <x v="15"/>
       <x v="31"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="110"/>
@@ -8418,6 +9524,7 @@
       <x v="48"/>
       <x v="15"/>
       <x v="8"/>
+      <x/>
     </i>
     <i>
       <x v="112"/>
@@ -8425,6 +9532,7 @@
       <x v="8"/>
       <x v="6"/>
       <x v="47"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="113"/>
@@ -8432,6 +9540,7 @@
       <x v="42"/>
       <x v="15"/>
       <x v="38"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="114"/>
@@ -8439,6 +9548,7 @@
       <x v="46"/>
       <x v="15"/>
       <x v="13"/>
+      <x/>
     </i>
     <i>
       <x v="115"/>
@@ -8446,6 +9556,7 @@
       <x v="34"/>
       <x v="15"/>
       <x v="33"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="119"/>
@@ -8453,6 +9564,7 @@
       <x v="26"/>
       <x v="15"/>
       <x v="30"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="122"/>
@@ -8460,6 +9572,7 @@
       <x v="12"/>
       <x v="15"/>
       <x v="62"/>
+      <x/>
     </i>
     <i>
       <x v="123"/>
@@ -8467,6 +9580,7 @@
       <x v="48"/>
       <x v="15"/>
       <x v="10"/>
+      <x/>
     </i>
     <i>
       <x v="128"/>
@@ -8474,6 +9588,7 @@
       <x v="46"/>
       <x v="15"/>
       <x v="15"/>
+      <x/>
     </i>
     <i t="grand">
       <x/>
@@ -8486,7 +9601,7 @@
     <pageField fld="4" hier="-1"/>
   </pageFields>
   <formats count="1">
-    <format dxfId="21">
+    <format dxfId="81">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -8503,8 +9618,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{993DB307-14A8-F64E-ADF7-FFD324FE885E}" name="ピボットテーブル1" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A3:K70" firstHeaderRow="2" firstDataRow="2" firstDataCol="5" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{993DB307-14A8-F64E-ADF7-FFD324FE885E}" name="ピボットテーブル1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A3:L70" firstHeaderRow="2" firstDataRow="2" firstDataCol="6" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -8571,7 +9686,7 @@
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="179" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="176" outline="0" showAll="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="129">
         <item x="60"/>
@@ -8862,9 +9977,15 @@
         <item x="0"/>
       </items>
     </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="67">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="66">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -8931,16 +10052,16 @@
         <item x="63"/>
         <item x="64"/>
         <item x="65"/>
-        <item t="default"/>
       </items>
     </pivotField>
   </pivotFields>
-  <rowFields count="5">
+  <rowFields count="6">
     <field x="7"/>
     <field x="8"/>
     <field x="2"/>
     <field x="13"/>
     <field x="15"/>
+    <field x="14"/>
   </rowFields>
   <rowItems count="66">
     <i>
@@ -8949,6 +10070,7 @@
       <x v="42"/>
       <x v="15"/>
       <x v="45"/>
+      <x/>
     </i>
     <i>
       <x v="3"/>
@@ -8956,6 +10078,7 @@
       <x v="16"/>
       <x v="15"/>
       <x v="5"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="4"/>
@@ -8963,6 +10086,7 @@
       <x v="12"/>
       <x v="15"/>
       <x v="10"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="7"/>
@@ -8970,6 +10094,7 @@
       <x v="12"/>
       <x v="15"/>
       <x v="51"/>
+      <x/>
     </i>
     <i>
       <x v="10"/>
@@ -8977,6 +10102,7 @@
       <x v="1"/>
       <x v="15"/>
       <x v="34"/>
+      <x/>
     </i>
     <i>
       <x v="12"/>
@@ -8984,6 +10110,7 @@
       <x v="47"/>
       <x v="15"/>
       <x/>
+      <x v="1"/>
     </i>
     <i>
       <x v="15"/>
@@ -8991,6 +10118,7 @@
       <x v="12"/>
       <x v="15"/>
       <x v="41"/>
+      <x/>
     </i>
     <i>
       <x v="17"/>
@@ -8998,6 +10126,7 @@
       <x v="42"/>
       <x v="15"/>
       <x v="48"/>
+      <x/>
     </i>
     <i>
       <x v="22"/>
@@ -9005,6 +10134,7 @@
       <x v="16"/>
       <x v="15"/>
       <x v="6"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="25"/>
@@ -9012,6 +10142,7 @@
       <x v="41"/>
       <x v="12"/>
       <x v="52"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="26"/>
@@ -9019,6 +10150,7 @@
       <x v="46"/>
       <x v="15"/>
       <x v="17"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="28"/>
@@ -9026,6 +10158,7 @@
       <x v="34"/>
       <x v="15"/>
       <x v="25"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="30"/>
@@ -9033,6 +10166,7 @@
       <x v="29"/>
       <x v="2"/>
       <x v="31"/>
+      <x/>
     </i>
     <i>
       <x v="31"/>
@@ -9040,6 +10174,7 @@
       <x v="1"/>
       <x v="15"/>
       <x v="35"/>
+      <x/>
     </i>
     <i>
       <x v="32"/>
@@ -9047,6 +10182,7 @@
       <x v="3"/>
       <x v="1"/>
       <x v="28"/>
+      <x/>
     </i>
     <i>
       <x v="35"/>
@@ -9054,6 +10190,7 @@
       <x v="6"/>
       <x v="15"/>
       <x v="26"/>
+      <x/>
     </i>
     <i>
       <x v="37"/>
@@ -9061,6 +10198,7 @@
       <x v="23"/>
       <x v="15"/>
       <x v="22"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="39"/>
@@ -9068,6 +10206,7 @@
       <x v="1"/>
       <x v="15"/>
       <x v="36"/>
+      <x/>
     </i>
     <i>
       <x v="40"/>
@@ -9075,6 +10214,7 @@
       <x v="23"/>
       <x v="15"/>
       <x v="23"/>
+      <x/>
     </i>
     <i>
       <x v="42"/>
@@ -9082,6 +10222,7 @@
       <x v="19"/>
       <x v="8"/>
       <x v="32"/>
+      <x/>
     </i>
     <i>
       <x v="43"/>
@@ -9089,6 +10230,7 @@
       <x v="15"/>
       <x v="15"/>
       <x v="15"/>
+      <x/>
     </i>
     <i>
       <x v="44"/>
@@ -9096,6 +10238,7 @@
       <x v="15"/>
       <x v="15"/>
       <x v="37"/>
+      <x/>
     </i>
     <i>
       <x v="45"/>
@@ -9103,6 +10246,7 @@
       <x v="13"/>
       <x v="15"/>
       <x v="44"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="46"/>
@@ -9110,6 +10254,7 @@
       <x v="34"/>
       <x v="15"/>
       <x v="50"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="47"/>
@@ -9117,6 +10262,7 @@
       <x v="48"/>
       <x v="15"/>
       <x v="11"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="48"/>
@@ -9124,6 +10270,7 @@
       <x v="34"/>
       <x v="15"/>
       <x v="58"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="52"/>
@@ -9131,6 +10278,7 @@
       <x v="34"/>
       <x v="15"/>
       <x v="54"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="55"/>
@@ -9138,6 +10286,7 @@
       <x v="43"/>
       <x v="11"/>
       <x v="3"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="56"/>
@@ -9145,6 +10294,7 @@
       <x v="9"/>
       <x v="15"/>
       <x v="29"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="61"/>
@@ -9152,6 +10302,7 @@
       <x v="15"/>
       <x v="15"/>
       <x v="61"/>
+      <x/>
     </i>
     <i>
       <x v="64"/>
@@ -9159,6 +10310,7 @@
       <x v="34"/>
       <x v="15"/>
       <x v="43"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="67"/>
@@ -9166,6 +10318,7 @@
       <x v="34"/>
       <x v="15"/>
       <x v="40"/>
+      <x/>
     </i>
     <i>
       <x v="69"/>
@@ -9173,6 +10326,7 @@
       <x v="11"/>
       <x v="15"/>
       <x v="7"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="70"/>
@@ -9180,6 +10334,7 @@
       <x v="23"/>
       <x v="15"/>
       <x v="9"/>
+      <x/>
     </i>
     <i>
       <x v="73"/>
@@ -9187,6 +10342,7 @@
       <x v="45"/>
       <x v="15"/>
       <x v="20"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="74"/>
@@ -9194,6 +10350,7 @@
       <x v="38"/>
       <x v="15"/>
       <x v="53"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="75"/>
@@ -9201,6 +10358,7 @@
       <x v="42"/>
       <x v="15"/>
       <x v="47"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="77"/>
@@ -9208,6 +10366,7 @@
       <x v="49"/>
       <x v="2"/>
       <x v="4"/>
+      <x/>
     </i>
     <i>
       <x v="78"/>
@@ -9215,6 +10374,7 @@
       <x v="27"/>
       <x v="15"/>
       <x v="21"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="80"/>
@@ -9222,6 +10382,7 @@
       <x v="45"/>
       <x v="15"/>
       <x v="55"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="81"/>
@@ -9229,6 +10390,7 @@
       <x v="35"/>
       <x v="15"/>
       <x v="64"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="86"/>
@@ -9236,6 +10398,7 @@
       <x v="28"/>
       <x/>
       <x v="27"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="89"/>
@@ -9243,6 +10406,7 @@
       <x v="4"/>
       <x v="3"/>
       <x v="60"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="90"/>
@@ -9250,6 +10414,7 @@
       <x v="37"/>
       <x v="15"/>
       <x v="33"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="91"/>
@@ -9257,6 +10422,7 @@
       <x v="33"/>
       <x v="15"/>
       <x v="59"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="92"/>
@@ -9264,6 +10430,7 @@
       <x v="12"/>
       <x v="15"/>
       <x v="62"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="93"/>
@@ -9271,6 +10438,7 @@
       <x v="44"/>
       <x v="14"/>
       <x v="30"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="96"/>
@@ -9278,6 +10446,7 @@
       <x v="34"/>
       <x v="15"/>
       <x v="19"/>
+      <x/>
     </i>
     <i>
       <x v="97"/>
@@ -9285,6 +10454,7 @@
       <x v="34"/>
       <x v="15"/>
       <x v="56"/>
+      <x/>
     </i>
     <i>
       <x v="99"/>
@@ -9292,6 +10462,7 @@
       <x v="12"/>
       <x v="15"/>
       <x v="2"/>
+      <x/>
     </i>
     <i>
       <x v="101"/>
@@ -9299,6 +10470,7 @@
       <x v="39"/>
       <x v="15"/>
       <x v="12"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="102"/>
@@ -9306,6 +10478,7 @@
       <x v="20"/>
       <x v="10"/>
       <x v="8"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="105"/>
@@ -9313,6 +10486,7 @@
       <x v="42"/>
       <x v="15"/>
       <x v="46"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="106"/>
@@ -9320,6 +10494,7 @@
       <x v="34"/>
       <x v="15"/>
       <x v="57"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="109"/>
@@ -9327,6 +10502,7 @@
       <x v="34"/>
       <x v="15"/>
       <x v="14"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="111"/>
@@ -9334,6 +10510,7 @@
       <x v="8"/>
       <x v="15"/>
       <x v="13"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="116"/>
@@ -9341,6 +10518,7 @@
       <x v="44"/>
       <x v="15"/>
       <x v="42"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="117"/>
@@ -9348,6 +10526,7 @@
       <x v="14"/>
       <x v="15"/>
       <x v="2"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="118"/>
@@ -9355,6 +10534,7 @@
       <x v="42"/>
       <x v="15"/>
       <x v="38"/>
+      <x/>
     </i>
     <i>
       <x v="120"/>
@@ -9362,6 +10542,7 @@
       <x v="12"/>
       <x v="15"/>
       <x v="63"/>
+      <x/>
     </i>
     <i>
       <x v="121"/>
@@ -9369,6 +10550,7 @@
       <x v="38"/>
       <x v="15"/>
       <x v="65"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="124"/>
@@ -9376,6 +10558,7 @@
       <x v="34"/>
       <x v="15"/>
       <x v="49"/>
+      <x/>
     </i>
     <i>
       <x v="125"/>
@@ -9383,6 +10566,7 @@
       <x v="42"/>
       <x v="15"/>
       <x v="24"/>
+      <x/>
     </i>
     <i>
       <x v="126"/>
@@ -9390,12 +10574,14 @@
       <x v="46"/>
       <x v="15"/>
       <x v="16"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="127"/>
       <x v="55"/>
       <x v="47"/>
       <x v="15"/>
+      <x v="1"/>
       <x v="1"/>
     </i>
     <i t="grand">
@@ -9409,7 +10595,7 @@
     <pageField fld="4" hier="-1"/>
   </pageFields>
   <formats count="1">
-    <format dxfId="5">
+    <format dxfId="80">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -9426,101 +10612,101 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{91851D3E-C884-B942-89C0-036B6F98C29C}" name="テーブル1" displayName="テーブル1" ref="A1:P130" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{91851D3E-C884-B942-89C0-036B6F98C29C}" name="テーブル1" displayName="テーブル1" ref="A1:P130" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
   <autoFilter ref="A1:P130" xr:uid="{91851D3E-C884-B942-89C0-036B6F98C29C}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{A4135B74-2360-6C40-849E-1051747D9700}" name="№" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{C38BBF69-1E4F-4E44-AFB0-3C60E73ADD22}" name="所属団体ID" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{1B388DD2-AC9E-384B-A1F9-26B48F570B24}" name="所属団体名" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{BF6E6292-631F-5348-A3B3-8D942C07C158}" name="男女別" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{BAF851F6-A5DC-1F48-90ED-72CC9947E205}" name="性別" dataDxfId="25">
+    <tableColumn id="1" xr3:uid="{A4135B74-2360-6C40-849E-1051747D9700}" name="№" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{C38BBF69-1E4F-4E44-AFB0-3C60E73ADD22}" name="所属団体ID" dataDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{1B388DD2-AC9E-384B-A1F9-26B48F570B24}" name="所属団体名" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{BF6E6292-631F-5348-A3B3-8D942C07C158}" name="男女別" dataDxfId="74"/>
+    <tableColumn id="5" xr3:uid="{BAF851F6-A5DC-1F48-90ED-72CC9947E205}" name="性別" dataDxfId="73">
       <calculatedColumnFormula>IF(テーブル1[[#This Row],[個人ID]]&gt;=900000000, "女子", "男子")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3BFF09ED-8F1C-DB49-A9AE-46B490A653F9}" name="チーム名" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{3FB2E0AA-A944-DD41-B1C8-BE863CD30B9C}" name="個人ID" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{B4CDA44E-3160-DE4E-A6D5-20EA3AB824FD}" name="氏名" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{CACD8B70-4F95-A247-9FC4-4E77FFF18B76}" name="氏名(カナ)" dataDxfId="33"/>
-    <tableColumn id="10" xr3:uid="{B6BA1E47-057E-DD46-A892-FAA96F124CFE}" name="所属区分" dataDxfId="32"/>
-    <tableColumn id="11" xr3:uid="{3869FDCB-18E3-AA4F-A3DC-609FCBF36B8D}" name="生年月日" dataDxfId="31"/>
-    <tableColumn id="12" xr3:uid="{420E35F5-3094-454A-8B1B-76DF8D086D47}" name="年齢" dataDxfId="30"/>
-    <tableColumn id="13" xr3:uid="{9FB3FE8D-DA0C-CF40-9198-CE0346131BE6}" name="所属完了日" dataDxfId="29"/>
-    <tableColumn id="14" xr3:uid="{37F8BF84-6F34-5743-B727-CE79A83BD05E}" name="ダブルネーム" dataDxfId="28"/>
-    <tableColumn id="15" xr3:uid="{0A6C2EDB-246C-F94F-B847-95702FF836B4}" name="団体メンバー (団体と入力。最低3名、最高4名。男女それぞれ1チーム)" dataDxfId="9"/>
-    <tableColumn id="16" xr3:uid="{E78455EA-C4B5-BD43-AE0E-FD7968D82080}" name="予選会通過順位" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{3BFF09ED-8F1C-DB49-A9AE-46B490A653F9}" name="チーム名" dataDxfId="72"/>
+    <tableColumn id="7" xr3:uid="{3FB2E0AA-A944-DD41-B1C8-BE863CD30B9C}" name="個人ID" dataDxfId="71"/>
+    <tableColumn id="8" xr3:uid="{B4CDA44E-3160-DE4E-A6D5-20EA3AB824FD}" name="氏名" dataDxfId="70"/>
+    <tableColumn id="9" xr3:uid="{CACD8B70-4F95-A247-9FC4-4E77FFF18B76}" name="氏名(カナ)" dataDxfId="69"/>
+    <tableColumn id="10" xr3:uid="{B6BA1E47-057E-DD46-A892-FAA96F124CFE}" name="所属区分" dataDxfId="68"/>
+    <tableColumn id="11" xr3:uid="{3869FDCB-18E3-AA4F-A3DC-609FCBF36B8D}" name="生年月日" dataDxfId="67"/>
+    <tableColumn id="12" xr3:uid="{420E35F5-3094-454A-8B1B-76DF8D086D47}" name="年齢" dataDxfId="66"/>
+    <tableColumn id="13" xr3:uid="{9FB3FE8D-DA0C-CF40-9198-CE0346131BE6}" name="所属完了日" dataDxfId="65"/>
+    <tableColumn id="14" xr3:uid="{37F8BF84-6F34-5743-B727-CE79A83BD05E}" name="ダブルネーム" dataDxfId="64"/>
+    <tableColumn id="15" xr3:uid="{0A6C2EDB-246C-F94F-B847-95702FF836B4}" name="団体メンバー (団体と入力。最低3名、最高4名。男女それぞれ1チーム)" dataDxfId="63"/>
+    <tableColumn id="16" xr3:uid="{E78455EA-C4B5-BD43-AE0E-FD7968D82080}" name="予選会通過順位" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9F658839-BEF2-3043-AF6D-8BC619E50EEE}" name="テーブル2" displayName="テーブル2" ref="A1:R51" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9F658839-BEF2-3043-AF6D-8BC619E50EEE}" name="テーブル2" displayName="テーブル2" ref="A1:R51" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
   <autoFilter ref="A1:R51" xr:uid="{9F658839-BEF2-3043-AF6D-8BC619E50EEE}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{7A45B75D-6DA9-5341-BD88-42E04B644E2A}" name="№" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{3FE3DD98-6AA4-0341-8BCA-BCE2CF7CBB1B}" name="所属団体ID" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{AD1A50C7-642D-134A-B547-66279C13FE07}" name="所属団体名" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{D2F9B754-855B-0247-91F8-54E767C2C8CB}" name="所属団体名(カナ)" dataDxfId="54"/>
-    <tableColumn id="5" xr3:uid="{18BDF13B-3368-4B48-A770-0590FC99F0BE}" name="男女別" dataDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{E0B291C2-9AD9-6F4F-AD52-2B4861BF6331}" name="競技種別" dataDxfId="52"/>
-    <tableColumn id="7" xr3:uid="{7FA11D06-424D-504E-8EE0-56999595FF37}" name="連絡登録担当者名" dataDxfId="51"/>
-    <tableColumn id="8" xr3:uid="{83A9986A-0A40-E442-BAB1-46C2DBFD7A5C}" name="連絡登録担当者名(カナ)" dataDxfId="50"/>
-    <tableColumn id="9" xr3:uid="{5112F512-D126-9244-AEB2-5BDFC888C0D9}" name="連絡登録担当者メールアドレス" dataDxfId="49"/>
-    <tableColumn id="10" xr3:uid="{A4B1086D-7FC0-AC45-9269-8B514017C5E4}" name="連絡登録担当者郵便番号" dataDxfId="48"/>
-    <tableColumn id="11" xr3:uid="{FD2E8ACB-3B1D-7940-920E-A9BE51C204E7}" name="連絡登録担当者住所" dataDxfId="47"/>
-    <tableColumn id="12" xr3:uid="{AAD8E46F-50F1-8D4E-9C98-266F7CCCF7C9}" name="連絡登録担当者電話番号" dataDxfId="46"/>
-    <tableColumn id="13" xr3:uid="{AE7F5900-098D-9A4A-B659-E9916AE198B2}" name="コーチ" dataDxfId="45"/>
-    <tableColumn id="14" xr3:uid="{A43D78CA-B3A7-C44E-A5A2-8E539CF0BA4F}" name="コーチ2" dataDxfId="44"/>
-    <tableColumn id="15" xr3:uid="{C9A9D2DA-3275-F340-AD5A-1265E619A319}" name="申込チーム数" dataDxfId="43"/>
-    <tableColumn id="16" xr3:uid="{DC170F42-A715-544A-BD7E-09D6E1DD5DCD}" name="申込人数" dataDxfId="42"/>
-    <tableColumn id="17" xr3:uid="{6778CBBF-51BC-0944-BAC1-9146593CEC54}" name="申込延べ人数" dataDxfId="41"/>
-    <tableColumn id="18" xr3:uid="{EB84052B-11B4-2540-9ED2-B18EA687FD18}" name="申込日" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{7A45B75D-6DA9-5341-BD88-42E04B644E2A}" name="№" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{3FE3DD98-6AA4-0341-8BCA-BCE2CF7CBB1B}" name="所属団体ID" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{AD1A50C7-642D-134A-B547-66279C13FE07}" name="所属団体名" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{D2F9B754-855B-0247-91F8-54E767C2C8CB}" name="所属団体名(カナ)" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{18BDF13B-3368-4B48-A770-0590FC99F0BE}" name="男女別" dataDxfId="55"/>
+    <tableColumn id="6" xr3:uid="{E0B291C2-9AD9-6F4F-AD52-2B4861BF6331}" name="競技種別" dataDxfId="54"/>
+    <tableColumn id="7" xr3:uid="{7FA11D06-424D-504E-8EE0-56999595FF37}" name="連絡登録担当者名" dataDxfId="53"/>
+    <tableColumn id="8" xr3:uid="{83A9986A-0A40-E442-BAB1-46C2DBFD7A5C}" name="連絡登録担当者名(カナ)" dataDxfId="52"/>
+    <tableColumn id="9" xr3:uid="{5112F512-D126-9244-AEB2-5BDFC888C0D9}" name="連絡登録担当者メールアドレス" dataDxfId="51"/>
+    <tableColumn id="10" xr3:uid="{A4B1086D-7FC0-AC45-9269-8B514017C5E4}" name="連絡登録担当者郵便番号" dataDxfId="50"/>
+    <tableColumn id="11" xr3:uid="{FD2E8ACB-3B1D-7940-920E-A9BE51C204E7}" name="連絡登録担当者住所" dataDxfId="49"/>
+    <tableColumn id="12" xr3:uid="{AAD8E46F-50F1-8D4E-9C98-266F7CCCF7C9}" name="連絡登録担当者電話番号" dataDxfId="48"/>
+    <tableColumn id="13" xr3:uid="{AE7F5900-098D-9A4A-B659-E9916AE198B2}" name="コーチ" dataDxfId="47"/>
+    <tableColumn id="14" xr3:uid="{A43D78CA-B3A7-C44E-A5A2-8E539CF0BA4F}" name="コーチ2" dataDxfId="46"/>
+    <tableColumn id="15" xr3:uid="{C9A9D2DA-3275-F340-AD5A-1265E619A319}" name="申込チーム数" dataDxfId="45"/>
+    <tableColumn id="16" xr3:uid="{DC170F42-A715-544A-BD7E-09D6E1DD5DCD}" name="申込人数" dataDxfId="44"/>
+    <tableColumn id="17" xr3:uid="{6778CBBF-51BC-0944-BAC1-9146593CEC54}" name="申込延べ人数" dataDxfId="43"/>
+    <tableColumn id="18" xr3:uid="{EB84052B-11B4-2540-9ED2-B18EA687FD18}" name="申込日" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A53171BB-7668-8D49-9482-EA0D29705763}" name="テーブル4" displayName="テーブル4" ref="A1:AL51" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A53171BB-7668-8D49-9482-EA0D29705763}" name="テーブル4" displayName="テーブル4" ref="A1:AL51" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="A1:AL51" xr:uid="{A53171BB-7668-8D49-9482-EA0D29705763}"/>
   <tableColumns count="38">
-    <tableColumn id="1" xr3:uid="{5CCE4D29-038D-364D-85CF-534E648CB658}" name="№" dataDxfId="97"/>
-    <tableColumn id="2" xr3:uid="{BDF5C050-AB5A-7547-AB57-CCA998A872E5}" name="所属団体ID" dataDxfId="96"/>
-    <tableColumn id="3" xr3:uid="{D87C1223-3971-DB4E-BCCD-721DA3B64931}" name="所属団体名" dataDxfId="95"/>
-    <tableColumn id="4" xr3:uid="{96D50D22-B0E2-1346-92EA-634DEF24FDB4}" name="男女別" dataDxfId="94"/>
-    <tableColumn id="5" xr3:uid="{D4C27BC4-2FB4-7E47-8090-B9FD0941FB3D}" name="競技種別" dataDxfId="93"/>
-    <tableColumn id="6" xr3:uid="{E0A6131A-22DB-B644-A426-896B36829300}" name="チーム名" dataDxfId="92"/>
-    <tableColumn id="7" xr3:uid="{D7D3CD6C-18DE-354F-AB72-CF9479B8185B}" name="チーム名(カナ)" dataDxfId="91"/>
-    <tableColumn id="8" xr3:uid="{17816308-0D00-6F46-8E0C-F4235CB33E0A}" name="申込人数" dataDxfId="90"/>
-    <tableColumn id="9" xr3:uid="{78A4ECF9-AB2D-4642-B590-C99956F7709C}" name="トレーナー名 1" dataDxfId="89"/>
-    <tableColumn id="10" xr3:uid="{14AB8DF9-CD82-E647-A6AB-83CD7D0D15FF}" name="スポッター名 1" dataDxfId="88"/>
-    <tableColumn id="11" xr3:uid="{5E648778-7EF9-7F47-9D2A-284F4C703EE5}" name="スポッター名 2" dataDxfId="87"/>
-    <tableColumn id="12" xr3:uid="{A44B5862-3984-6D44-BEC7-B291D6636EAC}" name="シンクロ01 (性別 選手1/選手2　クラブ名 (他クラブの場合))" dataDxfId="86"/>
-    <tableColumn id="13" xr3:uid="{F3E8ACA6-A572-E24C-8541-D01C7090656B}" name="シンクロ02" dataDxfId="85"/>
-    <tableColumn id="14" xr3:uid="{A89280C6-363E-C340-A5C4-9785352984CF}" name="シンクロ03" dataDxfId="84"/>
-    <tableColumn id="15" xr3:uid="{005EB838-B5EF-EC41-8640-CBC4BF1A5667}" name="シンクロ04" dataDxfId="83"/>
-    <tableColumn id="16" xr3:uid="{9E6D45A5-9FD0-2343-82AA-2EA6F4E8757A}" name="シンクロ05" dataDxfId="82"/>
-    <tableColumn id="17" xr3:uid="{E77496B9-8671-EC43-94C7-E36B54D28478}" name="シンクロ06" dataDxfId="81"/>
-    <tableColumn id="18" xr3:uid="{08C41D5A-DC5C-4A43-843C-77BA43DB94BC}" name="シンクロ07" dataDxfId="80"/>
-    <tableColumn id="19" xr3:uid="{E1815F7C-CE6F-824D-B87A-7CBC5BF20F78}" name="シンクロ08" dataDxfId="79"/>
-    <tableColumn id="20" xr3:uid="{90F89167-A63C-5043-BBAB-A9657FB78D81}" name="シンクロ09" dataDxfId="78"/>
-    <tableColumn id="21" xr3:uid="{7B0A321D-188E-4148-9319-600082F64D61}" name="シンクロ10" dataDxfId="77"/>
-    <tableColumn id="22" xr3:uid="{2976BFE9-A0B8-3741-8796-67B25EEE01F3}" name="シンクロ11" dataDxfId="76"/>
-    <tableColumn id="23" xr3:uid="{F208173B-258B-7446-97E9-A608C68841A4}" name="シンクロ12" dataDxfId="75"/>
-    <tableColumn id="24" xr3:uid="{C96AC227-5387-534D-99CC-D52D3BBDB91C}" name="シンクロ13" dataDxfId="74"/>
-    <tableColumn id="25" xr3:uid="{8FA6C8CE-452D-2546-B5B2-19FE45999618}" name="シンクロ14" dataDxfId="73"/>
-    <tableColumn id="26" xr3:uid="{16300935-B67D-F340-9670-16C33C4095A3}" name="シンクロ15" dataDxfId="72"/>
-    <tableColumn id="27" xr3:uid="{7586CFA8-59E5-C94E-B655-450CA5928523}" name="シンクロ16" dataDxfId="71"/>
-    <tableColumn id="28" xr3:uid="{D930A469-CF82-CE42-8426-472529BECAD8}" name="シンクロ17" dataDxfId="70"/>
-    <tableColumn id="29" xr3:uid="{AF3574DE-6EA4-DA42-BCF2-A2A6B93DAED5}" name="シンクロ18" dataDxfId="69"/>
-    <tableColumn id="30" xr3:uid="{EE93B9D1-99AD-C24D-9B13-EFE4E3E64399}" name="帯同審判01 (1種 協会太郎)" dataDxfId="68"/>
-    <tableColumn id="31" xr3:uid="{4EAD008C-26FD-8443-931D-59F36C3609B0}" name="帯同審判02 (1種 協会太郎)" dataDxfId="67"/>
-    <tableColumn id="32" xr3:uid="{EFF29E0D-EA71-854D-BCE8-EAB0D1E0A5A7}" name="撮影許可証(最高2枚)" dataDxfId="66"/>
-    <tableColumn id="33" xr3:uid="{1118C9DE-3447-7948-A68D-28792882CF32}" name="個人参加費合計 (半角数字) " dataDxfId="65"/>
-    <tableColumn id="34" xr3:uid="{B6CD1E6F-4504-DE4C-8BCB-3066D8925047}" name="シンクロ参加費合計 (半角数字)" dataDxfId="64"/>
-    <tableColumn id="35" xr3:uid="{0106882A-E33F-2D4C-95E2-917709E90776}" name="帯同審判料 (半角数字)" dataDxfId="63"/>
-    <tableColumn id="36" xr3:uid="{0E20328A-C996-F041-8C2F-0D4C2EB075C4}" name="協賛金 (半角数字)" dataDxfId="62"/>
-    <tableColumn id="37" xr3:uid="{B60ECF3E-7229-7341-BAFF-F4BC035AE2E8}" name="広告料 (半角数字)" dataDxfId="61"/>
-    <tableColumn id="38" xr3:uid="{33BA2B54-C652-164C-85BB-BD67586CCE2F}" name="振込金合計 (半角数字)" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{5CCE4D29-038D-364D-85CF-534E648CB658}" name="№" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{BDF5C050-AB5A-7547-AB57-CCA998A872E5}" name="所属団体ID" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{D87C1223-3971-DB4E-BCCD-721DA3B64931}" name="所属団体名" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{96D50D22-B0E2-1346-92EA-634DEF24FDB4}" name="男女別" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{D4C27BC4-2FB4-7E47-8090-B9FD0941FB3D}" name="競技種別" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{E0A6131A-22DB-B644-A426-896B36829300}" name="チーム名" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{D7D3CD6C-18DE-354F-AB72-CF9479B8185B}" name="チーム名(カナ)" dataDxfId="33"/>
+    <tableColumn id="8" xr3:uid="{17816308-0D00-6F46-8E0C-F4235CB33E0A}" name="申込人数" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{78A4ECF9-AB2D-4642-B590-C99956F7709C}" name="トレーナー名 1" dataDxfId="31"/>
+    <tableColumn id="10" xr3:uid="{14AB8DF9-CD82-E647-A6AB-83CD7D0D15FF}" name="スポッター名 1" dataDxfId="30"/>
+    <tableColumn id="11" xr3:uid="{5E648778-7EF9-7F47-9D2A-284F4C703EE5}" name="スポッター名 2" dataDxfId="29"/>
+    <tableColumn id="12" xr3:uid="{A44B5862-3984-6D44-BEC7-B291D6636EAC}" name="シンクロ01 (性別 選手1/選手2　クラブ名 (他クラブの場合))" dataDxfId="28"/>
+    <tableColumn id="13" xr3:uid="{F3E8ACA6-A572-E24C-8541-D01C7090656B}" name="シンクロ02" dataDxfId="27"/>
+    <tableColumn id="14" xr3:uid="{A89280C6-363E-C340-A5C4-9785352984CF}" name="シンクロ03" dataDxfId="26"/>
+    <tableColumn id="15" xr3:uid="{005EB838-B5EF-EC41-8640-CBC4BF1A5667}" name="シンクロ04" dataDxfId="25"/>
+    <tableColumn id="16" xr3:uid="{9E6D45A5-9FD0-2343-82AA-2EA6F4E8757A}" name="シンクロ05" dataDxfId="24"/>
+    <tableColumn id="17" xr3:uid="{E77496B9-8671-EC43-94C7-E36B54D28478}" name="シンクロ06" dataDxfId="23"/>
+    <tableColumn id="18" xr3:uid="{08C41D5A-DC5C-4A43-843C-77BA43DB94BC}" name="シンクロ07" dataDxfId="22"/>
+    <tableColumn id="19" xr3:uid="{E1815F7C-CE6F-824D-B87A-7CBC5BF20F78}" name="シンクロ08" dataDxfId="21"/>
+    <tableColumn id="20" xr3:uid="{90F89167-A63C-5043-BBAB-A9657FB78D81}" name="シンクロ09" dataDxfId="20"/>
+    <tableColumn id="21" xr3:uid="{7B0A321D-188E-4148-9319-600082F64D61}" name="シンクロ10" dataDxfId="19"/>
+    <tableColumn id="22" xr3:uid="{2976BFE9-A0B8-3741-8796-67B25EEE01F3}" name="シンクロ11" dataDxfId="18"/>
+    <tableColumn id="23" xr3:uid="{F208173B-258B-7446-97E9-A608C68841A4}" name="シンクロ12" dataDxfId="17"/>
+    <tableColumn id="24" xr3:uid="{C96AC227-5387-534D-99CC-D52D3BBDB91C}" name="シンクロ13" dataDxfId="16"/>
+    <tableColumn id="25" xr3:uid="{8FA6C8CE-452D-2546-B5B2-19FE45999618}" name="シンクロ14" dataDxfId="15"/>
+    <tableColumn id="26" xr3:uid="{16300935-B67D-F340-9670-16C33C4095A3}" name="シンクロ15" dataDxfId="14"/>
+    <tableColumn id="27" xr3:uid="{7586CFA8-59E5-C94E-B655-450CA5928523}" name="シンクロ16" dataDxfId="13"/>
+    <tableColumn id="28" xr3:uid="{D930A469-CF82-CE42-8426-472529BECAD8}" name="シンクロ17" dataDxfId="12"/>
+    <tableColumn id="29" xr3:uid="{AF3574DE-6EA4-DA42-BCF2-A2A6B93DAED5}" name="シンクロ18" dataDxfId="11"/>
+    <tableColumn id="30" xr3:uid="{EE93B9D1-99AD-C24D-9B13-EFE4E3E64399}" name="帯同審判01 (1種 協会太郎)" dataDxfId="10"/>
+    <tableColumn id="31" xr3:uid="{4EAD008C-26FD-8443-931D-59F36C3609B0}" name="帯同審判02 (1種 協会太郎)" dataDxfId="9"/>
+    <tableColumn id="32" xr3:uid="{EFF29E0D-EA71-854D-BCE8-EAB0D1E0A5A7}" name="撮影許可証(最高2枚)" dataDxfId="8"/>
+    <tableColumn id="33" xr3:uid="{1118C9DE-3447-7948-A68D-28792882CF32}" name="個人参加費合計 (半角数字) " dataDxfId="7"/>
+    <tableColumn id="34" xr3:uid="{B6CD1E6F-4504-DE4C-8BCB-3066D8925047}" name="シンクロ参加費合計 (半角数字)" dataDxfId="6"/>
+    <tableColumn id="35" xr3:uid="{0106882A-E33F-2D4C-95E2-917709E90776}" name="帯同審判料 (半角数字)" dataDxfId="5"/>
+    <tableColumn id="36" xr3:uid="{0E20328A-C996-F041-8C2F-0D4C2EB075C4}" name="協賛金 (半角数字)" dataDxfId="4"/>
+    <tableColumn id="37" xr3:uid="{B60ECF3E-7229-7341-BAFF-F4BC035AE2E8}" name="広告料 (半角数字)" dataDxfId="3"/>
+    <tableColumn id="38" xr3:uid="{33BA2B54-C652-164C-85BB-BD67586CCE2F}" name="振込金合計 (半角数字)" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9811,10 +10997,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE364AC1-21D3-B942-97C7-670DAFA650F2}">
-  <dimension ref="A1:K392"/>
+  <dimension ref="A1:L392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="F5" sqref="F5:F68"/>
+      <pivotSelection pane="bottomRight" showHeader="1" axis="axisRow" dimension="5" activeRow="4" activeCol="5" previousRow="4" previousCol="5" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="14" count="0"/>
+          </references>
+        </pivotArea>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -9824,7 +11017,8 @@
     <col min="3" max="3" width="44.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="69.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="10.83203125" style="1"/>
     <col min="13" max="13" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="44.5" style="1" bestFit="1" customWidth="1"/>
@@ -9833,7 +11027,7 @@
     <col min="18" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>1141</v>
       </c>
@@ -9841,7 +11035,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -9857,8 +11051,11 @@
       <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>58</v>
       </c>
@@ -9874,8 +11071,11 @@
       <c r="E5" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>260</v>
       </c>
@@ -9891,8 +11091,11 @@
       <c r="E6" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>524</v>
       </c>
@@ -9908,8 +11111,11 @@
       <c r="E7" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>307</v>
       </c>
@@ -9925,8 +11131,11 @@
       <c r="E8" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>462</v>
       </c>
@@ -9942,8 +11151,11 @@
       <c r="E9" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>335</v>
       </c>
@@ -9959,8 +11171,11 @@
       <c r="E10" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>398</v>
       </c>
@@ -9976,8 +11191,11 @@
       <c r="E11" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>241</v>
       </c>
@@ -9993,8 +11211,11 @@
       <c r="E12" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>104</v>
       </c>
@@ -10010,8 +11231,11 @@
       <c r="E13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>456</v>
       </c>
@@ -10027,8 +11251,11 @@
       <c r="E14" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>90</v>
       </c>
@@ -10044,8 +11271,11 @@
       <c r="E15" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>431</v>
       </c>
@@ -10061,8 +11291,11 @@
       <c r="E16" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>310</v>
       </c>
@@ -10078,8 +11311,11 @@
       <c r="E17" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
@@ -10095,8 +11331,11 @@
       <c r="E18" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>323</v>
       </c>
@@ -10112,8 +11351,11 @@
       <c r="E19" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>66</v>
       </c>
@@ -10129,8 +11371,11 @@
       <c r="E20" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>120</v>
       </c>
@@ -10146,8 +11391,11 @@
       <c r="E21" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>278</v>
       </c>
@@ -10163,8 +11411,11 @@
       <c r="E22" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>165</v>
       </c>
@@ -10180,8 +11431,11 @@
       <c r="E23" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>212</v>
       </c>
@@ -10197,8 +11451,11 @@
       <c r="E24" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>284</v>
       </c>
@@ -10214,8 +11471,11 @@
       <c r="E25" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>115</v>
       </c>
@@ -10231,8 +11491,11 @@
       <c r="E26" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>403</v>
       </c>
@@ -10248,8 +11511,11 @@
       <c r="E27" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>272</v>
       </c>
@@ -10265,8 +11531,11 @@
       <c r="E28" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>314</v>
       </c>
@@ -10282,8 +11551,11 @@
       <c r="E29" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>320</v>
       </c>
@@ -10299,8 +11571,11 @@
       <c r="E30" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>110</v>
       </c>
@@ -10316,8 +11591,11 @@
       <c r="E31" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
         <v>235</v>
       </c>
@@ -10333,8 +11611,11 @@
       <c r="E32" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>509</v>
       </c>
@@ -10350,8 +11631,11 @@
       <c r="E33" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>254</v>
       </c>
@@ -10367,8 +11651,11 @@
       <c r="E34" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
         <v>332</v>
       </c>
@@ -10384,8 +11671,11 @@
       <c r="E35" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
         <v>530</v>
       </c>
@@ -10401,8 +11691,11 @@
       <c r="E36" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>227</v>
       </c>
@@ -10418,8 +11711,11 @@
       <c r="E37" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
         <v>338</v>
       </c>
@@ -10435,8 +11731,11 @@
       <c r="E38" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
         <v>153</v>
       </c>
@@ -10452,8 +11751,11 @@
       <c r="E39" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>326</v>
       </c>
@@ -10469,8 +11771,11 @@
       <c r="E40" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
         <v>257</v>
       </c>
@@ -10486,8 +11791,11 @@
       <c r="E41" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
         <v>459</v>
       </c>
@@ -10503,8 +11811,11 @@
       <c r="E42" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
@@ -10520,8 +11831,11 @@
       <c r="E43" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
         <v>35</v>
       </c>
@@ -10537,8 +11851,11 @@
       <c r="E44" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
         <v>425</v>
       </c>
@@ -10554,8 +11871,11 @@
       <c r="E45" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
         <v>490</v>
       </c>
@@ -10571,8 +11891,11 @@
       <c r="E46" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
         <v>387</v>
       </c>
@@ -10588,8 +11911,11 @@
       <c r="E47" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
         <v>263</v>
       </c>
@@ -10605,8 +11931,11 @@
       <c r="E48" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
         <v>498</v>
       </c>
@@ -10622,8 +11951,11 @@
       <c r="E49" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
         <v>317</v>
       </c>
@@ -10639,8 +11971,11 @@
       <c r="E50" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
         <v>266</v>
       </c>
@@ -10656,8 +11991,11 @@
       <c r="E51" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
         <v>29</v>
       </c>
@@ -10673,8 +12011,11 @@
       <c r="E52" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
         <v>281</v>
       </c>
@@ -10690,8 +12031,11 @@
       <c r="E53" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
         <v>407</v>
       </c>
@@ -10707,8 +12051,11 @@
       <c r="E54" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
         <v>251</v>
       </c>
@@ -10724,8 +12071,11 @@
       <c r="E55" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
         <v>140</v>
       </c>
@@ -10741,8 +12091,11 @@
       <c r="E56" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
         <v>146</v>
       </c>
@@ -10758,8 +12111,11 @@
       <c r="E57" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
         <v>275</v>
       </c>
@@ -10775,8 +12131,11 @@
       <c r="E58" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
         <v>269</v>
       </c>
@@ -10792,8 +12151,11 @@
       <c r="E59" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
         <v>63</v>
       </c>
@@ -10809,8 +12171,11 @@
       <c r="E60" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
         <v>485</v>
       </c>
@@ -10826,8 +12191,11 @@
       <c r="E61" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
         <v>247</v>
       </c>
@@ -10843,8 +12211,11 @@
       <c r="E62" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
         <v>87</v>
       </c>
@@ -10860,8 +12231,11 @@
       <c r="E63" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
         <v>329</v>
       </c>
@@ -10877,8 +12251,11 @@
       <c r="E64" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="F64" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
         <v>189</v>
       </c>
@@ -10894,8 +12271,11 @@
       <c r="E65" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="F65" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
         <v>453</v>
       </c>
@@ -10911,8 +12291,11 @@
       <c r="E66" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="F66" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
         <v>69</v>
       </c>
@@ -10928,8 +12311,11 @@
       <c r="E67" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="F67" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
         <v>93</v>
       </c>
@@ -10945,13 +12331,16 @@
       <c r="E68" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="F68" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:12">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
@@ -10963,8 +12352,9 @@
       <c r="I70"/>
       <c r="J70"/>
       <c r="K70"/>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="L70"/>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
@@ -10976,8 +12366,9 @@
       <c r="I71"/>
       <c r="J71"/>
       <c r="K71"/>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="L71"/>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
@@ -10989,8 +12380,9 @@
       <c r="I72"/>
       <c r="J72"/>
       <c r="K72"/>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="L72"/>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
@@ -11002,8 +12394,9 @@
       <c r="I73"/>
       <c r="J73"/>
       <c r="K73"/>
-    </row>
-    <row r="74" spans="1:11">
+      <c r="L73"/>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
@@ -11015,8 +12408,9 @@
       <c r="I74"/>
       <c r="J74"/>
       <c r="K74"/>
-    </row>
-    <row r="75" spans="1:11">
+      <c r="L74"/>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -11028,8 +12422,9 @@
       <c r="I75"/>
       <c r="J75"/>
       <c r="K75"/>
-    </row>
-    <row r="76" spans="1:11">
+      <c r="L75"/>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
@@ -11041,8 +12436,9 @@
       <c r="I76"/>
       <c r="J76"/>
       <c r="K76"/>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="L76"/>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
@@ -11054,8 +12450,9 @@
       <c r="I77"/>
       <c r="J77"/>
       <c r="K77"/>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="L77"/>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
@@ -11067,8 +12464,9 @@
       <c r="I78"/>
       <c r="J78"/>
       <c r="K78"/>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="L78"/>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
@@ -11080,8 +12478,9 @@
       <c r="I79"/>
       <c r="J79"/>
       <c r="K79"/>
-    </row>
-    <row r="80" spans="1:11">
+      <c r="L79"/>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -11093,8 +12492,9 @@
       <c r="I80"/>
       <c r="J80"/>
       <c r="K80"/>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="L80"/>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
@@ -11106,8 +12506,9 @@
       <c r="I81"/>
       <c r="J81"/>
       <c r="K81"/>
-    </row>
-    <row r="82" spans="1:11">
+      <c r="L81"/>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
@@ -11119,8 +12520,9 @@
       <c r="I82"/>
       <c r="J82"/>
       <c r="K82"/>
-    </row>
-    <row r="83" spans="1:11">
+      <c r="L82"/>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
@@ -11132,8 +12534,9 @@
       <c r="I83"/>
       <c r="J83"/>
       <c r="K83"/>
-    </row>
-    <row r="84" spans="1:11">
+      <c r="L83"/>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -11145,8 +12548,9 @@
       <c r="I84"/>
       <c r="J84"/>
       <c r="K84"/>
-    </row>
-    <row r="85" spans="1:11">
+      <c r="L84"/>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
@@ -11158,8 +12562,9 @@
       <c r="I85"/>
       <c r="J85"/>
       <c r="K85"/>
-    </row>
-    <row r="86" spans="1:11">
+      <c r="L85"/>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
@@ -11171,8 +12576,9 @@
       <c r="I86"/>
       <c r="J86"/>
       <c r="K86"/>
-    </row>
-    <row r="87" spans="1:11">
+      <c r="L86"/>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
@@ -11184,8 +12590,9 @@
       <c r="I87"/>
       <c r="J87"/>
       <c r="K87"/>
-    </row>
-    <row r="88" spans="1:11">
+      <c r="L87"/>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
@@ -11197,8 +12604,9 @@
       <c r="I88"/>
       <c r="J88"/>
       <c r="K88"/>
-    </row>
-    <row r="89" spans="1:11">
+      <c r="L88"/>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
@@ -11210,8 +12618,9 @@
       <c r="I89"/>
       <c r="J89"/>
       <c r="K89"/>
-    </row>
-    <row r="90" spans="1:11">
+      <c r="L89"/>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
@@ -11223,8 +12632,9 @@
       <c r="I90"/>
       <c r="J90"/>
       <c r="K90"/>
-    </row>
-    <row r="91" spans="1:11">
+      <c r="L90"/>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -11236,8 +12646,9 @@
       <c r="I91"/>
       <c r="J91"/>
       <c r="K91"/>
-    </row>
-    <row r="92" spans="1:11">
+      <c r="L91"/>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -11249,8 +12660,9 @@
       <c r="I92"/>
       <c r="J92"/>
       <c r="K92"/>
-    </row>
-    <row r="93" spans="1:11">
+      <c r="L92"/>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -11262,8 +12674,9 @@
       <c r="I93"/>
       <c r="J93"/>
       <c r="K93"/>
-    </row>
-    <row r="94" spans="1:11">
+      <c r="L93"/>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
@@ -11275,8 +12688,9 @@
       <c r="I94"/>
       <c r="J94"/>
       <c r="K94"/>
-    </row>
-    <row r="95" spans="1:11">
+      <c r="L94"/>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
@@ -11288,8 +12702,9 @@
       <c r="I95"/>
       <c r="J95"/>
       <c r="K95"/>
-    </row>
-    <row r="96" spans="1:11">
+      <c r="L95"/>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -11301,8 +12716,9 @@
       <c r="I96"/>
       <c r="J96"/>
       <c r="K96"/>
-    </row>
-    <row r="97" spans="1:11">
+      <c r="L96"/>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
@@ -11314,8 +12730,9 @@
       <c r="I97"/>
       <c r="J97"/>
       <c r="K97"/>
-    </row>
-    <row r="98" spans="1:11">
+      <c r="L97"/>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
@@ -11327,8 +12744,9 @@
       <c r="I98"/>
       <c r="J98"/>
       <c r="K98"/>
-    </row>
-    <row r="99" spans="1:11">
+      <c r="L98"/>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
@@ -11340,8 +12758,9 @@
       <c r="I99"/>
       <c r="J99"/>
       <c r="K99"/>
-    </row>
-    <row r="100" spans="1:11">
+      <c r="L99"/>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
@@ -11353,8 +12772,9 @@
       <c r="I100"/>
       <c r="J100"/>
       <c r="K100"/>
-    </row>
-    <row r="101" spans="1:11">
+      <c r="L100"/>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
@@ -11366,8 +12786,9 @@
       <c r="I101"/>
       <c r="J101"/>
       <c r="K101"/>
-    </row>
-    <row r="102" spans="1:11">
+      <c r="L101"/>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
@@ -11379,8 +12800,9 @@
       <c r="I102"/>
       <c r="J102"/>
       <c r="K102"/>
-    </row>
-    <row r="103" spans="1:11">
+      <c r="L102"/>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
@@ -11392,8 +12814,9 @@
       <c r="I103"/>
       <c r="J103"/>
       <c r="K103"/>
-    </row>
-    <row r="104" spans="1:11">
+      <c r="L103"/>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
@@ -11405,8 +12828,9 @@
       <c r="I104"/>
       <c r="J104"/>
       <c r="K104"/>
-    </row>
-    <row r="105" spans="1:11">
+      <c r="L104"/>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
@@ -11418,8 +12842,9 @@
       <c r="I105"/>
       <c r="J105"/>
       <c r="K105"/>
-    </row>
-    <row r="106" spans="1:11">
+      <c r="L105"/>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
@@ -11431,8 +12856,9 @@
       <c r="I106"/>
       <c r="J106"/>
       <c r="K106"/>
-    </row>
-    <row r="107" spans="1:11">
+      <c r="L106"/>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -11444,8 +12870,9 @@
       <c r="I107"/>
       <c r="J107"/>
       <c r="K107"/>
-    </row>
-    <row r="108" spans="1:11">
+      <c r="L107"/>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -11457,8 +12884,9 @@
       <c r="I108"/>
       <c r="J108"/>
       <c r="K108"/>
-    </row>
-    <row r="109" spans="1:11">
+      <c r="L108"/>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -11470,8 +12898,9 @@
       <c r="I109"/>
       <c r="J109"/>
       <c r="K109"/>
-    </row>
-    <row r="110" spans="1:11">
+      <c r="L109"/>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -11483,8 +12912,9 @@
       <c r="I110"/>
       <c r="J110"/>
       <c r="K110"/>
-    </row>
-    <row r="111" spans="1:11">
+      <c r="L110"/>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -11496,8 +12926,9 @@
       <c r="I111"/>
       <c r="J111"/>
       <c r="K111"/>
-    </row>
-    <row r="112" spans="1:11">
+      <c r="L111"/>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -11509,8 +12940,9 @@
       <c r="I112"/>
       <c r="J112"/>
       <c r="K112"/>
-    </row>
-    <row r="113" spans="1:11">
+      <c r="L112"/>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -11522,8 +12954,9 @@
       <c r="I113"/>
       <c r="J113"/>
       <c r="K113"/>
-    </row>
-    <row r="114" spans="1:11">
+      <c r="L113"/>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -11535,8 +12968,9 @@
       <c r="I114"/>
       <c r="J114"/>
       <c r="K114"/>
-    </row>
-    <row r="115" spans="1:11">
+      <c r="L114"/>
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -11548,8 +12982,9 @@
       <c r="I115"/>
       <c r="J115"/>
       <c r="K115"/>
-    </row>
-    <row r="116" spans="1:11">
+      <c r="L115"/>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -11561,8 +12996,9 @@
       <c r="I116"/>
       <c r="J116"/>
       <c r="K116"/>
-    </row>
-    <row r="117" spans="1:11">
+      <c r="L116"/>
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -11574,8 +13010,9 @@
       <c r="I117"/>
       <c r="J117"/>
       <c r="K117"/>
-    </row>
-    <row r="118" spans="1:11">
+      <c r="L117"/>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -11587,8 +13024,9 @@
       <c r="I118"/>
       <c r="J118"/>
       <c r="K118"/>
-    </row>
-    <row r="119" spans="1:11">
+      <c r="L118"/>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -11600,8 +13038,9 @@
       <c r="I119"/>
       <c r="J119"/>
       <c r="K119"/>
-    </row>
-    <row r="120" spans="1:11">
+      <c r="L119"/>
+    </row>
+    <row r="120" spans="1:12">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -11613,8 +13052,9 @@
       <c r="I120"/>
       <c r="J120"/>
       <c r="K120"/>
-    </row>
-    <row r="121" spans="1:11">
+      <c r="L120"/>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -11626,8 +13066,9 @@
       <c r="I121"/>
       <c r="J121"/>
       <c r="K121"/>
-    </row>
-    <row r="122" spans="1:11">
+      <c r="L121"/>
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -11639,8 +13080,9 @@
       <c r="I122"/>
       <c r="J122"/>
       <c r="K122"/>
-    </row>
-    <row r="123" spans="1:11">
+      <c r="L122"/>
+    </row>
+    <row r="123" spans="1:12">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -11652,8 +13094,9 @@
       <c r="I123"/>
       <c r="J123"/>
       <c r="K123"/>
-    </row>
-    <row r="124" spans="1:11">
+      <c r="L123"/>
+    </row>
+    <row r="124" spans="1:12">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
@@ -11665,8 +13108,9 @@
       <c r="I124"/>
       <c r="J124"/>
       <c r="K124"/>
-    </row>
-    <row r="125" spans="1:11">
+      <c r="L124"/>
+    </row>
+    <row r="125" spans="1:12">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -11678,8 +13122,9 @@
       <c r="I125"/>
       <c r="J125"/>
       <c r="K125"/>
-    </row>
-    <row r="126" spans="1:11">
+      <c r="L125"/>
+    </row>
+    <row r="126" spans="1:12">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
@@ -11691,8 +13136,9 @@
       <c r="I126"/>
       <c r="J126"/>
       <c r="K126"/>
-    </row>
-    <row r="127" spans="1:11">
+      <c r="L126"/>
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
@@ -11704,8 +13150,9 @@
       <c r="I127"/>
       <c r="J127"/>
       <c r="K127"/>
-    </row>
-    <row r="128" spans="1:11">
+      <c r="L127"/>
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -11717,8 +13164,9 @@
       <c r="I128"/>
       <c r="J128"/>
       <c r="K128"/>
-    </row>
-    <row r="129" spans="1:11">
+      <c r="L128"/>
+    </row>
+    <row r="129" spans="1:12">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -11730,8 +13178,9 @@
       <c r="I129"/>
       <c r="J129"/>
       <c r="K129"/>
-    </row>
-    <row r="130" spans="1:11">
+      <c r="L129"/>
+    </row>
+    <row r="130" spans="1:12">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
@@ -11743,8 +13192,9 @@
       <c r="I130"/>
       <c r="J130"/>
       <c r="K130"/>
-    </row>
-    <row r="131" spans="1:11">
+      <c r="L130"/>
+    </row>
+    <row r="131" spans="1:12">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
@@ -11756,8 +13206,9 @@
       <c r="I131"/>
       <c r="J131"/>
       <c r="K131"/>
-    </row>
-    <row r="132" spans="1:11">
+      <c r="L131"/>
+    </row>
+    <row r="132" spans="1:12">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
@@ -11769,8 +13220,9 @@
       <c r="I132"/>
       <c r="J132"/>
       <c r="K132"/>
-    </row>
-    <row r="133" spans="1:11">
+      <c r="L132"/>
+    </row>
+    <row r="133" spans="1:12">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
@@ -11782,8 +13234,9 @@
       <c r="I133"/>
       <c r="J133"/>
       <c r="K133"/>
-    </row>
-    <row r="134" spans="1:11">
+      <c r="L133"/>
+    </row>
+    <row r="134" spans="1:12">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
@@ -11796,7 +13249,7 @@
       <c r="J134"/>
       <c r="K134"/>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:12">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
@@ -11809,7 +13262,7 @@
       <c r="J135"/>
       <c r="K135"/>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:12">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
@@ -11822,7 +13275,7 @@
       <c r="J136"/>
       <c r="K136"/>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:12">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
@@ -11835,7 +13288,7 @@
       <c r="J137"/>
       <c r="K137"/>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:12">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
@@ -11848,7 +13301,7 @@
       <c r="J138"/>
       <c r="K138"/>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:12">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
@@ -11861,7 +13314,7 @@
       <c r="J139"/>
       <c r="K139"/>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:12">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
@@ -11874,7 +13327,7 @@
       <c r="J140"/>
       <c r="K140"/>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:12">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -11887,7 +13340,7 @@
       <c r="J141"/>
       <c r="K141"/>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:12">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
@@ -11900,7 +13353,7 @@
       <c r="J142"/>
       <c r="K142"/>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:12">
       <c r="A143"/>
       <c r="B143"/>
       <c r="C143"/>
@@ -11913,7 +13366,7 @@
       <c r="J143"/>
       <c r="K143"/>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:12">
       <c r="A144"/>
       <c r="B144"/>
       <c r="C144"/>
@@ -14898,7 +16351,7 @@
   </sortState>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="M5:N69">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14906,10 +16359,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A98AFA-13BB-C344-8D1A-51AA773A88E2}">
-  <dimension ref="A1:K392"/>
+  <dimension ref="A1:L392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F69"/>
+      <pivotSelection pane="bottomRight" showHeader="1" axis="axisRow" dimension="5" activeRow="4" activeCol="5" previousRow="4" previousCol="5" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="14" count="0"/>
+          </references>
+        </pivotArea>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -14919,10 +16379,11 @@
     <col min="3" max="3" width="44.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="69.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>1141</v>
       </c>
@@ -14930,7 +16391,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -14946,8 +16407,11 @@
       <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>287</v>
       </c>
@@ -14963,8 +16427,11 @@
       <c r="E5" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
@@ -14980,8 +16447,11 @@
       <c r="E6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>477</v>
       </c>
@@ -14997,8 +16467,11 @@
       <c r="E7" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>480</v>
       </c>
@@ -15014,8 +16487,11 @@
       <c r="E8" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>216</v>
       </c>
@@ -15031,8 +16507,11 @@
       <c r="E9" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -15048,8 +16527,11 @@
       <c r="E10" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>468</v>
       </c>
@@ -15065,8 +16547,11 @@
       <c r="E11" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>296</v>
       </c>
@@ -15082,8 +16567,11 @@
       <c r="E12" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>52</v>
       </c>
@@ -15099,8 +16587,11 @@
       <c r="E13" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>392</v>
       </c>
@@ -15116,8 +16607,11 @@
       <c r="E14" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>99</v>
       </c>
@@ -15133,8 +16627,11 @@
       <c r="E15" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>342</v>
       </c>
@@ -15150,8 +16647,11 @@
       <c r="E16" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>195</v>
       </c>
@@ -15167,8 +16667,11 @@
       <c r="E17" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>219</v>
       </c>
@@ -15184,8 +16687,11 @@
       <c r="E18" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>177</v>
       </c>
@@ -15201,8 +16707,11 @@
       <c r="E19" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>159</v>
       </c>
@@ -15218,8 +16727,11 @@
       <c r="E20" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>123</v>
       </c>
@@ -15235,8 +16747,11 @@
       <c r="E21" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>222</v>
       </c>
@@ -15252,8 +16767,11 @@
       <c r="E22" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>129</v>
       </c>
@@ -15269,8 +16787,11 @@
       <c r="E23" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>201</v>
       </c>
@@ -15286,8 +16807,11 @@
       <c r="E24" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>445</v>
       </c>
@@ -15303,8 +16827,11 @@
       <c r="E25" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>442</v>
       </c>
@@ -15320,8 +16847,11 @@
       <c r="E26" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>519</v>
       </c>
@@ -15337,8 +16867,11 @@
       <c r="E27" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>372</v>
       </c>
@@ -15354,8 +16887,11 @@
       <c r="E28" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>72</v>
       </c>
@@ -15371,8 +16907,11 @@
       <c r="E29" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>366</v>
       </c>
@@ -15388,8 +16927,11 @@
       <c r="E30" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>357</v>
       </c>
@@ -15405,8 +16947,11 @@
       <c r="E31" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
         <v>419</v>
       </c>
@@ -15422,8 +16967,11 @@
       <c r="E32" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>183</v>
       </c>
@@ -15439,8 +16987,11 @@
       <c r="E33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>448</v>
       </c>
@@ -15456,8 +17007,11 @@
       <c r="E34" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
         <v>369</v>
       </c>
@@ -15473,8 +17027,11 @@
       <c r="E35" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
         <v>348</v>
       </c>
@@ -15490,8 +17047,11 @@
       <c r="E36" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>514</v>
       </c>
@@ -15507,8 +17067,11 @@
       <c r="E37" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
         <v>126</v>
       </c>
@@ -15524,8 +17087,11 @@
       <c r="E38" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
         <v>434</v>
       </c>
@@ -15541,8 +17107,11 @@
       <c r="E39" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>504</v>
       </c>
@@ -15558,8 +17127,11 @@
       <c r="E40" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
         <v>293</v>
       </c>
@@ -15575,8 +17147,11 @@
       <c r="E41" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
         <v>134</v>
       </c>
@@ -15592,8 +17167,11 @@
       <c r="E42" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
         <v>382</v>
       </c>
@@ -15609,8 +17187,11 @@
       <c r="E43" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
         <v>437</v>
       </c>
@@ -15626,8 +17207,11 @@
       <c r="E44" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
         <v>542</v>
       </c>
@@ -15643,8 +17227,11 @@
       <c r="E45" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
         <v>171</v>
       </c>
@@ -15660,8 +17247,11 @@
       <c r="E46" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
         <v>536</v>
       </c>
@@ -15677,8 +17267,11 @@
       <c r="E47" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
         <v>207</v>
       </c>
@@ -15694,8 +17287,11 @@
       <c r="E48" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
         <v>377</v>
       </c>
@@ -15711,8 +17307,11 @@
       <c r="E49" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
         <v>474</v>
       </c>
@@ -15728,8 +17327,11 @@
       <c r="E50" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
         <v>410</v>
       </c>
@@ -15745,8 +17347,11 @@
       <c r="E51" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
         <v>351</v>
       </c>
@@ -15762,8 +17367,11 @@
       <c r="E52" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
         <v>360</v>
       </c>
@@ -15779,8 +17387,11 @@
       <c r="E53" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
         <v>471</v>
       </c>
@@ -15796,8 +17407,11 @@
       <c r="E54" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
         <v>79</v>
       </c>
@@ -15813,8 +17427,11 @@
       <c r="E55" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
         <v>547</v>
       </c>
@@ -15830,8 +17447,11 @@
       <c r="E56" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
         <v>290</v>
       </c>
@@ -15847,8 +17467,11 @@
       <c r="E57" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
         <v>363</v>
       </c>
@@ -15864,8 +17487,11 @@
       <c r="E58" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
         <v>345</v>
       </c>
@@ -15881,8 +17507,11 @@
       <c r="E59" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
         <v>493</v>
       </c>
@@ -15898,8 +17527,11 @@
       <c r="E60" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
         <v>414</v>
       </c>
@@ -15915,8 +17547,11 @@
       <c r="E61" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
         <v>230</v>
       </c>
@@ -15932,8 +17567,11 @@
       <c r="E62" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
         <v>302</v>
       </c>
@@ -15949,8 +17587,11 @@
       <c r="E63" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
         <v>465</v>
       </c>
@@ -15966,8 +17607,11 @@
       <c r="E64" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="F64" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
         <v>501</v>
       </c>
@@ -15983,8 +17627,11 @@
       <c r="E65" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="F65" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
         <v>354</v>
       </c>
@@ -16000,8 +17647,11 @@
       <c r="E66" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="F66" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
         <v>299</v>
       </c>
@@ -16017,8 +17667,11 @@
       <c r="E67" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="F67" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
         <v>96</v>
       </c>
@@ -16034,8 +17687,11 @@
       <c r="E68" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="F68" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
         <v>24</v>
       </c>
@@ -16051,13 +17707,16 @@
       <c r="E69" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="F69" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:12">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
@@ -16069,8 +17728,9 @@
       <c r="I71"/>
       <c r="J71"/>
       <c r="K71"/>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="L71"/>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
@@ -16082,8 +17742,9 @@
       <c r="I72"/>
       <c r="J72"/>
       <c r="K72"/>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="L72"/>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
@@ -16095,8 +17756,9 @@
       <c r="I73"/>
       <c r="J73"/>
       <c r="K73"/>
-    </row>
-    <row r="74" spans="1:11">
+      <c r="L73"/>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
@@ -16108,8 +17770,9 @@
       <c r="I74"/>
       <c r="J74"/>
       <c r="K74"/>
-    </row>
-    <row r="75" spans="1:11">
+      <c r="L74"/>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -16121,8 +17784,9 @@
       <c r="I75"/>
       <c r="J75"/>
       <c r="K75"/>
-    </row>
-    <row r="76" spans="1:11">
+      <c r="L75"/>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
@@ -16134,8 +17798,9 @@
       <c r="I76"/>
       <c r="J76"/>
       <c r="K76"/>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="L76"/>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
@@ -16147,8 +17812,9 @@
       <c r="I77"/>
       <c r="J77"/>
       <c r="K77"/>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="L77"/>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
@@ -16160,8 +17826,9 @@
       <c r="I78"/>
       <c r="J78"/>
       <c r="K78"/>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="L78"/>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
@@ -16173,8 +17840,9 @@
       <c r="I79"/>
       <c r="J79"/>
       <c r="K79"/>
-    </row>
-    <row r="80" spans="1:11">
+      <c r="L79"/>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -16186,8 +17854,9 @@
       <c r="I80"/>
       <c r="J80"/>
       <c r="K80"/>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="L80"/>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
@@ -16199,8 +17868,9 @@
       <c r="I81"/>
       <c r="J81"/>
       <c r="K81"/>
-    </row>
-    <row r="82" spans="1:11">
+      <c r="L81"/>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
@@ -16212,8 +17882,9 @@
       <c r="I82"/>
       <c r="J82"/>
       <c r="K82"/>
-    </row>
-    <row r="83" spans="1:11">
+      <c r="L82"/>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
@@ -16225,8 +17896,9 @@
       <c r="I83"/>
       <c r="J83"/>
       <c r="K83"/>
-    </row>
-    <row r="84" spans="1:11">
+      <c r="L83"/>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -16238,8 +17910,9 @@
       <c r="I84"/>
       <c r="J84"/>
       <c r="K84"/>
-    </row>
-    <row r="85" spans="1:11">
+      <c r="L84"/>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
@@ -16251,8 +17924,9 @@
       <c r="I85"/>
       <c r="J85"/>
       <c r="K85"/>
-    </row>
-    <row r="86" spans="1:11">
+      <c r="L85"/>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
@@ -16264,8 +17938,9 @@
       <c r="I86"/>
       <c r="J86"/>
       <c r="K86"/>
-    </row>
-    <row r="87" spans="1:11">
+      <c r="L86"/>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
@@ -16277,8 +17952,9 @@
       <c r="I87"/>
       <c r="J87"/>
       <c r="K87"/>
-    </row>
-    <row r="88" spans="1:11">
+      <c r="L87"/>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
@@ -16290,8 +17966,9 @@
       <c r="I88"/>
       <c r="J88"/>
       <c r="K88"/>
-    </row>
-    <row r="89" spans="1:11">
+      <c r="L88"/>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
@@ -16303,8 +17980,9 @@
       <c r="I89"/>
       <c r="J89"/>
       <c r="K89"/>
-    </row>
-    <row r="90" spans="1:11">
+      <c r="L89"/>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
@@ -16316,8 +17994,9 @@
       <c r="I90"/>
       <c r="J90"/>
       <c r="K90"/>
-    </row>
-    <row r="91" spans="1:11">
+      <c r="L90"/>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -16329,8 +18008,9 @@
       <c r="I91"/>
       <c r="J91"/>
       <c r="K91"/>
-    </row>
-    <row r="92" spans="1:11">
+      <c r="L91"/>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -16342,8 +18022,9 @@
       <c r="I92"/>
       <c r="J92"/>
       <c r="K92"/>
-    </row>
-    <row r="93" spans="1:11">
+      <c r="L92"/>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -16355,8 +18036,9 @@
       <c r="I93"/>
       <c r="J93"/>
       <c r="K93"/>
-    </row>
-    <row r="94" spans="1:11">
+      <c r="L93"/>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
@@ -16368,8 +18050,9 @@
       <c r="I94"/>
       <c r="J94"/>
       <c r="K94"/>
-    </row>
-    <row r="95" spans="1:11">
+      <c r="L94"/>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
@@ -16381,8 +18064,9 @@
       <c r="I95"/>
       <c r="J95"/>
       <c r="K95"/>
-    </row>
-    <row r="96" spans="1:11">
+      <c r="L95"/>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -16394,8 +18078,9 @@
       <c r="I96"/>
       <c r="J96"/>
       <c r="K96"/>
-    </row>
-    <row r="97" spans="1:11">
+      <c r="L96"/>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
@@ -16407,8 +18092,9 @@
       <c r="I97"/>
       <c r="J97"/>
       <c r="K97"/>
-    </row>
-    <row r="98" spans="1:11">
+      <c r="L97"/>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
@@ -16420,8 +18106,9 @@
       <c r="I98"/>
       <c r="J98"/>
       <c r="K98"/>
-    </row>
-    <row r="99" spans="1:11">
+      <c r="L98"/>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
@@ -16433,8 +18120,9 @@
       <c r="I99"/>
       <c r="J99"/>
       <c r="K99"/>
-    </row>
-    <row r="100" spans="1:11">
+      <c r="L99"/>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
@@ -16446,8 +18134,9 @@
       <c r="I100"/>
       <c r="J100"/>
       <c r="K100"/>
-    </row>
-    <row r="101" spans="1:11">
+      <c r="L100"/>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
@@ -16459,8 +18148,9 @@
       <c r="I101"/>
       <c r="J101"/>
       <c r="K101"/>
-    </row>
-    <row r="102" spans="1:11">
+      <c r="L101"/>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
@@ -16472,8 +18162,9 @@
       <c r="I102"/>
       <c r="J102"/>
       <c r="K102"/>
-    </row>
-    <row r="103" spans="1:11">
+      <c r="L102"/>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
@@ -16485,8 +18176,9 @@
       <c r="I103"/>
       <c r="J103"/>
       <c r="K103"/>
-    </row>
-    <row r="104" spans="1:11">
+      <c r="L103"/>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
@@ -16498,8 +18190,9 @@
       <c r="I104"/>
       <c r="J104"/>
       <c r="K104"/>
-    </row>
-    <row r="105" spans="1:11">
+      <c r="L104"/>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
@@ -16511,8 +18204,9 @@
       <c r="I105"/>
       <c r="J105"/>
       <c r="K105"/>
-    </row>
-    <row r="106" spans="1:11">
+      <c r="L105"/>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
@@ -16524,8 +18218,9 @@
       <c r="I106"/>
       <c r="J106"/>
       <c r="K106"/>
-    </row>
-    <row r="107" spans="1:11">
+      <c r="L106"/>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -16537,8 +18232,9 @@
       <c r="I107"/>
       <c r="J107"/>
       <c r="K107"/>
-    </row>
-    <row r="108" spans="1:11">
+      <c r="L107"/>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -16550,8 +18246,9 @@
       <c r="I108"/>
       <c r="J108"/>
       <c r="K108"/>
-    </row>
-    <row r="109" spans="1:11">
+      <c r="L108"/>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -16563,8 +18260,9 @@
       <c r="I109"/>
       <c r="J109"/>
       <c r="K109"/>
-    </row>
-    <row r="110" spans="1:11">
+      <c r="L109"/>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -16576,8 +18274,9 @@
       <c r="I110"/>
       <c r="J110"/>
       <c r="K110"/>
-    </row>
-    <row r="111" spans="1:11">
+      <c r="L110"/>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -16589,8 +18288,9 @@
       <c r="I111"/>
       <c r="J111"/>
       <c r="K111"/>
-    </row>
-    <row r="112" spans="1:11">
+      <c r="L111"/>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -16602,8 +18302,9 @@
       <c r="I112"/>
       <c r="J112"/>
       <c r="K112"/>
-    </row>
-    <row r="113" spans="1:11">
+      <c r="L112"/>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -16615,8 +18316,9 @@
       <c r="I113"/>
       <c r="J113"/>
       <c r="K113"/>
-    </row>
-    <row r="114" spans="1:11">
+      <c r="L113"/>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -16628,8 +18330,9 @@
       <c r="I114"/>
       <c r="J114"/>
       <c r="K114"/>
-    </row>
-    <row r="115" spans="1:11">
+      <c r="L114"/>
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -16641,8 +18344,9 @@
       <c r="I115"/>
       <c r="J115"/>
       <c r="K115"/>
-    </row>
-    <row r="116" spans="1:11">
+      <c r="L115"/>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -16654,8 +18358,9 @@
       <c r="I116"/>
       <c r="J116"/>
       <c r="K116"/>
-    </row>
-    <row r="117" spans="1:11">
+      <c r="L116"/>
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -16667,8 +18372,9 @@
       <c r="I117"/>
       <c r="J117"/>
       <c r="K117"/>
-    </row>
-    <row r="118" spans="1:11">
+      <c r="L117"/>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -16680,8 +18386,9 @@
       <c r="I118"/>
       <c r="J118"/>
       <c r="K118"/>
-    </row>
-    <row r="119" spans="1:11">
+      <c r="L118"/>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -16693,8 +18400,9 @@
       <c r="I119"/>
       <c r="J119"/>
       <c r="K119"/>
-    </row>
-    <row r="120" spans="1:11">
+      <c r="L119"/>
+    </row>
+    <row r="120" spans="1:12">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -16706,8 +18414,9 @@
       <c r="I120"/>
       <c r="J120"/>
       <c r="K120"/>
-    </row>
-    <row r="121" spans="1:11">
+      <c r="L120"/>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -16719,8 +18428,9 @@
       <c r="I121"/>
       <c r="J121"/>
       <c r="K121"/>
-    </row>
-    <row r="122" spans="1:11">
+      <c r="L121"/>
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -16732,8 +18442,9 @@
       <c r="I122"/>
       <c r="J122"/>
       <c r="K122"/>
-    </row>
-    <row r="123" spans="1:11">
+      <c r="L122"/>
+    </row>
+    <row r="123" spans="1:12">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -16745,8 +18456,9 @@
       <c r="I123"/>
       <c r="J123"/>
       <c r="K123"/>
-    </row>
-    <row r="124" spans="1:11">
+      <c r="L123"/>
+    </row>
+    <row r="124" spans="1:12">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
@@ -16758,8 +18470,9 @@
       <c r="I124"/>
       <c r="J124"/>
       <c r="K124"/>
-    </row>
-    <row r="125" spans="1:11">
+      <c r="L124"/>
+    </row>
+    <row r="125" spans="1:12">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -16771,8 +18484,9 @@
       <c r="I125"/>
       <c r="J125"/>
       <c r="K125"/>
-    </row>
-    <row r="126" spans="1:11">
+      <c r="L125"/>
+    </row>
+    <row r="126" spans="1:12">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
@@ -16784,8 +18498,9 @@
       <c r="I126"/>
       <c r="J126"/>
       <c r="K126"/>
-    </row>
-    <row r="127" spans="1:11">
+      <c r="L126"/>
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
@@ -16797,8 +18512,9 @@
       <c r="I127"/>
       <c r="J127"/>
       <c r="K127"/>
-    </row>
-    <row r="128" spans="1:11">
+      <c r="L127"/>
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -16810,8 +18526,9 @@
       <c r="I128"/>
       <c r="J128"/>
       <c r="K128"/>
-    </row>
-    <row r="129" spans="1:11">
+      <c r="L128"/>
+    </row>
+    <row r="129" spans="1:12">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -16823,8 +18540,9 @@
       <c r="I129"/>
       <c r="J129"/>
       <c r="K129"/>
-    </row>
-    <row r="130" spans="1:11">
+      <c r="L129"/>
+    </row>
+    <row r="130" spans="1:12">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
@@ -16836,8 +18554,9 @@
       <c r="I130"/>
       <c r="J130"/>
       <c r="K130"/>
-    </row>
-    <row r="131" spans="1:11">
+      <c r="L130"/>
+    </row>
+    <row r="131" spans="1:12">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
@@ -16849,8 +18568,9 @@
       <c r="I131"/>
       <c r="J131"/>
       <c r="K131"/>
-    </row>
-    <row r="132" spans="1:11">
+      <c r="L131"/>
+    </row>
+    <row r="132" spans="1:12">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
@@ -16862,8 +18582,9 @@
       <c r="I132"/>
       <c r="J132"/>
       <c r="K132"/>
-    </row>
-    <row r="133" spans="1:11">
+      <c r="L132"/>
+    </row>
+    <row r="133" spans="1:12">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
@@ -16875,8 +18596,9 @@
       <c r="I133"/>
       <c r="J133"/>
       <c r="K133"/>
-    </row>
-    <row r="134" spans="1:11">
+      <c r="L133"/>
+    </row>
+    <row r="134" spans="1:12">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
@@ -16888,8 +18610,9 @@
       <c r="I134"/>
       <c r="J134"/>
       <c r="K134"/>
-    </row>
-    <row r="135" spans="1:11">
+      <c r="L134"/>
+    </row>
+    <row r="135" spans="1:12">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
@@ -16901,8 +18624,9 @@
       <c r="I135"/>
       <c r="J135"/>
       <c r="K135"/>
-    </row>
-    <row r="136" spans="1:11">
+      <c r="L135"/>
+    </row>
+    <row r="136" spans="1:12">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
@@ -16915,7 +18639,7 @@
       <c r="J136"/>
       <c r="K136"/>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:12">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
@@ -16928,7 +18652,7 @@
       <c r="J137"/>
       <c r="K137"/>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:12">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
@@ -16941,7 +18665,7 @@
       <c r="J138"/>
       <c r="K138"/>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:12">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
@@ -16954,7 +18678,7 @@
       <c r="J139"/>
       <c r="K139"/>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:12">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
@@ -16967,7 +18691,7 @@
       <c r="J140"/>
       <c r="K140"/>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:12">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -16980,7 +18704,7 @@
       <c r="J141"/>
       <c r="K141"/>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:12">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
@@ -16993,7 +18717,7 @@
       <c r="J142"/>
       <c r="K142"/>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:12">
       <c r="A143"/>
       <c r="B143"/>
       <c r="C143"/>
@@ -17006,7 +18730,7 @@
       <c r="J143"/>
       <c r="K143"/>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:12">
       <c r="A144"/>
       <c r="B144"/>
       <c r="C144"/>
@@ -19995,23 +21719,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P130"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="P123" sqref="P123"/>
+    <sheetView topLeftCell="C42" zoomScale="173" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="44.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="33.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="69.5" style="1" bestFit="1" customWidth="1"/>
@@ -22796,7 +24520,7 @@
         <v>817192740</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>281</v>
+        <v>1250</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>282</v>
@@ -26089,7 +27813,7 @@
   <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
@@ -28834,7 +30558,7 @@
   <dimension ref="A1:AL51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="X31" sqref="X31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
@@ -31148,9 +32872,2150 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF2743E-7F29-0B4F-8CEE-BABEA38CB182}">
+  <dimension ref="A1:J57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="167" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="71.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="49" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C1" t="str">
+        <f>LEFT(B1,2)</f>
+        <v>鈴木</v>
+      </c>
+      <c r="D1" t="str">
+        <f>RIGHT(B1,2)</f>
+        <v>蒼大</v>
+      </c>
+      <c r="E1" t="str">
+        <f>_xlfn.CONCAT(C1," ",D1)</f>
+        <v>鈴木 蒼大</v>
+      </c>
+      <c r="F1" t="str">
+        <f>_xlfn.XLOOKUP(E1,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>日本体育大学トランポリンクラブ</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H1" t="str">
+        <f>LEFT(G1,2)</f>
+        <v>澤田</v>
+      </c>
+      <c r="I1" t="str">
+        <f>RIGHT(G1,2)</f>
+        <v>守杏</v>
+      </c>
+      <c r="J1" t="str">
+        <f>_xlfn.CONCAT(H1," ",I1)</f>
+        <v>澤田 守杏</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C55" si="0">LEFT(B2,2)</f>
+        <v>結城</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D54" si="1">RIGHT(B2,2)</f>
+        <v>理輝</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E54" si="2">_xlfn.CONCAT(C2," ",D2)</f>
+        <v>結城 理輝</v>
+      </c>
+      <c r="F2" t="str">
+        <f>_xlfn.XLOOKUP(E2,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>日本体育大学トランポリンクラブ</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H53" si="3">LEFT(G2,2)</f>
+        <v>大藤</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" ref="I2:I53" si="4">RIGHT(G2,2)</f>
+        <v>藤彩</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" ref="J2:J53" si="5">_xlfn.CONCAT(H2," ",I2)</f>
+        <v>大藤 藤彩</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>堀江</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="1"/>
+        <v>兼世</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="2"/>
+        <v>堀江 兼世</v>
+      </c>
+      <c r="F3" t="str">
+        <f>_xlfn.XLOOKUP(E3,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>金沢学院大学クラブ</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="3"/>
+        <v>櫻井</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="4"/>
+        <v>愛菜</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" si="5"/>
+        <v>櫻井 愛菜</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>松本</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>航翔</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="2"/>
+        <v>松本 航翔</v>
+      </c>
+      <c r="F4" t="str">
+        <f>_xlfn.XLOOKUP(E4,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>金沢学院大学クラブ</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="3"/>
+        <v>田中</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="4"/>
+        <v>希湖</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="5"/>
+        <v>田中 希湖</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>豊田</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>秀真</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="2"/>
+        <v>豊田 秀真</v>
+      </c>
+      <c r="F5" t="str">
+        <f>_xlfn.XLOOKUP(E5,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>大泉スワロー体育クラブ</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1189</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="3"/>
+        <v>林璃</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="4"/>
+        <v>璃奈</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="5"/>
+        <v>林璃 璃奈</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>宮内</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>翼光</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="2"/>
+        <v>宮内 翼光</v>
+      </c>
+      <c r="F6" t="str">
+        <f>_xlfn.XLOOKUP(E6,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>大泉スワロー体育クラブ</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="3"/>
+        <v>大西</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="4"/>
+        <v>西楓</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="5"/>
+        <v>大西 西楓</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>豊後</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>輝道</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="2"/>
+        <v>豊後 輝道</v>
+      </c>
+      <c r="F7" t="str">
+        <f>_xlfn.XLOOKUP(E7,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>星稜クラブ</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1191</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="3"/>
+        <v>木村</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="4"/>
+        <v>心春</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="5"/>
+        <v>木村 心春</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>山崎</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>凌空</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="2"/>
+        <v>山崎 凌空</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.XLOOKUP(E8,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>星稜クラブ</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1192</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="3"/>
+        <v>伊吹</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="4"/>
+        <v>千夢</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="5"/>
+        <v>伊吹 千夢</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>片岡</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>雄貴</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="2"/>
+        <v>片岡 雄貴</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.XLOOKUP(E9,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>Phoenix Trampoline School/てんとう虫パーク</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="3"/>
+        <v>播磨</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1260</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="5"/>
+        <v>播磨 ここね</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>986</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>中井</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>大翔</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="2"/>
+        <v>中井 大翔</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.XLOOKUP(E10,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>Phoenix Trampoline School</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="3"/>
+        <v>石田</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="5"/>
+        <v>石田 美咲希</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>美田</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>靖文</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="2"/>
+        <v>美田 靖文</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xlfn.XLOOKUP(E11,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>星稜クラブ</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="3"/>
+        <v>南栞</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="4"/>
+        <v>栞奈</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="5"/>
+        <v>南栞 栞奈</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>都竹</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>奏翔</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="2"/>
+        <v>都竹 奏翔</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xlfn.XLOOKUP(E12,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>星稜クラブ</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1262</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="3"/>
+        <v>髙橋</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="4"/>
+        <v>明里</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="5"/>
+        <v>髙橋 明里</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>番所</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>駿斗</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="2"/>
+        <v>番所 駿斗</v>
+      </c>
+      <c r="F13" t="str">
+        <f>_xlfn.XLOOKUP(E13,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>星稜クラブ</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="3"/>
+        <v>都竹</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="4"/>
+        <v>結花</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="5"/>
+        <v>都竹 結花</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>松岡</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>龍吾</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="2"/>
+        <v>松岡 龍吾</v>
+      </c>
+      <c r="F14" t="str">
+        <f>_xlfn.XLOOKUP(E14,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>星稜クラブ</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1197</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="3"/>
+        <v>横石</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="4"/>
+        <v>優萌</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="5"/>
+        <v>横石 優萌</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>藤田</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="2"/>
+        <v>藤田 隆之介</v>
+      </c>
+      <c r="F15" t="str">
+        <f>_xlfn.XLOOKUP(E15,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>三木プーリ/フリーエアースポーツクラブ</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1198</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="3"/>
+        <v>塚本</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="4"/>
+        <v>莉子</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="5"/>
+        <v>塚本 莉子</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>山田</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>大翔</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="2"/>
+        <v>山田 大翔</v>
+      </c>
+      <c r="F16" t="str">
+        <f>_xlfn.XLOOKUP(E16,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>フリーエアースポーツクラブ/ダイドードリンコ株式会社</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1263</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="3"/>
+        <v>谷好</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="4"/>
+        <v>真琴</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="5"/>
+        <v>谷好 真琴</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>渡部</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="2"/>
+        <v>渡部 夏寿貴</v>
+      </c>
+      <c r="F17" t="str">
+        <f>_xlfn.XLOOKUP(E17,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>静岡産業大学クラブ</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1199</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="3"/>
+        <v>長澤</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="4"/>
+        <v>萌栞</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="5"/>
+        <v>長澤 萌栞</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>横澤</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>晴稀</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="2"/>
+        <v>横澤 晴稀</v>
+      </c>
+      <c r="F18" t="str">
+        <f>_xlfn.XLOOKUP(E18,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>金沢学院大学クラブ</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1264</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="3"/>
+        <v>竹嵜</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="4"/>
+        <v>玲奈</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="5"/>
+        <v>竹嵜 玲奈</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>田口</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="2"/>
+        <v>田口 楽</v>
+      </c>
+      <c r="F19" t="str">
+        <f>_xlfn.XLOOKUP(E19,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>Gale</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1200</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="3"/>
+        <v>大木</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="4"/>
+        <v>木彩</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="5"/>
+        <v>大木 木彩</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>江尻</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>愛翔</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="2"/>
+        <v>江尻 愛翔</v>
+      </c>
+      <c r="F20" t="str">
+        <f>_xlfn.XLOOKUP(E20,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>フリーエアースポーツクラブ</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="3"/>
+        <v>三澤</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="4"/>
+        <v>優華</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="5"/>
+        <v>三澤 優華</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>碧人</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="2"/>
+        <v>長谷川 碧人</v>
+      </c>
+      <c r="F21" t="str">
+        <f>_xlfn.XLOOKUP(E21,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>星稜クラブ</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1201</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="3"/>
+        <v>千葉</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="4"/>
+        <v>夢咲</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="5"/>
+        <v>千葉 夢咲</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>田山</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E22" t="str">
+        <f>_xlfn.CONCAT(C22," ",D22)</f>
+        <v>田山 雄貴</v>
+      </c>
+      <c r="F22" t="str">
+        <f>_xlfn.XLOOKUP(E22,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>星稜クラブ</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1202</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="3"/>
+        <v>山田</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="4"/>
+        <v>愛芽</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="5"/>
+        <v>山田 愛芽</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>谷口</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>遼平</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="2"/>
+        <v>谷口 遼平</v>
+      </c>
+      <c r="F23" t="str">
+        <f>_xlfn.XLOOKUP(E23,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>たにぐちりょうへいトランポリンクラブ/第一商事株式会社</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1203</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="3"/>
+        <v>石坂</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1266</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="5"/>
+        <v>石坂 漣</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>永田</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>信弥</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="2"/>
+        <v>永田 信弥</v>
+      </c>
+      <c r="F24" t="str">
+        <f>_xlfn.XLOOKUP(E24,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>極東油業株式会社/アベノジュニアトランポリンクラブ</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1204</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="3"/>
+        <v>冨岡</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="4"/>
+        <v>里帆</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="5"/>
+        <v>冨岡 里帆</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>石田</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="2"/>
+        <v>石田 孝</v>
+      </c>
+      <c r="F25" t="str">
+        <f>_xlfn.XLOOKUP(E25,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>金沢学院大学クラブ</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1205</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1267</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1268</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="5"/>
+        <v>森 はっぴ</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>大内</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="2"/>
+        <v>大内 颯</v>
+      </c>
+      <c r="F26" t="str">
+        <f>_xlfn.XLOOKUP(E26,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>CRAZY-TRAMPOLINE</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="3"/>
+        <v>末冨</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="4"/>
+        <v>穂⾹</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="5"/>
+        <v>末冨 穂⾹</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>石原</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>巧己</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="2"/>
+        <v>石原 巧己</v>
+      </c>
+      <c r="F27" t="str">
+        <f>_xlfn.XLOOKUP(E27,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>金沢学院大学クラブ</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1206</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="3"/>
+        <v>松本</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="4"/>
+        <v>陽葵</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="5"/>
+        <v>松本 陽葵</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>熊谷</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>天慈</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="2"/>
+        <v>熊谷 天慈</v>
+      </c>
+      <c r="F28" t="str">
+        <f>_xlfn.XLOOKUP(E28,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>金沢学院大学クラブ</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1270</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="3"/>
+        <v>江上</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="4"/>
+        <v>瑠奈</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="5"/>
+        <v>江上 瑠奈</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>針生</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>淳平</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="2"/>
+        <v>針生 淳平</v>
+      </c>
+      <c r="F29" t="str">
+        <f>_xlfn.XLOOKUP(E29,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>金沢学院大学クラブ</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1207</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="3"/>
+        <v>小林</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="4"/>
+        <v>林和</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="5"/>
+        <v>小林 林和</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>中山</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>心輝</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="2"/>
+        <v>中山 心輝</v>
+      </c>
+      <c r="F30" t="str">
+        <f>_xlfn.XLOOKUP(E30,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>阪南大学クラブ</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1208</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="3"/>
+        <v>小石</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="4"/>
+        <v>和奈</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="5"/>
+        <v>小石 和奈</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>颯士</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="2"/>
+        <v>秦 颯士</v>
+      </c>
+      <c r="F31" t="str">
+        <f>_xlfn.XLOOKUP(E31,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>星稜クラブ</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1209</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="3"/>
+        <v>山﨑</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="4"/>
+        <v>香凛</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="5"/>
+        <v>山﨑 香凛</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>中山</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>偉斗</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="2"/>
+        <v>中山 偉斗</v>
+      </c>
+      <c r="F32" t="str">
+        <f>_xlfn.XLOOKUP(E32,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>星稜クラブ</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1271</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="3"/>
+        <v>片岡</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1272</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="5"/>
+        <v>片岡 美羽音</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>上田</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>乃維</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="2"/>
+        <v>上田 乃維</v>
+      </c>
+      <c r="F33" t="str">
+        <f>_xlfn.XLOOKUP(E33,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>慶應義塾大学</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1210</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="3"/>
+        <v>三澤</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="4"/>
+        <v>優華</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="5"/>
+        <v>三澤 優華</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>石井</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="1"/>
+        <v>祐雅</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="2"/>
+        <v>石井 祐雅</v>
+      </c>
+      <c r="F34" t="str">
+        <f>_xlfn.XLOOKUP(E34,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>エアリアルドリームスポーツクラブ</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="3"/>
+        <v>大木</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1274</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="5"/>
+        <v>大木 彩</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>松本</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="1"/>
+        <v>悠生</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="2"/>
+        <v>松本 悠生</v>
+      </c>
+      <c r="F35" t="str">
+        <f>_xlfn.XLOOKUP(E35,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>金沢学院大学クラブ</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1275</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="3"/>
+        <v>佐藤</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="4"/>
+        <v>優菜</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="5"/>
+        <v>佐藤 優菜</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>村上</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="1"/>
+        <v>遥音</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="2"/>
+        <v>村上 遥音</v>
+      </c>
+      <c r="F36" t="str">
+        <f>_xlfn.XLOOKUP(E36,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>アベノジュニアトランポリンクラブ</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="3"/>
+        <v>太村</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="4"/>
+        <v>成見</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="5"/>
+        <v>太村 成見</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>市川</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="1"/>
+        <v>萌瑠</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="2"/>
+        <v>市川 萌瑠</v>
+      </c>
+      <c r="F37" t="str">
+        <f>_xlfn.XLOOKUP(E37,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>静岡産業大学クラブ</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1211</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="3"/>
+        <v>佐藤</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="4"/>
+        <v>歩実</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="5"/>
+        <v>佐藤 歩実</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>笠原</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="1"/>
+        <v>武晃</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="2"/>
+        <v>笠原 武晃</v>
+      </c>
+      <c r="F38" t="str">
+        <f>_xlfn.XLOOKUP(E38,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>レインボージムナスティックス大潟</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1212</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="3"/>
+        <v>岡田</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="4"/>
+        <v>楓佳</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="5"/>
+        <v>岡田 楓佳</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>宮野</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="1"/>
+        <v>隼人</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="2"/>
+        <v>宮野 隼人</v>
+      </c>
+      <c r="F39" t="str">
+        <f>_xlfn.XLOOKUP(E39,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>金沢学院大学クラブ</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="3"/>
+        <v>高木</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="4"/>
+        <v>裕美</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="5"/>
+        <v>高木 裕美</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>石川</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="2"/>
+        <v>石川 和</v>
+      </c>
+      <c r="F40" t="str">
+        <f>_xlfn.XLOOKUP(E40,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>ヒロセホールディングス株式会社</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1277</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="4"/>
+        <v>彩乃</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="5"/>
+        <v>東 彩乃</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>宮野</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="1"/>
+        <v>冬馬</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="2"/>
+        <v>宮野 冬馬</v>
+      </c>
+      <c r="F41" t="str">
+        <f>_xlfn.XLOOKUP(E41,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>相好トランポリンクラブ</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="3"/>
+        <v>櫛引</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="4"/>
+        <v>心温</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="5"/>
+        <v>櫛引 心温</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>海野</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="1"/>
+        <v>大透</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="2"/>
+        <v>海野 大透</v>
+      </c>
+      <c r="F42" t="str">
+        <f>_xlfn.XLOOKUP(E42,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>静岡産業大学クラブ/株式会社サン</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1279</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="3"/>
+        <v>光本</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="4"/>
+        <v>知里</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="5"/>
+        <v>光本 知里</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>吉村</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="1"/>
+        <v>匡貴</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="2"/>
+        <v>吉村 匡貴</v>
+      </c>
+      <c r="F43" t="str">
+        <f>_xlfn.XLOOKUP(E43,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>アベノジュニアトランポリンクラブ</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1215</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="3"/>
+        <v>吉村</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="4"/>
+        <v>紅子</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="5"/>
+        <v>吉村 紅子</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="1"/>
+        <v>竜雅</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="2"/>
+        <v>林 竜雅</v>
+      </c>
+      <c r="F44" t="str">
+        <f>_xlfn.XLOOKUP(E44,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>アベノジュニアトランポリンクラブ</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="3"/>
+        <v>坪井</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="4"/>
+        <v>侑奈</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="5"/>
+        <v>坪井 侑奈</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="1"/>
+        <v>大貴</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="2"/>
+        <v>岸 大貴</v>
+      </c>
+      <c r="F45" t="str">
+        <f>_xlfn.XLOOKUP(E45,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>株式会社ポピンズ</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1216</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="3"/>
+        <v>岸野</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="5"/>
+        <v>岸野 こころ</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>中園</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="1"/>
+        <v>貴登</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="2"/>
+        <v>中園 貴登</v>
+      </c>
+      <c r="F46" t="str">
+        <f>_xlfn.XLOOKUP(E46,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>ユニフォームネクスト株式会社</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1217</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="3"/>
+        <v>野村</v>
+      </c>
+      <c r="I46" t="s">
+        <v>1282</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="5"/>
+        <v>野村 菜都美</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>横石</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="2"/>
+        <v>横石 塁</v>
+      </c>
+      <c r="F47" t="str">
+        <f>_xlfn.XLOOKUP(E47,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>アベノジュニアトランポリンクラブ</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1283</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="4"/>
+        <v>美妃</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="5"/>
+        <v>角力山 美妃</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>崎浜</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="1"/>
+        <v>寧王</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="2"/>
+        <v>崎浜 寧王</v>
+      </c>
+      <c r="F48" t="str">
+        <f>_xlfn.XLOOKUP(E48,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>Atsugibonfire</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="3"/>
+        <v>髙橋</v>
+      </c>
+      <c r="I48" t="s">
+        <v>1285</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="5"/>
+        <v>髙橋 琳</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>995</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>奥山</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="1"/>
+        <v>大雅</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="2"/>
+        <v>奥山 大雅</v>
+      </c>
+      <c r="F49" t="str">
+        <f>_xlfn.XLOOKUP(E49,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>金沢学院大学クラブ</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1219</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I49" t="s">
+        <v>1288</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="5"/>
+        <v>羽手原 桜</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>中田</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="1"/>
+        <v>悠暉</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="2"/>
+        <v>中田 悠暉</v>
+      </c>
+      <c r="F50" t="str">
+        <f>_xlfn.XLOOKUP(E50,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>金沢学院大学クラブ</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="3"/>
+        <v>辻田</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="4"/>
+        <v>天音</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="5"/>
+        <v>辻田 天音</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>井関</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="1"/>
+        <v>駿太</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="2"/>
+        <v>井関 駿太</v>
+      </c>
+      <c r="F51" t="str">
+        <f>_xlfn.XLOOKUP(E51,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>星稜クラブ</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1221</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="3"/>
+        <v>石井</v>
+      </c>
+      <c r="I51" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="5"/>
+        <v>石井 あみる</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>979</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="1"/>
+        <v>亮介</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="2"/>
+        <v>堺 亮介</v>
+      </c>
+      <c r="F52" t="str">
+        <f>_xlfn.XLOOKUP(E52,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>バンダイナムコアミューズメント</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>片岡</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="1"/>
+        <v>拓朗</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="2"/>
+        <v>片岡 拓朗</v>
+      </c>
+      <c r="F53" t="str">
+        <f>_xlfn.XLOOKUP(E53,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>日本体育大学トランポリンクラブ</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>伊藤</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="1"/>
+        <v>佑真</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="2"/>
+        <v>伊藤 佑真</v>
+      </c>
+      <c r="F54" t="str">
+        <f>_xlfn.XLOOKUP(E54,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>日本体育大学トランポリンクラブ</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>神山</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" ref="D55:D56" si="6">RIGHT(B55,2)</f>
+        <v>空駕</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" ref="E55:E56" si="7">_xlfn.CONCAT(C55," ",D55)</f>
+        <v>神山 空駕</v>
+      </c>
+      <c r="F55" t="str">
+        <f>_xlfn.XLOOKUP(E55,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>Ambitious</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="6"/>
+        <v>惇平</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="7"/>
+        <v>髙木 惇平</v>
+      </c>
+      <c r="F56" t="str">
+        <f>_xlfn.XLOOKUP(E56,'[1]IND MEN'!D$5:D$69,'[1]IND MEN'!F$5:F$69)</f>
+        <v>大泉スワロー体育クラブ</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A57">
+    <sortCondition descending="1" ref="A1:A57"/>
+  </sortState>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="E1:E56">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/02_Registration/data.xlsx
+++ b/02_Registration/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jpngym.sharepoint.com/sites/TRA885/Shared Documents/03_全日本選手権/2023/02_Registration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="576" documentId="11_3355E4A77CC895B2DFF1734AFE7476BB746FC0DE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47F7C8A3-CCA0-8A43-B542-79A498E6DFA6}"/>
+  <xr:revisionPtr revIDLastSave="619" documentId="11_3355E4A77CC895B2DFF1734AFE7476BB746FC0DE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F640E185-0E8E-B641-AA19-6206FF723864}"/>
   <bookViews>
-    <workbookView xWindow="34500" yWindow="620" windowWidth="34160" windowHeight="28040" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="34500" yWindow="620" windowWidth="34160" windowHeight="28040" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MEN" sheetId="5" r:id="rId1"/>
@@ -28,8 +28,8 @@
   </externalReferences>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId11"/>
-    <pivotCache cacheId="33" r:id="rId12"/>
+    <pivotCache cacheId="0" r:id="rId11"/>
+    <pivotCache cacheId="1" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -4254,21 +4254,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
     <xf numFmtId="38" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="110">
+  <dxfs count="94">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4325,178 +4324,6 @@
         <charset val="128"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="メイリオ"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -5109,6 +4936,37 @@
         <charset val="128"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="メイリオ"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="メイリオ"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -5375,6 +5233,35 @@
         <charset val="128"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="メイリオ"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="メイリオ"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -11674,12 +11561,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{211EB1DF-0118-3847-8CBE-488E1535C49E}" name="ピボットテーブル1" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{211EB1DF-0118-3847-8CBE-488E1535C49E}" name="ピボットテーブル1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:L70" firstHeaderRow="2" firstDataRow="2" firstDataCol="6" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="17">
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
       <items count="50">
         <item x="42"/>
         <item x="24"/>
@@ -12656,7 +12543,7 @@
     <pageField fld="4" hier="-1"/>
   </pageFields>
   <formats count="1">
-    <format dxfId="109">
+    <format dxfId="93">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -12673,7 +12560,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{993DB307-14A8-F64E-ADF7-FFD324FE885E}" name="ピボットテーブル1" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{993DB307-14A8-F64E-ADF7-FFD324FE885E}" name="ピボットテーブル1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:L70" firstHeaderRow="2" firstDataRow="2" firstDataCol="6" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="17">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -13655,7 +13542,7 @@
     <pageField fld="4" hier="-1"/>
   </pageFields>
   <formats count="1">
-    <format dxfId="108">
+    <format dxfId="92">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -13672,7 +13559,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5618EF3E-5E42-C648-A865-DA399947AE0A}" name="ピボットテーブル1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5618EF3E-5E42-C648-A865-DA399947AE0A}" name="ピボットテーブル1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:M55" firstHeaderRow="2" firstDataRow="2" firstDataCol="7"/>
   <pivotFields count="40">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -14309,7 +14196,7 @@
     <i/>
   </colItems>
   <formats count="1">
-    <format dxfId="107">
+    <format dxfId="91">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -14326,7 +14213,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C08616AF-44EA-E548-A2C5-0306973CC460}" name="ピボットテーブル2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C08616AF-44EA-E548-A2C5-0306973CC460}" name="ピボットテーブル2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:M55" firstHeaderRow="2" firstDataRow="2" firstDataCol="7"/>
   <pivotFields count="40">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -15032,7 +14919,7 @@
     <i/>
   </colItems>
   <formats count="1">
-    <format dxfId="106">
+    <format dxfId="90">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -15049,7 +14936,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8934506E-6BCA-8240-9FD4-3A2C026993E2}" name="ピボットテーブル2" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8934506E-6BCA-8240-9FD4-3A2C026993E2}" name="ピボットテーブル2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:D55" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="17">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -15481,7 +15368,7 @@
     <dataField name="個数 / 氏名" fld="7" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="24">
+    <format dxfId="5">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -15498,28 +15385,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{91851D3E-C884-B942-89C0-036B6F98C29C}" name="テーブル1" displayName="テーブル1" ref="A1:Q131" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{91851D3E-C884-B942-89C0-036B6F98C29C}" name="テーブル1" displayName="テーブル1" ref="A1:Q131" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
   <autoFilter ref="A1:Q131" xr:uid="{91851D3E-C884-B942-89C0-036B6F98C29C}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{A4135B74-2360-6C40-849E-1051747D9700}" name="№" dataDxfId="103"/>
-    <tableColumn id="2" xr3:uid="{C38BBF69-1E4F-4E44-AFB0-3C60E73ADD22}" name="所属団体ID" dataDxfId="102"/>
-    <tableColumn id="3" xr3:uid="{1B388DD2-AC9E-384B-A1F9-26B48F570B24}" name="所属団体名" dataDxfId="101"/>
-    <tableColumn id="4" xr3:uid="{BF6E6292-631F-5348-A3B3-8D942C07C158}" name="男女別" dataDxfId="100"/>
-    <tableColumn id="5" xr3:uid="{BAF851F6-A5DC-1F48-90ED-72CC9947E205}" name="性別" dataDxfId="99">
+    <tableColumn id="1" xr3:uid="{A4135B74-2360-6C40-849E-1051747D9700}" name="№" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{C38BBF69-1E4F-4E44-AFB0-3C60E73ADD22}" name="所属団体ID" dataDxfId="86"/>
+    <tableColumn id="3" xr3:uid="{1B388DD2-AC9E-384B-A1F9-26B48F570B24}" name="所属団体名" dataDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{BF6E6292-631F-5348-A3B3-8D942C07C158}" name="男女別" dataDxfId="84"/>
+    <tableColumn id="5" xr3:uid="{BAF851F6-A5DC-1F48-90ED-72CC9947E205}" name="性別" dataDxfId="83">
       <calculatedColumnFormula>IF(テーブル1[[#This Row],[個人ID]]&gt;=900000000, "女子", "男子")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3BFF09ED-8F1C-DB49-A9AE-46B490A653F9}" name="チーム名" dataDxfId="98"/>
-    <tableColumn id="7" xr3:uid="{3FB2E0AA-A944-DD41-B1C8-BE863CD30B9C}" name="個人ID" dataDxfId="97"/>
-    <tableColumn id="8" xr3:uid="{B4CDA44E-3160-DE4E-A6D5-20EA3AB824FD}" name="氏名" dataDxfId="96"/>
-    <tableColumn id="9" xr3:uid="{CACD8B70-4F95-A247-9FC4-4E77FFF18B76}" name="氏名(カナ)" dataDxfId="95"/>
-    <tableColumn id="10" xr3:uid="{B6BA1E47-057E-DD46-A892-FAA96F124CFE}" name="所属区分" dataDxfId="94"/>
-    <tableColumn id="11" xr3:uid="{3869FDCB-18E3-AA4F-A3DC-609FCBF36B8D}" name="生年月日" dataDxfId="93"/>
-    <tableColumn id="12" xr3:uid="{420E35F5-3094-454A-8B1B-76DF8D086D47}" name="年齢" dataDxfId="92"/>
-    <tableColumn id="13" xr3:uid="{9FB3FE8D-DA0C-CF40-9198-CE0346131BE6}" name="所属完了日" dataDxfId="91"/>
-    <tableColumn id="14" xr3:uid="{37F8BF84-6F34-5743-B727-CE79A83BD05E}" name="ダブルネーム" dataDxfId="90"/>
-    <tableColumn id="15" xr3:uid="{0A6C2EDB-246C-F94F-B847-95702FF836B4}" name="団体メンバー (団体と入力。最低3名、最高4名。男女それぞれ1チーム)" dataDxfId="89"/>
-    <tableColumn id="16" xr3:uid="{E78455EA-C4B5-BD43-AE0E-FD7968D82080}" name="予選会通過順位" dataDxfId="88"/>
-    <tableColumn id="17" xr3:uid="{74F6C8ED-088F-7544-B833-32D304A20780}" name="pref." dataDxfId="25">
+    <tableColumn id="6" xr3:uid="{3BFF09ED-8F1C-DB49-A9AE-46B490A653F9}" name="チーム名" dataDxfId="82"/>
+    <tableColumn id="7" xr3:uid="{3FB2E0AA-A944-DD41-B1C8-BE863CD30B9C}" name="個人ID" dataDxfId="81"/>
+    <tableColumn id="8" xr3:uid="{B4CDA44E-3160-DE4E-A6D5-20EA3AB824FD}" name="氏名" dataDxfId="80"/>
+    <tableColumn id="9" xr3:uid="{CACD8B70-4F95-A247-9FC4-4E77FFF18B76}" name="氏名(カナ)" dataDxfId="79"/>
+    <tableColumn id="10" xr3:uid="{B6BA1E47-057E-DD46-A892-FAA96F124CFE}" name="所属区分" dataDxfId="78"/>
+    <tableColumn id="11" xr3:uid="{3869FDCB-18E3-AA4F-A3DC-609FCBF36B8D}" name="生年月日" dataDxfId="77"/>
+    <tableColumn id="12" xr3:uid="{420E35F5-3094-454A-8B1B-76DF8D086D47}" name="年齢" dataDxfId="76"/>
+    <tableColumn id="13" xr3:uid="{9FB3FE8D-DA0C-CF40-9198-CE0346131BE6}" name="所属完了日" dataDxfId="75"/>
+    <tableColumn id="14" xr3:uid="{37F8BF84-6F34-5743-B727-CE79A83BD05E}" name="ダブルネーム" dataDxfId="74"/>
+    <tableColumn id="15" xr3:uid="{0A6C2EDB-246C-F94F-B847-95702FF836B4}" name="団体メンバー (団体と入力。最低3名、最高4名。男女それぞれ1チーム)" dataDxfId="73"/>
+    <tableColumn id="16" xr3:uid="{E78455EA-C4B5-BD43-AE0E-FD7968D82080}" name="予選会通過順位" dataDxfId="72"/>
+    <tableColumn id="17" xr3:uid="{74F6C8ED-088F-7544-B833-32D304A20780}" name="pref." dataDxfId="71">
       <calculatedColumnFormula>_xlfn.XLOOKUP(テーブル1[[#This Row],[所属団体名]],所属団体情報一覧!$C:$C,所属団体情報一覧!$U:$U)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15528,32 +15415,32 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9F658839-BEF2-3043-AF6D-8BC619E50EEE}" name="テーブル2" displayName="テーブル2" ref="A1:U51" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9F658839-BEF2-3043-AF6D-8BC619E50EEE}" name="テーブル2" displayName="テーブル2" ref="A1:U51" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
   <autoFilter ref="A1:U51" xr:uid="{9F658839-BEF2-3043-AF6D-8BC619E50EEE}"/>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{7A45B75D-6DA9-5341-BD88-42E04B644E2A}" name="№" dataDxfId="85"/>
-    <tableColumn id="2" xr3:uid="{3FE3DD98-6AA4-0341-8BCA-BCE2CF7CBB1B}" name="所属団体ID" dataDxfId="84"/>
-    <tableColumn id="3" xr3:uid="{AD1A50C7-642D-134A-B547-66279C13FE07}" name="所属団体名" dataDxfId="83"/>
-    <tableColumn id="4" xr3:uid="{D2F9B754-855B-0247-91F8-54E767C2C8CB}" name="所属団体名(カナ)" dataDxfId="82"/>
-    <tableColumn id="5" xr3:uid="{18BDF13B-3368-4B48-A770-0590FC99F0BE}" name="男女別" dataDxfId="81"/>
-    <tableColumn id="6" xr3:uid="{E0B291C2-9AD9-6F4F-AD52-2B4861BF6331}" name="競技種別" dataDxfId="80"/>
-    <tableColumn id="7" xr3:uid="{7FA11D06-424D-504E-8EE0-56999595FF37}" name="連絡登録担当者名" dataDxfId="79"/>
-    <tableColumn id="8" xr3:uid="{83A9986A-0A40-E442-BAB1-46C2DBFD7A5C}" name="連絡登録担当者名(カナ)" dataDxfId="78"/>
-    <tableColumn id="9" xr3:uid="{5112F512-D126-9244-AEB2-5BDFC888C0D9}" name="連絡登録担当者メールアドレス" dataDxfId="77"/>
-    <tableColumn id="10" xr3:uid="{A4B1086D-7FC0-AC45-9269-8B514017C5E4}" name="連絡登録担当者郵便番号" dataDxfId="76"/>
-    <tableColumn id="11" xr3:uid="{FD2E8ACB-3B1D-7940-920E-A9BE51C204E7}" name="連絡登録担当者住所" dataDxfId="75"/>
-    <tableColumn id="12" xr3:uid="{AAD8E46F-50F1-8D4E-9C98-266F7CCCF7C9}" name="連絡登録担当者電話番号" dataDxfId="74"/>
-    <tableColumn id="13" xr3:uid="{AE7F5900-098D-9A4A-B659-E9916AE198B2}" name="コーチ" dataDxfId="73"/>
-    <tableColumn id="14" xr3:uid="{A43D78CA-B3A7-C44E-A5A2-8E539CF0BA4F}" name="コーチ2" dataDxfId="72"/>
-    <tableColumn id="15" xr3:uid="{C9A9D2DA-3275-F340-AD5A-1265E619A319}" name="申込チーム数" dataDxfId="71"/>
-    <tableColumn id="16" xr3:uid="{DC170F42-A715-544A-BD7E-09D6E1DD5DCD}" name="申込人数" dataDxfId="70"/>
-    <tableColumn id="17" xr3:uid="{6778CBBF-51BC-0944-BAC1-9146593CEC54}" name="申込延べ人数" dataDxfId="69"/>
-    <tableColumn id="18" xr3:uid="{EB84052B-11B4-2540-9ED2-B18EA687FD18}" name="申込日" dataDxfId="68"/>
-    <tableColumn id="19" xr3:uid="{0744FAD4-8394-544D-AEC1-2F2F21F86F8F}" name="pre." dataDxfId="23">
+    <tableColumn id="1" xr3:uid="{7A45B75D-6DA9-5341-BD88-42E04B644E2A}" name="№" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{3FE3DD98-6AA4-0341-8BCA-BCE2CF7CBB1B}" name="所属団体ID" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{AD1A50C7-642D-134A-B547-66279C13FE07}" name="所属団体名" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{D2F9B754-855B-0247-91F8-54E767C2C8CB}" name="所属団体名(カナ)" dataDxfId="65"/>
+    <tableColumn id="5" xr3:uid="{18BDF13B-3368-4B48-A770-0590FC99F0BE}" name="男女別" dataDxfId="64"/>
+    <tableColumn id="6" xr3:uid="{E0B291C2-9AD9-6F4F-AD52-2B4861BF6331}" name="競技種別" dataDxfId="63"/>
+    <tableColumn id="7" xr3:uid="{7FA11D06-424D-504E-8EE0-56999595FF37}" name="連絡登録担当者名" dataDxfId="62"/>
+    <tableColumn id="8" xr3:uid="{83A9986A-0A40-E442-BAB1-46C2DBFD7A5C}" name="連絡登録担当者名(カナ)" dataDxfId="61"/>
+    <tableColumn id="9" xr3:uid="{5112F512-D126-9244-AEB2-5BDFC888C0D9}" name="連絡登録担当者メールアドレス" dataDxfId="60"/>
+    <tableColumn id="10" xr3:uid="{A4B1086D-7FC0-AC45-9269-8B514017C5E4}" name="連絡登録担当者郵便番号" dataDxfId="59"/>
+    <tableColumn id="11" xr3:uid="{FD2E8ACB-3B1D-7940-920E-A9BE51C204E7}" name="連絡登録担当者住所" dataDxfId="58"/>
+    <tableColumn id="12" xr3:uid="{AAD8E46F-50F1-8D4E-9C98-266F7CCCF7C9}" name="連絡登録担当者電話番号" dataDxfId="57"/>
+    <tableColumn id="13" xr3:uid="{AE7F5900-098D-9A4A-B659-E9916AE198B2}" name="コーチ" dataDxfId="56"/>
+    <tableColumn id="14" xr3:uid="{A43D78CA-B3A7-C44E-A5A2-8E539CF0BA4F}" name="コーチ2" dataDxfId="55"/>
+    <tableColumn id="15" xr3:uid="{C9A9D2DA-3275-F340-AD5A-1265E619A319}" name="申込チーム数" dataDxfId="54"/>
+    <tableColumn id="16" xr3:uid="{DC170F42-A715-544A-BD7E-09D6E1DD5DCD}" name="申込人数" dataDxfId="53"/>
+    <tableColumn id="17" xr3:uid="{6778CBBF-51BC-0944-BAC1-9146593CEC54}" name="申込延べ人数" dataDxfId="52"/>
+    <tableColumn id="18" xr3:uid="{EB84052B-11B4-2540-9ED2-B18EA687FD18}" name="申込日" dataDxfId="51"/>
+    <tableColumn id="19" xr3:uid="{0744FAD4-8394-544D-AEC1-2F2F21F86F8F}" name="pre." dataDxfId="50">
       <calculatedColumnFormula>LEFT(テーブル2[[#This Row],[連絡登録担当者住所]],3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{A22B9156-BACC-7241-A15E-372C0DABF03D}" name="dis" dataDxfId="21"/>
-    <tableColumn id="21" xr3:uid="{2EBAE5FC-AA54-0C4D-A125-A42F286043F9}" name="concat" dataDxfId="22">
+    <tableColumn id="20" xr3:uid="{A22B9156-BACC-7241-A15E-372C0DABF03D}" name="dis" dataDxfId="49"/>
+    <tableColumn id="21" xr3:uid="{2EBAE5FC-AA54-0C4D-A125-A42F286043F9}" name="concat" dataDxfId="48">
       <calculatedColumnFormula>_xlfn.CONCAT(テーブル2[[#This Row],[dis]],"_",テーブル2[[#This Row],[pre.]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15562,49 +15449,49 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A53171BB-7668-8D49-9482-EA0D29705763}" name="テーブル4" displayName="テーブル4" ref="A1:AN51" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A53171BB-7668-8D49-9482-EA0D29705763}" name="テーブル4" displayName="テーブル4" ref="A1:AN51" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A1:AN51" xr:uid="{A53171BB-7668-8D49-9482-EA0D29705763}"/>
   <tableColumns count="40">
-    <tableColumn id="1" xr3:uid="{5CCE4D29-038D-364D-85CF-534E648CB658}" name="№" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{BDF5C050-AB5A-7547-AB57-CCA998A872E5}" name="所属団体ID" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{D87C1223-3971-DB4E-BCCD-721DA3B64931}" name="所属団体名" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{96D50D22-B0E2-1346-92EA-634DEF24FDB4}" name="男女別" dataDxfId="62"/>
-    <tableColumn id="5" xr3:uid="{D4C27BC4-2FB4-7E47-8090-B9FD0941FB3D}" name="競技種別" dataDxfId="61"/>
-    <tableColumn id="6" xr3:uid="{E0A6131A-22DB-B644-A426-896B36829300}" name="チーム名" dataDxfId="60"/>
-    <tableColumn id="7" xr3:uid="{D7D3CD6C-18DE-354F-AB72-CF9479B8185B}" name="チーム名(カナ)" dataDxfId="59"/>
-    <tableColumn id="8" xr3:uid="{17816308-0D00-6F46-8E0C-F4235CB33E0A}" name="申込人数" dataDxfId="58"/>
-    <tableColumn id="39" xr3:uid="{A436D8A3-1514-3D4D-B830-2115FEBB96B5}" name="コーチ1" dataDxfId="57"/>
-    <tableColumn id="40" xr3:uid="{B8B2565E-2517-AA4B-9840-31EF10AC5060}" name="コーチ2" dataDxfId="56"/>
-    <tableColumn id="9" xr3:uid="{78A4ECF9-AB2D-4642-B590-C99956F7709C}" name="トレーナー名 1" dataDxfId="55"/>
-    <tableColumn id="10" xr3:uid="{14AB8DF9-CD82-E647-A6AB-83CD7D0D15FF}" name="スポッター名 1" dataDxfId="54"/>
-    <tableColumn id="11" xr3:uid="{5E648778-7EF9-7F47-9D2A-284F4C703EE5}" name="スポッター名 2" dataDxfId="53"/>
-    <tableColumn id="12" xr3:uid="{A44B5862-3984-6D44-BEC7-B291D6636EAC}" name="シンクロ01 (性別 選手1/選手2　クラブ名 (他クラブの場合))" dataDxfId="52"/>
-    <tableColumn id="13" xr3:uid="{F3E8ACA6-A572-E24C-8541-D01C7090656B}" name="シンクロ02" dataDxfId="51"/>
-    <tableColumn id="14" xr3:uid="{A89280C6-363E-C340-A5C4-9785352984CF}" name="シンクロ03" dataDxfId="50"/>
-    <tableColumn id="15" xr3:uid="{005EB838-B5EF-EC41-8640-CBC4BF1A5667}" name="シンクロ04" dataDxfId="49"/>
-    <tableColumn id="16" xr3:uid="{9E6D45A5-9FD0-2343-82AA-2EA6F4E8757A}" name="シンクロ05" dataDxfId="48"/>
-    <tableColumn id="17" xr3:uid="{E77496B9-8671-EC43-94C7-E36B54D28478}" name="シンクロ06" dataDxfId="47"/>
-    <tableColumn id="18" xr3:uid="{08C41D5A-DC5C-4A43-843C-77BA43DB94BC}" name="シンクロ07" dataDxfId="46"/>
-    <tableColumn id="19" xr3:uid="{E1815F7C-CE6F-824D-B87A-7CBC5BF20F78}" name="シンクロ08" dataDxfId="45"/>
-    <tableColumn id="20" xr3:uid="{90F89167-A63C-5043-BBAB-A9657FB78D81}" name="シンクロ09" dataDxfId="44"/>
-    <tableColumn id="21" xr3:uid="{7B0A321D-188E-4148-9319-600082F64D61}" name="シンクロ10" dataDxfId="43"/>
-    <tableColumn id="22" xr3:uid="{2976BFE9-A0B8-3741-8796-67B25EEE01F3}" name="シンクロ11" dataDxfId="42"/>
-    <tableColumn id="23" xr3:uid="{F208173B-258B-7446-97E9-A608C68841A4}" name="シンクロ12" dataDxfId="41"/>
-    <tableColumn id="24" xr3:uid="{C96AC227-5387-534D-99CC-D52D3BBDB91C}" name="シンクロ13" dataDxfId="40"/>
-    <tableColumn id="25" xr3:uid="{8FA6C8CE-452D-2546-B5B2-19FE45999618}" name="シンクロ14" dataDxfId="39"/>
-    <tableColumn id="26" xr3:uid="{16300935-B67D-F340-9670-16C33C4095A3}" name="シンクロ15" dataDxfId="38"/>
-    <tableColumn id="27" xr3:uid="{7586CFA8-59E5-C94E-B655-450CA5928523}" name="シンクロ16" dataDxfId="37"/>
-    <tableColumn id="28" xr3:uid="{D930A469-CF82-CE42-8426-472529BECAD8}" name="シンクロ17" dataDxfId="36"/>
-    <tableColumn id="29" xr3:uid="{AF3574DE-6EA4-DA42-BCF2-A2A6B93DAED5}" name="シンクロ18" dataDxfId="35"/>
-    <tableColumn id="30" xr3:uid="{EE93B9D1-99AD-C24D-9B13-EFE4E3E64399}" name="帯同審判01 (1種 協会太郎)" dataDxfId="34"/>
-    <tableColumn id="31" xr3:uid="{4EAD008C-26FD-8443-931D-59F36C3609B0}" name="帯同審判02 (1種 協会太郎)" dataDxfId="33"/>
-    <tableColumn id="32" xr3:uid="{EFF29E0D-EA71-854D-BCE8-EAB0D1E0A5A7}" name="撮影許可証(最高2枚)" dataDxfId="32"/>
-    <tableColumn id="33" xr3:uid="{1118C9DE-3447-7948-A68D-28792882CF32}" name="個人参加費合計 (半角数字) " dataDxfId="31"/>
-    <tableColumn id="34" xr3:uid="{B6CD1E6F-4504-DE4C-8BCB-3066D8925047}" name="シンクロ参加費合計 (半角数字)" dataDxfId="30"/>
-    <tableColumn id="35" xr3:uid="{0106882A-E33F-2D4C-95E2-917709E90776}" name="帯同審判料 (半角数字)" dataDxfId="29"/>
-    <tableColumn id="36" xr3:uid="{0E20328A-C996-F041-8C2F-0D4C2EB075C4}" name="協賛金 (半角数字)" dataDxfId="28"/>
-    <tableColumn id="37" xr3:uid="{B60ECF3E-7229-7341-BAFF-F4BC035AE2E8}" name="広告料 (半角数字)" dataDxfId="27"/>
-    <tableColumn id="38" xr3:uid="{33BA2B54-C652-164C-85BB-BD67586CCE2F}" name="振込金合計 (半角数字)" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{5CCE4D29-038D-364D-85CF-534E648CB658}" name="№" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{BDF5C050-AB5A-7547-AB57-CCA998A872E5}" name="所属団体ID" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{D87C1223-3971-DB4E-BCCD-721DA3B64931}" name="所属団体名" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{96D50D22-B0E2-1346-92EA-634DEF24FDB4}" name="男女別" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{D4C27BC4-2FB4-7E47-8090-B9FD0941FB3D}" name="競技種別" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{E0A6131A-22DB-B644-A426-896B36829300}" name="チーム名" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{D7D3CD6C-18DE-354F-AB72-CF9479B8185B}" name="チーム名(カナ)" dataDxfId="39"/>
+    <tableColumn id="8" xr3:uid="{17816308-0D00-6F46-8E0C-F4235CB33E0A}" name="申込人数" dataDxfId="38"/>
+    <tableColumn id="39" xr3:uid="{A436D8A3-1514-3D4D-B830-2115FEBB96B5}" name="コーチ1" dataDxfId="37"/>
+    <tableColumn id="40" xr3:uid="{B8B2565E-2517-AA4B-9840-31EF10AC5060}" name="コーチ2" dataDxfId="36"/>
+    <tableColumn id="9" xr3:uid="{78A4ECF9-AB2D-4642-B590-C99956F7709C}" name="トレーナー名 1" dataDxfId="35"/>
+    <tableColumn id="10" xr3:uid="{14AB8DF9-CD82-E647-A6AB-83CD7D0D15FF}" name="スポッター名 1" dataDxfId="34"/>
+    <tableColumn id="11" xr3:uid="{5E648778-7EF9-7F47-9D2A-284F4C703EE5}" name="スポッター名 2" dataDxfId="33"/>
+    <tableColumn id="12" xr3:uid="{A44B5862-3984-6D44-BEC7-B291D6636EAC}" name="シンクロ01 (性別 選手1/選手2　クラブ名 (他クラブの場合))" dataDxfId="32"/>
+    <tableColumn id="13" xr3:uid="{F3E8ACA6-A572-E24C-8541-D01C7090656B}" name="シンクロ02" dataDxfId="31"/>
+    <tableColumn id="14" xr3:uid="{A89280C6-363E-C340-A5C4-9785352984CF}" name="シンクロ03" dataDxfId="30"/>
+    <tableColumn id="15" xr3:uid="{005EB838-B5EF-EC41-8640-CBC4BF1A5667}" name="シンクロ04" dataDxfId="29"/>
+    <tableColumn id="16" xr3:uid="{9E6D45A5-9FD0-2343-82AA-2EA6F4E8757A}" name="シンクロ05" dataDxfId="28"/>
+    <tableColumn id="17" xr3:uid="{E77496B9-8671-EC43-94C7-E36B54D28478}" name="シンクロ06" dataDxfId="27"/>
+    <tableColumn id="18" xr3:uid="{08C41D5A-DC5C-4A43-843C-77BA43DB94BC}" name="シンクロ07" dataDxfId="26"/>
+    <tableColumn id="19" xr3:uid="{E1815F7C-CE6F-824D-B87A-7CBC5BF20F78}" name="シンクロ08" dataDxfId="25"/>
+    <tableColumn id="20" xr3:uid="{90F89167-A63C-5043-BBAB-A9657FB78D81}" name="シンクロ09" dataDxfId="24"/>
+    <tableColumn id="21" xr3:uid="{7B0A321D-188E-4148-9319-600082F64D61}" name="シンクロ10" dataDxfId="23"/>
+    <tableColumn id="22" xr3:uid="{2976BFE9-A0B8-3741-8796-67B25EEE01F3}" name="シンクロ11" dataDxfId="22"/>
+    <tableColumn id="23" xr3:uid="{F208173B-258B-7446-97E9-A608C68841A4}" name="シンクロ12" dataDxfId="21"/>
+    <tableColumn id="24" xr3:uid="{C96AC227-5387-534D-99CC-D52D3BBDB91C}" name="シンクロ13" dataDxfId="20"/>
+    <tableColumn id="25" xr3:uid="{8FA6C8CE-452D-2546-B5B2-19FE45999618}" name="シンクロ14" dataDxfId="19"/>
+    <tableColumn id="26" xr3:uid="{16300935-B67D-F340-9670-16C33C4095A3}" name="シンクロ15" dataDxfId="18"/>
+    <tableColumn id="27" xr3:uid="{7586CFA8-59E5-C94E-B655-450CA5928523}" name="シンクロ16" dataDxfId="17"/>
+    <tableColumn id="28" xr3:uid="{D930A469-CF82-CE42-8426-472529BECAD8}" name="シンクロ17" dataDxfId="16"/>
+    <tableColumn id="29" xr3:uid="{AF3574DE-6EA4-DA42-BCF2-A2A6B93DAED5}" name="シンクロ18" dataDxfId="15"/>
+    <tableColumn id="30" xr3:uid="{EE93B9D1-99AD-C24D-9B13-EFE4E3E64399}" name="帯同審判01 (1種 協会太郎)" dataDxfId="14"/>
+    <tableColumn id="31" xr3:uid="{4EAD008C-26FD-8443-931D-59F36C3609B0}" name="帯同審判02 (1種 協会太郎)" dataDxfId="13"/>
+    <tableColumn id="32" xr3:uid="{EFF29E0D-EA71-854D-BCE8-EAB0D1E0A5A7}" name="撮影許可証(最高2枚)" dataDxfId="12"/>
+    <tableColumn id="33" xr3:uid="{1118C9DE-3447-7948-A68D-28792882CF32}" name="個人参加費合計 (半角数字) " dataDxfId="11"/>
+    <tableColumn id="34" xr3:uid="{B6CD1E6F-4504-DE4C-8BCB-3066D8925047}" name="シンクロ参加費合計 (半角数字)" dataDxfId="10"/>
+    <tableColumn id="35" xr3:uid="{0106882A-E33F-2D4C-95E2-917709E90776}" name="帯同審判料 (半角数字)" dataDxfId="9"/>
+    <tableColumn id="36" xr3:uid="{0E20328A-C996-F041-8C2F-0D4C2EB075C4}" name="協賛金 (半角数字)" dataDxfId="8"/>
+    <tableColumn id="37" xr3:uid="{B60ECF3E-7229-7341-BAFF-F4BC035AE2E8}" name="広告料 (半角数字)" dataDxfId="7"/>
+    <tableColumn id="38" xr3:uid="{33BA2B54-C652-164C-85BB-BD67586CCE2F}" name="振込金合計 (半角数字)" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15897,8 +15784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE364AC1-21D3-B942-97C7-670DAFA650F2}">
   <dimension ref="A1:L392"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19"/>
@@ -21243,8 +21130,8 @@
       <c r="I392"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M5:Q68">
-    <sortCondition ref="Q5:Q68"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:C59">
+    <sortCondition ref="C34:C59"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="M5:N69">
@@ -21259,7 +21146,7 @@
   <dimension ref="A1:L392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F69"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19"/>
@@ -26600,6 +26487,9 @@
       <c r="I392"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A33:C57">
+    <sortCondition ref="C33:C57"/>
+  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -53236,7 +53126,7 @@
   </sortState>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E1:E56">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -53247,7 +53137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BDF7E6-52DB-8A42-A3C7-94D570904D3C}">
   <dimension ref="A1:Q265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="187" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="187" workbookViewId="0">
       <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
@@ -53317,8 +53207,7 @@
       <c r="B5" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6">
+      <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5"/>
@@ -53326,20 +53215,19 @@
       <c r="G5" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="1">
         <v>1</v>
       </c>
       <c r="I5"/>
       <c r="J5" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="1">
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
@@ -53348,33 +53236,31 @@
       <c r="B6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="6"/>
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H6" s="6"/>
       <c r="I6"/>
       <c r="J6" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="1">
         <v>1</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="1">
         <v>1</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="1">
         <v>1</v>
       </c>
     </row>
@@ -53382,10 +53268,10 @@
       <c r="B7" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7"/>
@@ -53393,26 +53279,26 @@
       <c r="G7" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="1">
         <v>1</v>
       </c>
       <c r="I7"/>
       <c r="J7" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="1">
         <v>1</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="1">
         <v>2</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="1">
         <v>2</v>
       </c>
     </row>
@@ -53420,8 +53306,7 @@
       <c r="B8" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6">
+      <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8"/>
@@ -53429,24 +53314,23 @@
       <c r="G8" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="1">
         <v>1</v>
       </c>
       <c r="I8"/>
       <c r="J8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="1">
         <v>6</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="N8" s="6"/>
       <c r="P8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="1">
         <v>4</v>
       </c>
     </row>
@@ -53454,10 +53338,10 @@
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="1">
         <v>6</v>
       </c>
       <c r="E9"/>
@@ -53465,26 +53349,26 @@
       <c r="G9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="1">
         <v>6</v>
       </c>
       <c r="I9"/>
       <c r="J9" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="1">
         <v>1</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="1">
         <v>4</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="1">
         <v>1</v>
       </c>
     </row>
@@ -53492,8 +53376,7 @@
       <c r="B10" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6">
+      <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10"/>
@@ -53501,19 +53384,18 @@
       <c r="G10" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="1">
         <v>1</v>
       </c>
       <c r="I10"/>
-      <c r="K10" s="7"/>
+      <c r="K10" s="6"/>
       <c r="M10" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="N10" s="6"/>
       <c r="P10" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="1">
         <v>1</v>
       </c>
     </row>
@@ -53521,8 +53403,7 @@
       <c r="B11" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6">
+      <c r="D11" s="1">
         <v>3</v>
       </c>
       <c r="E11"/>
@@ -53530,24 +53411,23 @@
       <c r="G11" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="1">
         <v>3</v>
       </c>
       <c r="I11"/>
       <c r="J11" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="1">
         <v>3</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="N11" s="6"/>
       <c r="P11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11" s="1">
         <v>1</v>
       </c>
     </row>
@@ -53555,27 +53435,25 @@
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="6"/>
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="6"/>
       <c r="I12"/>
       <c r="J12" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="1">
         <v>2</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="1">
         <v>1</v>
       </c>
     </row>
@@ -53583,10 +53461,10 @@
       <c r="B13" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="1">
         <v>2</v>
       </c>
       <c r="E13"/>
@@ -53594,26 +53472,26 @@
       <c r="G13" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="1">
         <v>2</v>
       </c>
       <c r="I13"/>
       <c r="J13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="1">
         <v>2</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="1">
         <v>1</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="Q13" s="1">
         <v>1</v>
       </c>
     </row>
@@ -53624,10 +53502,10 @@
       <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="1">
         <v>2</v>
       </c>
       <c r="E14"/>
@@ -53635,26 +53513,26 @@
       <c r="G14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="1">
         <v>2</v>
       </c>
       <c r="I14"/>
       <c r="J14" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="1">
         <v>1</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="1">
         <v>1</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="Q14" s="1">
         <v>3</v>
       </c>
     </row>
@@ -53665,8 +53543,7 @@
       <c r="B15" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6">
+      <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15"/>
@@ -53674,24 +53551,23 @@
       <c r="G15" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="1">
         <v>1</v>
       </c>
       <c r="I15"/>
       <c r="J15" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="1">
         <v>1</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="N15" s="6"/>
       <c r="P15" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Q15" s="1">
         <v>1</v>
       </c>
     </row>
@@ -53702,8 +53578,7 @@
       <c r="B16" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6">
+      <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16"/>
@@ -53711,24 +53586,23 @@
       <c r="G16" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="1">
         <v>1</v>
       </c>
       <c r="I16"/>
       <c r="J16" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="1">
         <v>1</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="N16" s="6"/>
       <c r="P16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="Q16" s="1">
         <v>1</v>
       </c>
     </row>
@@ -53739,33 +53613,31 @@
       <c r="B17" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="6"/>
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H17" s="6"/>
       <c r="I17"/>
       <c r="J17" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="1">
         <v>1</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="1">
         <v>1</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="Q17" s="1">
         <v>1</v>
       </c>
     </row>
@@ -53773,8 +53645,7 @@
       <c r="B18" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6">
+      <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18"/>
@@ -53782,19 +53653,18 @@
       <c r="G18" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="1">
         <v>1</v>
       </c>
       <c r="I18"/>
-      <c r="K18" s="7"/>
+      <c r="K18" s="6"/>
       <c r="M18" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="N18" s="6"/>
       <c r="P18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="Q18" s="1">
         <v>1</v>
       </c>
     </row>
@@ -53802,8 +53672,7 @@
       <c r="B19" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6">
+      <c r="D19" s="1">
         <v>1</v>
       </c>
       <c r="E19"/>
@@ -53811,24 +53680,23 @@
       <c r="G19" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="1">
         <v>1</v>
       </c>
       <c r="I19"/>
       <c r="J19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="1">
         <v>2</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="N19" s="6"/>
       <c r="P19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="Q19" s="1">
         <v>1</v>
       </c>
     </row>
@@ -53836,10 +53704,10 @@
       <c r="B20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="1">
         <v>3</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="1">
         <v>2</v>
       </c>
       <c r="E20"/>
@@ -53847,26 +53715,26 @@
       <c r="G20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="1">
         <v>2</v>
       </c>
       <c r="I20"/>
       <c r="J20" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="1">
         <v>1</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="1">
         <v>3</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="Q20" s="1">
         <v>1</v>
       </c>
     </row>
@@ -53877,33 +53745,31 @@
       <c r="B21" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="6"/>
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H21" s="6"/>
       <c r="I21"/>
       <c r="J21" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="1">
         <v>1</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="1">
         <v>1</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="Q21" s="1">
         <v>1</v>
       </c>
     </row>
@@ -53914,8 +53780,7 @@
       <c r="B22" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6">
+      <c r="D22" s="1">
         <v>1</v>
       </c>
       <c r="E22"/>
@@ -53923,27 +53788,25 @@
       <c r="G22" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="1">
         <v>1</v>
       </c>
       <c r="I22"/>
       <c r="J22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="1">
         <v>6</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="N22" s="6"/>
     </row>
     <row r="23" spans="1:17">
       <c r="B23" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6">
+      <c r="D23" s="1">
         <v>1</v>
       </c>
       <c r="E23"/>
@@ -53951,24 +53814,23 @@
       <c r="G23" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="1">
         <v>1</v>
       </c>
       <c r="I23"/>
       <c r="J23" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="1">
         <v>1</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="N23" s="6"/>
       <c r="P23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q23" s="6">
+      <c r="Q23" s="1">
         <v>13</v>
       </c>
     </row>
@@ -53976,10 +53838,10 @@
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="1">
         <v>11</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="1">
         <v>11</v>
       </c>
       <c r="E24"/>
@@ -53987,14 +53849,14 @@
       <c r="G24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="1">
         <v>11</v>
       </c>
       <c r="I24"/>
       <c r="M24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N24" s="6">
+      <c r="N24" s="1">
         <v>11</v>
       </c>
     </row>
@@ -54002,10 +53864,10 @@
       <c r="B25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="1">
         <v>13</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="1">
         <v>6</v>
       </c>
       <c r="E25"/>
@@ -54013,26 +53875,26 @@
       <c r="G25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="1">
         <v>6</v>
       </c>
       <c r="I25"/>
       <c r="J25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="1">
         <v>11</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N25" s="1">
         <v>13</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="Q25" s="1">
         <v>11</v>
       </c>
     </row>
@@ -54043,21 +53905,19 @@
       <c r="B26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="1">
         <v>1</v>
       </c>
-      <c r="D26" s="6"/>
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="6"/>
       <c r="I26"/>
       <c r="M26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N26" s="6">
+      <c r="N26" s="1">
         <v>1</v>
       </c>
     </row>
@@ -54068,10 +53928,10 @@
       <c r="B27" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="1">
         <v>1</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="1">
         <v>1</v>
       </c>
       <c r="E27"/>
@@ -54079,26 +53939,26 @@
       <c r="G27" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="1">
         <v>1</v>
       </c>
       <c r="I27"/>
       <c r="J27" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="1">
         <v>3</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="N27" s="6">
+      <c r="N27" s="1">
         <v>1</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Q27" s="6">
+      <c r="Q27" s="1">
         <v>1</v>
       </c>
     </row>
@@ -54109,10 +53969,10 @@
       <c r="B28" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="1">
         <v>1</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="1">
         <v>3</v>
       </c>
       <c r="E28"/>
@@ -54120,26 +53980,26 @@
       <c r="G28" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="1">
         <v>3</v>
       </c>
       <c r="I28"/>
       <c r="J28" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="1">
         <v>1</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="N28" s="6">
+      <c r="N28" s="1">
         <v>1</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="Q28" s="6">
+      <c r="Q28" s="1">
         <v>1</v>
       </c>
     </row>
@@ -54147,33 +54007,31 @@
       <c r="B29" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="1">
         <v>1</v>
       </c>
-      <c r="D29" s="6"/>
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H29" s="6"/>
       <c r="I29"/>
       <c r="J29" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="1">
         <v>1</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N29" s="6">
+      <c r="N29" s="1">
         <v>1</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Q29" s="6">
+      <c r="Q29" s="1">
         <v>1</v>
       </c>
     </row>
@@ -54181,8 +54039,7 @@
       <c r="B30" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6">
+      <c r="D30" s="1">
         <v>1</v>
       </c>
       <c r="E30"/>
@@ -54190,24 +54047,23 @@
       <c r="G30" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="1">
         <v>1</v>
       </c>
       <c r="I30"/>
       <c r="J30" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="1">
         <v>1</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="N30" s="6"/>
       <c r="P30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q30" s="6">
+      <c r="Q30" s="1">
         <v>2</v>
       </c>
     </row>
@@ -54218,33 +54074,31 @@
       <c r="B31" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="1">
         <v>1</v>
       </c>
-      <c r="D31" s="6"/>
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H31" s="6"/>
       <c r="I31"/>
       <c r="J31" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="1">
         <v>1</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N31" s="6">
+      <c r="N31" s="1">
         <v>1</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="Q31" s="6">
+      <c r="Q31" s="1">
         <v>1</v>
       </c>
     </row>
@@ -54252,8 +54106,7 @@
       <c r="B32" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6">
+      <c r="D32" s="1">
         <v>1</v>
       </c>
       <c r="E32"/>
@@ -54261,24 +54114,23 @@
       <c r="G32" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="1">
         <v>1</v>
       </c>
       <c r="I32"/>
       <c r="J32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="1">
         <v>3</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N32" s="6"/>
       <c r="P32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q32" s="6">
+      <c r="Q32" s="1">
         <v>1</v>
       </c>
     </row>
@@ -54286,33 +54138,31 @@
       <c r="B33" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="1">
         <v>1</v>
       </c>
-      <c r="D33" s="6"/>
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H33" s="6"/>
       <c r="I33"/>
       <c r="J33" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="1">
         <v>1</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="N33" s="6">
+      <c r="N33" s="1">
         <v>1</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Q33" s="6">
+      <c r="Q33" s="1">
         <v>1</v>
       </c>
     </row>
@@ -54320,8 +54170,7 @@
       <c r="B34" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6">
+      <c r="D34" s="1">
         <v>1</v>
       </c>
       <c r="E34"/>
@@ -54329,18 +54178,17 @@
       <c r="G34" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="1">
         <v>1</v>
       </c>
       <c r="I34"/>
       <c r="M34" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="N34" s="6"/>
       <c r="P34" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="Q34" s="6">
+      <c r="Q34" s="1">
         <v>1</v>
       </c>
     </row>
@@ -54348,27 +54196,25 @@
       <c r="B35" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="1">
         <v>1</v>
       </c>
-      <c r="D35" s="6"/>
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H35" s="6"/>
       <c r="I35"/>
       <c r="J35" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K35" s="1">
         <v>1</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="N35" s="6">
+      <c r="N35" s="1">
         <v>1</v>
       </c>
     </row>
@@ -54376,33 +54222,31 @@
       <c r="B36" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="1">
         <v>1</v>
       </c>
-      <c r="D36" s="6"/>
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H36" s="6"/>
       <c r="I36"/>
       <c r="J36" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36" s="1">
         <v>1</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="N36" s="6">
+      <c r="N36" s="1">
         <v>1</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q36" s="6">
+      <c r="Q36" s="1">
         <v>4</v>
       </c>
     </row>
@@ -54410,8 +54254,7 @@
       <c r="B37" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6">
+      <c r="D37" s="1">
         <v>1</v>
       </c>
       <c r="E37"/>
@@ -54419,24 +54262,23 @@
       <c r="G37" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="1">
         <v>1</v>
       </c>
       <c r="I37"/>
       <c r="J37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="1">
         <v>2</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="N37" s="6"/>
       <c r="P37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q37" s="6">
+      <c r="Q37" s="1">
         <v>5</v>
       </c>
     </row>
@@ -54444,33 +54286,31 @@
       <c r="B38" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="1">
         <v>1</v>
       </c>
-      <c r="D38" s="6"/>
       <c r="E38"/>
       <c r="F38"/>
       <c r="G38" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H38" s="6"/>
       <c r="I38"/>
       <c r="J38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K38" s="1">
         <v>1</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="N38" s="6">
+      <c r="N38" s="1">
         <v>1</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Q38" s="6">
+      <c r="Q38" s="1">
         <v>1</v>
       </c>
     </row>
@@ -54478,10 +54318,10 @@
       <c r="B39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="1">
         <v>2</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="1">
         <v>3</v>
       </c>
       <c r="E39"/>
@@ -54489,26 +54329,26 @@
       <c r="G39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39" s="1">
         <v>3</v>
       </c>
       <c r="I39"/>
       <c r="J39" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K39" s="1">
         <v>1</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N39" s="6">
+      <c r="N39" s="1">
         <v>2</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Q39" s="6">
+      <c r="Q39" s="1">
         <v>1</v>
       </c>
     </row>
@@ -54516,27 +54356,25 @@
       <c r="B40" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="1">
         <v>1</v>
       </c>
-      <c r="D40" s="6"/>
       <c r="E40"/>
       <c r="F40"/>
       <c r="G40" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H40" s="6"/>
       <c r="I40"/>
       <c r="J40" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K40" s="6">
+      <c r="K40" s="1">
         <v>1</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="N40" s="6">
+      <c r="N40" s="1">
         <v>1</v>
       </c>
     </row>
@@ -54544,8 +54382,7 @@
       <c r="B41" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6">
+      <c r="D41" s="1">
         <v>1</v>
       </c>
       <c r="E41"/>
@@ -54553,27 +54390,25 @@
       <c r="G41" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="1">
         <v>1</v>
       </c>
       <c r="I41"/>
       <c r="J41" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K41" s="1">
         <v>2</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="N41" s="6"/>
     </row>
     <row r="42" spans="2:17">
       <c r="B42" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6">
+      <c r="D42" s="1">
         <v>1</v>
       </c>
       <c r="E42"/>
@@ -54581,40 +54416,37 @@
       <c r="G42" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="1">
         <v>1</v>
       </c>
       <c r="I42"/>
       <c r="J42" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K42" s="1">
         <v>2</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="N42" s="6"/>
     </row>
     <row r="43" spans="2:17">
       <c r="B43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="1">
         <v>1</v>
       </c>
-      <c r="D43" s="6"/>
       <c r="E43"/>
       <c r="F43"/>
       <c r="G43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H43" s="6"/>
       <c r="I43"/>
       <c r="M43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N43" s="6">
+      <c r="N43" s="1">
         <v>1</v>
       </c>
     </row>
@@ -54622,21 +54454,19 @@
       <c r="B44" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="1">
         <v>1</v>
       </c>
-      <c r="D44" s="6"/>
       <c r="E44"/>
       <c r="F44"/>
       <c r="G44" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H44" s="6"/>
       <c r="I44"/>
       <c r="M44" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="N44" s="6">
+      <c r="N44" s="1">
         <v>1</v>
       </c>
     </row>
@@ -54644,8 +54474,7 @@
       <c r="B45" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6">
+      <c r="D45" s="1">
         <v>1</v>
       </c>
       <c r="E45"/>
@@ -54653,34 +54482,31 @@
       <c r="G45" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H45" s="1">
         <v>1</v>
       </c>
       <c r="I45"/>
       <c r="M45" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="N45" s="6"/>
     </row>
     <row r="46" spans="2:17">
       <c r="B46" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="1">
         <v>1</v>
       </c>
-      <c r="D46" s="6"/>
       <c r="E46"/>
       <c r="F46"/>
       <c r="G46" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H46" s="6"/>
       <c r="I46"/>
       <c r="M46" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="N46" s="6">
+      <c r="N46" s="1">
         <v>1</v>
       </c>
     </row>
@@ -54688,10 +54514,10 @@
       <c r="B47" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="1">
         <v>4</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="1">
         <v>2</v>
       </c>
       <c r="E47"/>
@@ -54699,14 +54525,14 @@
       <c r="G47" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H47" s="1">
         <v>2</v>
       </c>
       <c r="I47"/>
       <c r="M47" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N47" s="6">
+      <c r="N47" s="1">
         <v>4</v>
       </c>
     </row>
@@ -54714,10 +54540,10 @@
       <c r="B48" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="1">
         <v>5</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="1">
         <v>1</v>
       </c>
       <c r="E48"/>
@@ -54725,14 +54551,14 @@
       <c r="G48" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H48" s="1">
         <v>1</v>
       </c>
       <c r="I48"/>
       <c r="M48" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N48" s="6">
+      <c r="N48" s="1">
         <v>5</v>
       </c>
     </row>
@@ -54740,8 +54566,7 @@
       <c r="B49" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6">
+      <c r="D49" s="1">
         <v>1</v>
       </c>
       <c r="E49"/>
@@ -54749,14 +54574,13 @@
       <c r="G49" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H49" s="1">
         <v>1</v>
       </c>
       <c r="I49"/>
       <c r="M49" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="N49" s="6"/>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="1" t="s">
@@ -54765,8 +54589,7 @@
       <c r="B50" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6">
+      <c r="D50" s="1">
         <v>1</v>
       </c>
       <c r="E50"/>
@@ -54774,34 +54597,31 @@
       <c r="G50" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H50" s="1">
         <v>1</v>
       </c>
       <c r="I50"/>
       <c r="M50" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="N50" s="6"/>
     </row>
     <row r="51" spans="1:14">
       <c r="B51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="1">
         <v>1</v>
       </c>
-      <c r="D51" s="6"/>
       <c r="E51"/>
       <c r="F51"/>
       <c r="G51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H51" s="6"/>
       <c r="I51"/>
       <c r="M51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="N51" s="6">
+      <c r="N51" s="1">
         <v>1</v>
       </c>
     </row>
@@ -54809,21 +54629,19 @@
       <c r="B52" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="1">
         <v>1</v>
       </c>
-      <c r="D52" s="6"/>
       <c r="E52"/>
       <c r="F52"/>
       <c r="G52" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H52" s="6"/>
       <c r="I52"/>
       <c r="M52" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="N52" s="6">
+      <c r="N52" s="1">
         <v>1</v>
       </c>
     </row>
@@ -54834,8 +54652,7 @@
       <c r="B53" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6">
+      <c r="D53" s="1">
         <v>2</v>
       </c>
       <c r="E53"/>
@@ -54843,14 +54660,13 @@
       <c r="G53" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="H53" s="6">
+      <c r="H53" s="1">
         <v>2</v>
       </c>
       <c r="I53"/>
       <c r="M53" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="N53" s="6"/>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="1" t="s">
@@ -54859,8 +54675,7 @@
       <c r="B54" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6">
+      <c r="D54" s="1">
         <v>2</v>
       </c>
       <c r="E54"/>
@@ -54868,23 +54683,22 @@
       <c r="G54" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="H54" s="6">
+      <c r="H54" s="1">
         <v>2</v>
       </c>
       <c r="I54"/>
       <c r="M54" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="N54" s="6"/>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="1">
         <v>65</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="1">
         <v>65</v>
       </c>
       <c r="E55"/>
@@ -54892,7 +54706,7 @@
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55"/>
-      <c r="N55" s="7"/>
+      <c r="N55" s="6"/>
     </row>
     <row r="56" spans="1:14">
       <c r="A56"/>
@@ -54904,7 +54718,7 @@
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56"/>
-      <c r="N56" s="7"/>
+      <c r="N56" s="6"/>
     </row>
     <row r="57" spans="1:14">
       <c r="A57"/>
@@ -54916,7 +54730,7 @@
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57"/>
-      <c r="N57" s="7"/>
+      <c r="N57" s="6"/>
     </row>
     <row r="58" spans="1:14">
       <c r="A58"/>
@@ -54928,7 +54742,7 @@
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58"/>
-      <c r="N58" s="7"/>
+      <c r="N58" s="6"/>
     </row>
     <row r="59" spans="1:14">
       <c r="A59"/>
@@ -54940,7 +54754,7 @@
       <c r="G59"/>
       <c r="H59"/>
       <c r="I59"/>
-      <c r="N59" s="7"/>
+      <c r="N59" s="6"/>
     </row>
     <row r="60" spans="1:14">
       <c r="A60"/>
@@ -54952,7 +54766,7 @@
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60"/>
-      <c r="N60" s="7"/>
+      <c r="N60" s="6"/>
     </row>
     <row r="61" spans="1:14">
       <c r="A61"/>
@@ -54964,7 +54778,7 @@
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61"/>
-      <c r="N61" s="7"/>
+      <c r="N61" s="6"/>
     </row>
     <row r="62" spans="1:14">
       <c r="A62"/>
@@ -54976,7 +54790,7 @@
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62"/>
-      <c r="N62" s="7"/>
+      <c r="N62" s="6"/>
     </row>
     <row r="63" spans="1:14">
       <c r="A63"/>
@@ -54999,7 +54813,7 @@
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64"/>
-      <c r="N64" s="7"/>
+      <c r="N64" s="6"/>
     </row>
     <row r="65" spans="1:14">
       <c r="A65"/>
@@ -55011,7 +54825,7 @@
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65"/>
-      <c r="N65" s="7"/>
+      <c r="N65" s="6"/>
     </row>
     <row r="66" spans="1:14">
       <c r="A66"/>
@@ -55023,7 +54837,7 @@
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66"/>
-      <c r="N66" s="7"/>
+      <c r="N66" s="6"/>
     </row>
     <row r="67" spans="1:14">
       <c r="A67"/>
@@ -55035,7 +54849,7 @@
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67"/>
-      <c r="N67" s="7"/>
+      <c r="N67" s="6"/>
     </row>
     <row r="68" spans="1:14">
       <c r="A68"/>
@@ -55047,7 +54861,7 @@
       <c r="G68"/>
       <c r="H68"/>
       <c r="I68"/>
-      <c r="N68" s="7"/>
+      <c r="N68" s="6"/>
     </row>
     <row r="69" spans="1:14">
       <c r="A69"/>
@@ -55059,7 +54873,7 @@
       <c r="G69"/>
       <c r="H69"/>
       <c r="I69"/>
-      <c r="N69" s="7"/>
+      <c r="N69" s="6"/>
     </row>
     <row r="70" spans="1:14">
       <c r="A70"/>
@@ -55071,7 +54885,7 @@
       <c r="G70"/>
       <c r="H70"/>
       <c r="I70"/>
-      <c r="N70" s="7"/>
+      <c r="N70" s="6"/>
     </row>
     <row r="71" spans="1:14">
       <c r="A71"/>
@@ -55083,7 +54897,7 @@
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71"/>
-      <c r="N71" s="7"/>
+      <c r="N71" s="6"/>
     </row>
     <row r="72" spans="1:14">
       <c r="A72"/>
@@ -55095,7 +54909,7 @@
       <c r="G72"/>
       <c r="H72"/>
       <c r="I72"/>
-      <c r="N72" s="7"/>
+      <c r="N72" s="6"/>
     </row>
     <row r="73" spans="1:14">
       <c r="A73"/>
@@ -55107,7 +54921,7 @@
       <c r="G73"/>
       <c r="H73"/>
       <c r="I73"/>
-      <c r="N73" s="7"/>
+      <c r="N73" s="6"/>
     </row>
     <row r="74" spans="1:14">
       <c r="A74"/>
@@ -55119,7 +54933,7 @@
       <c r="G74"/>
       <c r="H74"/>
       <c r="I74"/>
-      <c r="N74" s="7"/>
+      <c r="N74" s="6"/>
     </row>
     <row r="75" spans="1:14">
       <c r="A75"/>
@@ -57225,16 +57039,25 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="G5:G54 J5:J49">
-    <cfRule type="duplicateValues" dxfId="2" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1048576 P1:P1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100940E1E10986D7847BE9C9AC68A86062C" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="125f10ebac356ea3a5565510e8d88386">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="952e7e5e-963e-4d92-84b7-491b93135911" xmlns:ns3="1b7a6422-acb0-42a5-b83e-dbe86ecd454b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3322185ac9ec085f88309c373491a520" ns2:_="" ns3:_="">
     <xsd:import namespace="952e7e5e-963e-4d92-84b7-491b93135911"/>
@@ -57477,16 +57300,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED0F4ECE-F270-4A30-97AB-617F0B1AC9C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F44756EA-A906-4E14-A609-C382D9F4E389}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -57503,12 +57325,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED0F4ECE-F270-4A30-97AB-617F0B1AC9C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>